--- a/VA_result_APU.xlsx
+++ b/VA_result_APU.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="157">
   <si>
     <t xml:space="preserve">time</t>
   </si>
@@ -344,54 +344,6 @@
     <t xml:space="preserve">2021-10-01</t>
   </si>
   <si>
-    <t xml:space="preserve">2022-01-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-07-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-10-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-01-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-07-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-10-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-01-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-07-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-10-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-01-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-07-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-10-01</t>
-  </si>
-  <si>
     <t xml:space="preserve">VA_CST</t>
   </si>
   <si>
@@ -407,12 +359,12 @@
     <t xml:space="preserve">decision</t>
   </si>
   <si>
+    <t xml:space="preserve">A corriger</t>
+  </si>
+  <si>
     <t xml:space="preserve">Acceptable</t>
   </si>
   <si>
-    <t xml:space="preserve">A corriger</t>
-  </si>
-  <si>
     <t xml:space="preserve">Actual</t>
   </si>
   <si>
@@ -458,76 +410,76 @@
     <t xml:space="preserve">var_controle</t>
   </si>
   <si>
-    <t xml:space="preserve">-2.3283064365387e-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0964329884154722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0797617813805118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0554250030545518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.181195706129074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.191039860481396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.18914368795231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.199256190797314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.235507562523708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.221441952860914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.213120538042858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.239398641861044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.261447904398665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.313050181255676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.328578580869362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.204013856360689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.233176496229135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.301196588552557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0843071795534343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0740368090337142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.145732718985528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3885251020547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.228129239287227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.253887708298862</t>
+    <t xml:space="preserve">1.16415321826935e-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.595210601342842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.627690867055207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.675105854170397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.43006864679046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.410889425198548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.414583710953593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.39488167129457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.324253657716326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.351657478371635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.367869967361912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.316672724904492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.273714472074062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.173178517026827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142924764426425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.385722119593993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.387471917434596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.412047220859677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.414025400998071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.485048373229802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.452245892956853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0192524353042245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.435426870593801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.498799748253077</t>
   </si>
   <si>
     <t xml:space="preserve">valaj_brut</t>
@@ -568,7 +520,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFA500"/>
+        <fgColor rgb="FFB8F0F6"/>
       </patternFill>
     </fill>
   </fills>
@@ -1800,10 +1752,10 @@
         <v>75</v>
       </c>
       <c r="B64" t="n">
-        <v>0</v>
+        <v>500.072848005389</v>
       </c>
       <c r="C64" t="n">
-        <v>0</v>
+        <v>0.0828255425606161</v>
       </c>
     </row>
     <row r="65">
@@ -1833,10 +1785,10 @@
         <v>77</v>
       </c>
       <c r="B67" t="n">
-        <v>0</v>
+        <v>44696.1471418059</v>
       </c>
       <c r="C67" t="n">
-        <v>0</v>
+        <v>7.40288670371745</v>
       </c>
     </row>
     <row r="68">
@@ -1844,10 +1796,10 @@
         <v>78</v>
       </c>
       <c r="B68" t="n">
-        <v>0</v>
+        <v>89528.35371364</v>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>14.8283085163846</v>
       </c>
     </row>
     <row r="69">
@@ -1855,10 +1807,10 @@
         <v>79</v>
       </c>
       <c r="B69" t="n">
-        <v>0</v>
+        <v>133162.101568846</v>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
+        <v>22.0552332624001</v>
       </c>
     </row>
     <row r="70">
@@ -1866,10 +1818,10 @@
         <v>19</v>
       </c>
       <c r="B70" t="n">
-        <v>0</v>
+        <v>179020.937454262</v>
       </c>
       <c r="C70" t="n">
-        <v>0</v>
+        <v>29.6506925610958</v>
       </c>
     </row>
     <row r="71">
@@ -1877,10 +1829,10 @@
         <v>80</v>
       </c>
       <c r="B71" t="n">
-        <v>0</v>
+        <v>223695.204885291</v>
       </c>
       <c r="C71" t="n">
-        <v>0</v>
+        <v>37.0499553949644</v>
       </c>
     </row>
     <row r="72">
@@ -1888,10 +1840,10 @@
         <v>81</v>
       </c>
       <c r="B72" t="n">
-        <v>0</v>
+        <v>268531.18738972</v>
       </c>
       <c r="C72" t="n">
-        <v>0</v>
+        <v>44.4760026038453</v>
       </c>
     </row>
     <row r="73">
@@ -1899,10 +1851,10 @@
         <v>82</v>
       </c>
       <c r="B73" t="n">
-        <v>0</v>
+        <v>312026.084922004</v>
       </c>
       <c r="C73" t="n">
-        <v>0</v>
+        <v>51.6799299938224</v>
       </c>
     </row>
     <row r="74">
@@ -1910,10 +1862,10 @@
         <v>20</v>
       </c>
       <c r="B74" t="n">
-        <v>774049.620668209</v>
+        <v>358038.363849967</v>
       </c>
       <c r="C74" t="n">
-        <v>77.4049620668209</v>
+        <v>59.3008035962577</v>
       </c>
     </row>
     <row r="75">
@@ -1921,10 +1873,10 @@
         <v>83</v>
       </c>
       <c r="B75" t="n">
-        <v>879155.683261931</v>
+        <v>402693.655830845</v>
       </c>
       <c r="C75" t="n">
-        <v>87.9155683261931</v>
+        <v>66.6969235841182</v>
       </c>
     </row>
     <row r="76">
@@ -1932,10 +1884,10 @@
         <v>84</v>
       </c>
       <c r="B76" t="n">
-        <v>783313.597099962</v>
+        <v>447537.578697922</v>
       </c>
       <c r="C76" t="n">
-        <v>78.3313597099962</v>
+        <v>74.1242859310777</v>
       </c>
     </row>
     <row r="77">
@@ -1943,10 +1895,10 @@
         <v>85</v>
       </c>
       <c r="B77" t="n">
-        <v>942880.040545594</v>
+        <v>490897.033838723</v>
       </c>
       <c r="C77" t="n">
-        <v>94.2880040545594</v>
+        <v>81.3057804103199</v>
       </c>
     </row>
     <row r="78">
@@ -1954,10 +1906,10 @@
         <v>21</v>
       </c>
       <c r="B78" t="n">
-        <v>962777.472162186</v>
+        <v>537031.821956409</v>
       </c>
       <c r="C78" t="n">
-        <v>96.2777472162186</v>
+        <v>88.946944836678</v>
       </c>
     </row>
     <row r="79">
@@ -1965,10 +1917,10 @@
         <v>86</v>
       </c>
       <c r="B79" t="n">
-        <v>1144983.30457745</v>
+        <v>581674.584041304</v>
       </c>
       <c r="C79" t="n">
-        <v>114.498330457745</v>
+        <v>96.3409895360337</v>
       </c>
     </row>
     <row r="80">
@@ -1976,10 +1928,10 @@
         <v>87</v>
       </c>
       <c r="B80" t="n">
-        <v>940900.412493883</v>
+        <v>626516.284993119</v>
       </c>
       <c r="C80" t="n">
-        <v>94.0900412493883</v>
+        <v>103.767983873937</v>
       </c>
     </row>
     <row r="81">
@@ -1987,10 +1939,10 @@
         <v>88</v>
       </c>
       <c r="B81" t="n">
-        <v>951338.810766481</v>
+        <v>669843.157274073</v>
       </c>
       <c r="C81" t="n">
-        <v>95.1338810766481</v>
+        <v>110.944081753352</v>
       </c>
     </row>
     <row r="82">
@@ -1998,10 +1950,10 @@
         <v>22</v>
       </c>
       <c r="B82" t="n">
-        <v>898438.597837772</v>
+        <v>716017.119650521</v>
       </c>
       <c r="C82" t="n">
-        <v>89.8438597837772</v>
+        <v>118.591734492861</v>
       </c>
     </row>
     <row r="83">
@@ -2009,10 +1961,10 @@
         <v>89</v>
       </c>
       <c r="B83" t="n">
-        <v>1029680.21020706</v>
+        <v>760649.456378482</v>
       </c>
       <c r="C83" t="n">
-        <v>102.968021020706</v>
+        <v>125.984052472104</v>
       </c>
     </row>
     <row r="84">
@@ -2020,10 +1972,10 @@
         <v>90</v>
       </c>
       <c r="B84" t="n">
-        <v>1165623.01149314</v>
+        <v>805493.312598734</v>
       </c>
       <c r="C84" t="n">
-        <v>116.562301149314</v>
+        <v>133.411403780553</v>
       </c>
     </row>
     <row r="85">
@@ -2031,10 +1983,10 @@
         <v>91</v>
       </c>
       <c r="B85" t="n">
-        <v>1200017.54657381</v>
+        <v>848791.7282063</v>
       </c>
       <c r="C85" t="n">
-        <v>120.001754657381</v>
+        <v>140.582788467836</v>
       </c>
     </row>
     <row r="86">
@@ -2042,10 +1994,10 @@
         <v>23</v>
       </c>
       <c r="B86" t="n">
-        <v>1101567.36261456</v>
+        <v>894988.007511861</v>
       </c>
       <c r="C86" t="n">
-        <v>110.156736261456</v>
+        <v>148.234137492336</v>
       </c>
     </row>
     <row r="87">
@@ -2053,10 +2005,10 @@
         <v>92</v>
       </c>
       <c r="B87" t="n">
-        <v>1441398.05219461</v>
+        <v>939619.830757279</v>
       </c>
       <c r="C87" t="n">
-        <v>144.139805219461</v>
+        <v>155.626370425029</v>
       </c>
     </row>
     <row r="88">
@@ -2064,10 +2016,10 @@
         <v>93</v>
       </c>
       <c r="B88" t="n">
-        <v>1287205.66028883</v>
+        <v>984463.284617994</v>
       </c>
       <c r="C88" t="n">
-        <v>128.720566028883</v>
+        <v>163.053655091894</v>
       </c>
     </row>
     <row r="89">
@@ -2075,10 +2027,10 @@
         <v>94</v>
       </c>
       <c r="B89" t="n">
-        <v>1373635.27662189</v>
+        <v>1027760.54183497</v>
       </c>
       <c r="C89" t="n">
-        <v>137.363527662189</v>
+        <v>170.224847918471</v>
       </c>
     </row>
     <row r="90">
@@ -2086,10 +2038,10 @@
         <v>24</v>
       </c>
       <c r="B90" t="n">
-        <v>1059465.1018414</v>
+        <v>1073957.59906476</v>
       </c>
       <c r="C90" t="n">
-        <v>105.94651018414</v>
+        <v>177.876325788191</v>
       </c>
     </row>
     <row r="91">
@@ -2097,10 +2049,10 @@
         <v>95</v>
       </c>
       <c r="B91" t="n">
-        <v>1359038.3493044</v>
+        <v>1118588.68980357</v>
       </c>
       <c r="C91" t="n">
-        <v>135.90383493044</v>
+        <v>185.268437398048</v>
       </c>
     </row>
     <row r="92">
@@ -2108,10 +2060,10 @@
         <v>96</v>
       </c>
       <c r="B92" t="n">
-        <v>1522177.7063889</v>
+        <v>1163432.25558629</v>
       </c>
       <c r="C92" t="n">
-        <v>152.21777063889</v>
+        <v>192.695740602212</v>
       </c>
     </row>
     <row r="93">
@@ -2119,10 +2071,10 @@
         <v>97</v>
       </c>
       <c r="B93" t="n">
-        <v>1350365.1773914</v>
+        <v>1206729.00498588</v>
       </c>
       <c r="C93" t="n">
-        <v>135.03651773914</v>
+        <v>199.866849320543</v>
       </c>
     </row>
     <row r="94">
@@ -2130,10 +2082,10 @@
         <v>25</v>
       </c>
       <c r="B94" t="n">
-        <v>1161130.92815152</v>
+        <v>1252926.72429188</v>
       </c>
       <c r="C94" t="n">
-        <v>116.113092815152</v>
+        <v>207.518436847929</v>
       </c>
     </row>
     <row r="95">
@@ -2141,10 +2093,10 @@
         <v>98</v>
       </c>
       <c r="B95" t="n">
-        <v>1532582.40544906</v>
+        <v>1297557.5035288</v>
       </c>
       <c r="C95" t="n">
-        <v>153.258240544906</v>
+        <v>214.910496864676</v>
       </c>
     </row>
     <row r="96">
@@ -2152,10 +2104,10 @@
         <v>99</v>
       </c>
       <c r="B96" t="n">
-        <v>1236146.73495345</v>
+        <v>1342401.12452388</v>
       </c>
       <c r="C96" t="n">
-        <v>123.614673495345</v>
+        <v>222.337809213496</v>
       </c>
     </row>
     <row r="97">
@@ -2163,10 +2115,10 @@
         <v>100</v>
       </c>
       <c r="B97" t="n">
-        <v>1615877.57653774</v>
+        <v>1385697.57825347</v>
       </c>
       <c r="C97" t="n">
-        <v>161.587757653774</v>
+        <v>229.508868960905</v>
       </c>
     </row>
     <row r="98">
@@ -2174,10 +2126,10 @@
         <v>26</v>
       </c>
       <c r="B98" t="n">
-        <v>1183323.01263132</v>
+        <v>1431895.91667161</v>
       </c>
       <c r="C98" t="n">
-        <v>118.332301263132</v>
+        <v>237.16055902995</v>
       </c>
     </row>
     <row r="99">
@@ -2188,7 +2140,7 @@
         <v>1476526.35986357</v>
       </c>
       <c r="C99" t="n">
-        <v>147.652635986357</v>
+        <v>244.552563388593</v>
       </c>
     </row>
     <row r="100">
@@ -2196,10 +2148,10 @@
         <v>102</v>
       </c>
       <c r="B100" t="n">
-        <v>2003272.83017334</v>
+        <v>1476627.81716781</v>
       </c>
       <c r="C100" t="n">
-        <v>200.327283017334</v>
+        <v>244.569367452847</v>
       </c>
     </row>
     <row r="101">
@@ -2207,10 +2159,10 @@
         <v>103</v>
       </c>
       <c r="B101" t="n">
-        <v>2005040.90995448</v>
+        <v>1475181.76654412</v>
       </c>
       <c r="C101" t="n">
-        <v>200.504090995448</v>
+        <v>244.32986249281</v>
       </c>
     </row>
     <row r="102">
@@ -2218,10 +2170,10 @@
         <v>104</v>
       </c>
       <c r="B102" t="n">
-        <v>2035950.62186446</v>
+        <v>1473735.71592042</v>
       </c>
       <c r="C102" t="n">
-        <v>203.595062186446</v>
+        <v>244.090357532773</v>
       </c>
     </row>
     <row r="103">
@@ -2229,10 +2181,10 @@
         <v>105</v>
       </c>
       <c r="B103" t="n">
-        <v>2148123.54860969</v>
+        <v>1472289.66529673</v>
       </c>
       <c r="C103" t="n">
-        <v>214.812354860969</v>
+        <v>243.850852572735</v>
       </c>
     </row>
     <row r="104">
@@ -2240,10 +2192,10 @@
         <v>106</v>
       </c>
       <c r="B104" t="n">
-        <v>2261690.11978246</v>
+        <v>1470843.61467304</v>
       </c>
       <c r="C104" t="n">
-        <v>226.169011978246</v>
+        <v>243.611347612698</v>
       </c>
     </row>
     <row r="105">
@@ -2251,186 +2203,10 @@
         <v>107</v>
       </c>
       <c r="B105" t="n">
-        <v>2557028.41809521</v>
+        <v>1469397.56404935</v>
       </c>
       <c r="C105" t="n">
-        <v>255.702841809521</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="s">
-        <v>108</v>
-      </c>
-      <c r="B106" t="n">
-        <v>2312176.05295684</v>
-      </c>
-      <c r="C106" t="n">
-        <v>231.217605295684</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="s">
-        <v>109</v>
-      </c>
-      <c r="B107" t="n">
-        <v>2518111.93437544</v>
-      </c>
-      <c r="C107" t="n">
-        <v>251.811193437544</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="s">
-        <v>110</v>
-      </c>
-      <c r="B108" t="n">
-        <v>2643654.99571141</v>
-      </c>
-      <c r="C108" t="n">
-        <v>264.365499571141</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="s">
-        <v>111</v>
-      </c>
-      <c r="B109" t="n">
-        <v>2580003.15629205</v>
-      </c>
-      <c r="C109" t="n">
-        <v>258.000315629205</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="s">
-        <v>112</v>
-      </c>
-      <c r="B110" t="n">
-        <v>2752024.7726437</v>
-      </c>
-      <c r="C110" t="n">
-        <v>275.20247726437</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="s">
-        <v>113</v>
-      </c>
-      <c r="B111" t="n">
-        <v>2658881.16021185</v>
-      </c>
-      <c r="C111" t="n">
-        <v>265.888116021185</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="s">
-        <v>114</v>
-      </c>
-      <c r="B112" t="n">
-        <v>2773945.09654022</v>
-      </c>
-      <c r="C112" t="n">
-        <v>277.394509654022</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="s">
-        <v>115</v>
-      </c>
-      <c r="B113" t="n">
-        <v>2895798.75276839</v>
-      </c>
-      <c r="C113" t="n">
-        <v>289.579875276839</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="s">
-        <v>116</v>
-      </c>
-      <c r="B114" t="n">
-        <v>2740830.93204342</v>
-      </c>
-      <c r="C114" t="n">
-        <v>274.083093204342</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="s">
-        <v>117</v>
-      </c>
-      <c r="B115" t="n">
-        <v>2952771.4618863</v>
-      </c>
-      <c r="C115" t="n">
-        <v>295.27714618863</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="s">
-        <v>118</v>
-      </c>
-      <c r="B116" t="n">
-        <v>2897361.65759109</v>
-      </c>
-      <c r="C116" t="n">
-        <v>289.736165759109</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="s">
-        <v>119</v>
-      </c>
-      <c r="B117" t="n">
-        <v>2919662.53939464</v>
-      </c>
-      <c r="C117" t="n">
-        <v>291.966253939464</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="s">
-        <v>120</v>
-      </c>
-      <c r="B118" t="n">
-        <v>3054162.36854171</v>
-      </c>
-      <c r="C118" t="n">
-        <v>305.416236854171</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="s">
-        <v>121</v>
-      </c>
-      <c r="B119" t="n">
-        <v>2920605.87168336</v>
-      </c>
-      <c r="C119" t="n">
-        <v>292.060587168336</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="s">
-        <v>122</v>
-      </c>
-      <c r="B120" t="n">
-        <v>3092226.81187428</v>
-      </c>
-      <c r="C120" t="n">
-        <v>309.222681187428</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="s">
-        <v>123</v>
-      </c>
-      <c r="B121" t="n">
-        <v>3078596.31149179</v>
-      </c>
-      <c r="C121" t="n">
-        <v>307.859631149179</v>
+        <v>243.371842652661</v>
       </c>
     </row>
   </sheetData>
@@ -2452,19 +2228,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2">
@@ -2492,7 +2268,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-2.83402310464594</v>
+        <v>-2.83402310464588</v>
       </c>
       <c r="E3" t="e">
         <v>#NUM!</v>
@@ -2504,13 +2280,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>553228.009095091</v>
+        <v>553228.507872703</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-2.78416526098687</v>
+        <v>-2.78407761343259</v>
       </c>
       <c r="E4" t="e">
         <v>#NUM!</v>
@@ -2522,13 +2298,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>530098.778904283</v>
+        <v>530099.326833369</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-4.18077714984821</v>
+        <v>-4.18076449607997</v>
       </c>
       <c r="E5" t="e">
         <v>#NUM!</v>
@@ -2540,13 +2316,13 @@
         <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>649628.849038177</v>
+        <v>649629.468719028</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>22.5486409119756</v>
+        <v>22.5486311404491</v>
       </c>
       <c r="E6" t="e">
         <v>#NUM!</v>
@@ -2558,13 +2334,13 @@
         <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>658984.673003448</v>
+        <v>658984.921876388</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>1.44017987795992</v>
+        <v>1.44012142426477</v>
       </c>
       <c r="E7" t="e">
         <v>#NUM!</v>
@@ -2576,13 +2352,13 @@
         <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>657182.59599338</v>
+        <v>657182.815842945</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.273462659132051</v>
+        <v>-0.273466960110791</v>
       </c>
       <c r="E8" t="e">
         <v>#NUM!</v>
@@ -2594,13 +2370,13 @@
         <v>9</v>
       </c>
       <c r="B9" t="n">
-        <v>666793.32509858</v>
+        <v>666793.550538603</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>1.46241381981103</v>
+        <v>1.46241418125503</v>
       </c>
       <c r="E9" t="e">
         <v>#NUM!</v>
@@ -2612,13 +2388,13 @@
         <v>10</v>
       </c>
       <c r="B10" t="n">
-        <v>701245.952522639</v>
+        <v>701246.148148119</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>5.16691246406302</v>
+        <v>5.16690624582183</v>
       </c>
       <c r="E10" t="e">
         <v>#NUM!</v>
@@ -2630,13 +2406,13 @@
         <v>11</v>
       </c>
       <c r="B11" t="n">
-        <v>687878.299493962</v>
+        <v>687878.388240058</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-1.90627168407717</v>
+        <v>-1.90628639363849</v>
       </c>
       <c r="E11" t="e">
         <v>#NUM!</v>
@@ -2648,13 +2424,13 @@
         <v>12</v>
       </c>
       <c r="B12" t="n">
-        <v>679969.770650153</v>
+        <v>679969.900865679</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-1.14969884202297</v>
+        <v>-1.14969266509637</v>
       </c>
       <c r="E12" t="e">
         <v>#NUM!</v>
@@ -2666,13 +2442,13 @@
         <v>13</v>
       </c>
       <c r="B13" t="n">
-        <v>704943.974616832</v>
+        <v>704944.129366261</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>3.67284032976929</v>
+        <v>3.67284323450014</v>
       </c>
       <c r="E13" t="e">
         <v>#NUM!</v>
@@ -2684,13 +2460,13 @@
         <v>14</v>
       </c>
       <c r="B14" t="n">
-        <v>725899.202355174</v>
+        <v>725899.279629257</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>2.97260895800013</v>
+        <v>2.97259731517083</v>
       </c>
       <c r="E14" t="e">
         <v>#NUM!</v>
@@ -2702,13 +2478,13 @@
         <v>15</v>
       </c>
       <c r="B15" t="n">
-        <v>774941.050901995</v>
+        <v>774941.063168562</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>6.75601356051987</v>
+        <v>6.75600388587698</v>
       </c>
       <c r="E15" t="e">
         <v>#NUM!</v>
@@ -2720,13 +2496,13 @@
         <v>16</v>
       </c>
       <c r="B16" t="n">
-        <v>789698.999456265</v>
+        <v>789698.8595846</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>1.90439628112258</v>
+        <v>1.90437661874525</v>
       </c>
       <c r="E16" t="e">
         <v>#NUM!</v>
@@ -2738,73 +2514,79 @@
         <v>17</v>
       </c>
       <c r="B17" t="n">
-        <v>671315.059944215</v>
+        <v>671314.874290399</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>0.020706385640154</v>
       </c>
       <c r="D17" t="n">
-        <v>-14.9910205779115</v>
+        <v>-14.9910290305439</v>
       </c>
       <c r="E17" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="F17"/>
+      <c r="F17" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
         <v>18</v>
       </c>
       <c r="B18" t="n">
-        <v>699030.555860728</v>
+        <v>699030.737568991</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>11.0716071206255</v>
       </c>
       <c r="D18" t="n">
-        <v>4.12853778653735</v>
-      </c>
-      <c r="E18" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F18"/>
+        <v>4.12859365106264</v>
+      </c>
+      <c r="E18" t="n">
+        <v>53369.530187612</v>
+      </c>
+      <c r="F18" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
         <v>19</v>
       </c>
       <c r="B19" t="n">
-        <v>763675.592622182</v>
+        <v>763675.746917604</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>40.714145138432</v>
       </c>
       <c r="D19" t="n">
-        <v>9.24781273428827</v>
-      </c>
-      <c r="E19" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F19"/>
+        <v>9.24780640883225</v>
+      </c>
+      <c r="E19" t="n">
+        <v>267.734735299492</v>
+      </c>
+      <c r="F19" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
         <v>20</v>
       </c>
       <c r="B20" t="n">
-        <v>839344.317723745</v>
+        <v>839344.428574377</v>
       </c>
       <c r="C20" t="n">
-        <v>84.4849735393924</v>
+        <v>70.3569483804434</v>
       </c>
       <c r="D20" t="n">
-        <v>9.90849070372197</v>
-      </c>
-      <c r="E20" t="e">
-        <v>#NUM!</v>
+        <v>9.90848301287457</v>
+      </c>
+      <c r="E20" t="n">
+        <v>72.8071365399495</v>
       </c>
       <c r="F20" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21">
@@ -2812,19 +2594,19 @@
         <v>21</v>
       </c>
       <c r="B21" t="n">
-        <v>881333.08430718</v>
+        <v>881333.414025401</v>
       </c>
       <c r="C21" t="n">
         <v>100</v>
       </c>
       <c r="D21" t="n">
-        <v>5.00256756336968</v>
+        <v>5.00259297870624</v>
       </c>
       <c r="E21" t="n">
-        <v>18.3642437354537</v>
+        <v>42.1323725686151</v>
       </c>
       <c r="F21" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22">
@@ -2832,19 +2614,19 @@
         <v>22</v>
       </c>
       <c r="B22" t="n">
-        <v>973967.074036809</v>
+        <v>973967.485048373</v>
       </c>
       <c r="C22" t="n">
-        <v>107.343984152795</v>
+        <v>129.642494803339</v>
       </c>
       <c r="D22" t="n">
-        <v>10.5106674626256</v>
+        <v>10.5106727543525</v>
       </c>
       <c r="E22" t="n">
-        <v>7.34398415279451</v>
+        <v>29.6424948033387</v>
       </c>
       <c r="F22" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23">
@@ -2852,19 +2634,19 @@
         <v>23</v>
       </c>
       <c r="B23" t="n">
-        <v>1280598.05939266</v>
+        <v>1280598.36590583</v>
       </c>
       <c r="C23" t="n">
-        <v>130.095158792997</v>
+        <v>159.284752731933</v>
       </c>
       <c r="D23" t="n">
-        <v>31.4826849417971</v>
+        <v>31.4826609270461</v>
       </c>
       <c r="E23" t="n">
-        <v>21.1946433885094</v>
+        <v>22.8646154747019</v>
       </c>
       <c r="F23" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24">
@@ -2872,19 +2654,19 @@
         <v>24</v>
       </c>
       <c r="B24" t="n">
-        <v>1135435.74907084</v>
+        <v>1135435.3412933</v>
       </c>
       <c r="C24" t="n">
-        <v>132.276158373152</v>
+        <v>188.926838277249</v>
       </c>
       <c r="D24" t="n">
-        <v>-11.3355091597332</v>
+        <v>-11.3355622244489</v>
       </c>
       <c r="E24" t="n">
-        <v>1.67646482804584</v>
+        <v>18.6094933990336</v>
       </c>
       <c r="F24" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25">
@@ -2892,19 +2674,19 @@
         <v>25</v>
       </c>
       <c r="B25" t="n">
-        <v>1181153.76633826</v>
+        <v>1181153.97363589</v>
       </c>
       <c r="C25" t="n">
-        <v>138.643441127294</v>
+        <v>218.568902971751</v>
       </c>
       <c r="D25" t="n">
-        <v>4.02647329933299</v>
+        <v>4.02652891625801</v>
       </c>
       <c r="E25" t="n">
-        <v>4.8136284213665</v>
+        <v>15.6897055838109</v>
       </c>
       <c r="F25" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26">
@@ -2912,19 +2694,19 @@
         <v>26</v>
       </c>
       <c r="B26" t="n">
-        <v>1271002.07215185</v>
+        <v>1271002.31706389</v>
       </c>
       <c r="C26" t="n">
-        <v>166.704077815568</v>
+        <v>242.65308809105</v>
       </c>
       <c r="D26" t="n">
-        <v>7.60682549335938</v>
+        <v>7.60682734287603</v>
       </c>
       <c r="E26" t="n">
-        <v>20.2394260125945</v>
+        <v>11.0190355498154</v>
       </c>
       <c r="F26" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27">
@@ -2932,99 +2714,19 @@
         <v>104</v>
       </c>
       <c r="B27" t="n">
-        <v>1441529.99550189</v>
+        <v>1286571.06450105</v>
       </c>
       <c r="C27" t="n">
-        <v>225.069817708796</v>
+        <v>243.731100092717</v>
       </c>
       <c r="D27" t="n">
-        <v>13.4168092315802</v>
+        <v>1.22491888709757</v>
       </c>
       <c r="E27" t="n">
-        <v>35.0115849942197</v>
+        <v>0.444260573869992</v>
       </c>
       <c r="F27" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s">
-        <v>108</v>
-      </c>
-      <c r="B28" t="n">
-        <v>1529181.99920434</v>
-      </c>
-      <c r="C28" t="n">
-        <v>251.348653483394</v>
-      </c>
-      <c r="D28" t="n">
-        <v>6.08048420608316</v>
-      </c>
-      <c r="E28" t="n">
-        <v>11.6758595364389</v>
-      </c>
-      <c r="F28" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>112</v>
-      </c>
-      <c r="B29" t="n">
-        <v>1614795.22069026</v>
-      </c>
-      <c r="C29" t="n">
-        <v>277.016244554104</v>
-      </c>
-      <c r="D29" t="n">
-        <v>5.59862864789573</v>
-      </c>
-      <c r="E29" t="n">
-        <v>10.211946917156</v>
-      </c>
-      <c r="F29" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s">
-        <v>116</v>
-      </c>
-      <c r="B30" t="n">
-        <v>1650649.48108815</v>
-      </c>
-      <c r="C30" t="n">
-        <v>287.765664772886</v>
-      </c>
-      <c r="D30" t="n">
-        <v>2.22035958110924</v>
-      </c>
-      <c r="E30" t="n">
-        <v>3.88042955245635</v>
-      </c>
-      <c r="F30" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s">
-        <v>120</v>
-      </c>
-      <c r="B31" t="n">
-        <v>1703596.96997509</v>
-      </c>
-      <c r="C31" t="n">
-        <v>303.639784089779</v>
-      </c>
-      <c r="D31" t="n">
-        <v>3.20767609923078</v>
-      </c>
-      <c r="E31" t="n">
-        <v>5.51633542848855</v>
-      </c>
-      <c r="F31" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -3046,19 +2748,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2">
@@ -3069,16 +2771,16 @@
         <v>569071.911566972</v>
       </c>
       <c r="C2" t="n">
-        <v>661919.938899887</v>
+        <v>656932.918116334</v>
       </c>
       <c r="D2" t="n">
-        <v>-92848.027332915</v>
+        <v>-87861.0065493619</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>-103131.989373177</v>
+        <v>-96104.4157417431</v>
       </c>
     </row>
     <row r="3">
@@ -3089,16 +2791,16 @@
         <v>553227.912662102</v>
       </c>
       <c r="C3" t="n">
-        <v>627310.596551686</v>
+        <v>626235.016122343</v>
       </c>
       <c r="D3" t="n">
-        <v>-74082.6838895841</v>
+        <v>-73007.1034602404</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>-118975.988278047</v>
+        <v>-111948.414646613</v>
       </c>
     </row>
     <row r="4">
@@ -3109,16 +2811,16 @@
         <v>530098.699142501</v>
       </c>
       <c r="C4" t="n">
-        <v>620413.74308584</v>
+        <v>619815.126068279</v>
       </c>
       <c r="D4" t="n">
-        <v>-90315.0439433391</v>
+        <v>-89716.4269257779</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>-142105.201797648</v>
+        <v>-135077.628166214</v>
       </c>
     </row>
     <row r="5">
@@ -3129,16 +2831,16 @@
         <v>649628.793613174</v>
       </c>
       <c r="C5" t="n">
-        <v>610345.653749132</v>
+        <v>610443.312252567</v>
       </c>
       <c r="D5" t="n">
-        <v>39283.1398640421</v>
+        <v>39185.4813606067</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>-22575.1073269753</v>
+        <v>-15547.5336955412</v>
       </c>
     </row>
     <row r="6">
@@ -3149,16 +2851,16 @@
         <v>658984.491807742</v>
       </c>
       <c r="C6" t="n">
-        <v>662376.807706705</v>
+        <v>658876.164921954</v>
       </c>
       <c r="D6" t="n">
-        <v>-3392.31589896372</v>
+        <v>108.326885788007</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>-13219.4091324079</v>
+        <v>-6191.83550097374</v>
       </c>
     </row>
     <row r="7">
@@ -3169,16 +2871,16 @@
         <v>657182.404953519</v>
       </c>
       <c r="C7" t="n">
-        <v>666449.319949734</v>
+        <v>662667.035784085</v>
       </c>
       <c r="D7" t="n">
-        <v>-9266.91499621413</v>
+        <v>-5484.63083056597</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>-15021.4959866301</v>
+        <v>-7993.92235519597</v>
       </c>
     </row>
     <row r="8">
@@ -3189,16 +2891,16 @@
         <v>666793.135954892</v>
       </c>
       <c r="C8" t="n">
-        <v>665664.876007209</v>
+        <v>661936.841371586</v>
       </c>
       <c r="D8" t="n">
-        <v>1128.2599476834</v>
+        <v>4856.29458330576</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>-5410.76498525753</v>
+        <v>1616.80864617659</v>
       </c>
     </row>
     <row r="9">
@@ -3209,16 +2911,16 @@
         <v>701245.753266448</v>
       </c>
       <c r="C9" t="n">
-        <v>669848.403399132</v>
+        <v>665831.049944715</v>
       </c>
       <c r="D9" t="n">
-        <v>31397.349867316</v>
+        <v>35414.7033217329</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>29041.8523262984</v>
+        <v>36069.4259577325</v>
       </c>
     </row>
     <row r="10">
@@ -3229,16 +2931,16 @@
         <v>687878.0639864</v>
       </c>
       <c r="C10" t="n">
-        <v>684845.542349932</v>
+        <v>679791.036722227</v>
       </c>
       <c r="D10" t="n">
-        <v>3032.52163646808</v>
+        <v>8087.02726417311</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>15674.1630462504</v>
+        <v>22701.7366776845</v>
       </c>
     </row>
     <row r="11">
@@ -3249,16 +2951,16 @@
         <v>679969.5492082</v>
       </c>
       <c r="C11" t="n">
-        <v>679026.620328099</v>
+        <v>674374.531964176</v>
       </c>
       <c r="D11" t="n">
-        <v>942.928880101383</v>
+        <v>5595.0172440245</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>7765.64826805063</v>
+        <v>14793.2218994847</v>
       </c>
     </row>
     <row r="12">
@@ -3269,16 +2971,16 @@
         <v>704943.761496294</v>
       </c>
       <c r="C12" t="n">
-        <v>675584.063440459</v>
+        <v>671170.05084348</v>
       </c>
       <c r="D12" t="n">
-        <v>29359.6980558346</v>
+        <v>33773.7106528133</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>32739.860556144</v>
+        <v>39767.4341875782</v>
       </c>
     </row>
     <row r="13">
@@ -3289,16 +2991,16 @@
         <v>725898.962956532</v>
       </c>
       <c r="C13" t="n">
-        <v>686455.276169649</v>
+        <v>681289.446713112</v>
       </c>
       <c r="D13" t="n">
-        <v>39443.6867868825</v>
+        <v>44609.51624342</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>53695.0620163823</v>
+        <v>60722.6356478165</v>
       </c>
     </row>
     <row r="14">
@@ -3309,16 +3011,16 @@
         <v>774940.78945409</v>
       </c>
       <c r="C14" t="n">
-        <v>695577.023443572</v>
+        <v>689780.364330767</v>
       </c>
       <c r="D14" t="n">
-        <v>79363.766010518</v>
+        <v>85160.4251233233</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>102736.888513941</v>
+        <v>109764.462145375</v>
       </c>
     </row>
     <row r="15">
@@ -3329,16 +3031,16 @@
         <v>789698.686406083</v>
       </c>
       <c r="C15" t="n">
-        <v>716924.809004648</v>
+        <v>709651.808153449</v>
       </c>
       <c r="D15" t="n">
-        <v>72773.8774014351</v>
+        <v>80046.8782526343</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>117494.785465934</v>
+        <v>124522.359097368</v>
       </c>
     </row>
     <row r="16">
@@ -3349,16 +3051,16 @@
         <v>671314.731365634</v>
       </c>
       <c r="C16" t="n">
-        <v>723348.884981494</v>
+        <v>715685.147313676</v>
       </c>
       <c r="D16" t="n">
-        <v>-52034.1536158599</v>
+        <v>-44370.4159480417</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>0.020706385640154</v>
       </c>
       <c r="F16" t="n">
-        <v>-889.169574515428</v>
+        <v>6084.87317803851</v>
       </c>
     </row>
     <row r="17">
@@ -3369,16 +3071,16 @@
         <v>699030.351846871</v>
       </c>
       <c r="C17" t="n">
-        <v>671816.642678052</v>
+        <v>696264.191413964</v>
       </c>
       <c r="D17" t="n">
-        <v>27213.7091688197</v>
+        <v>2766.16043290699</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>11.0716071206255</v>
       </c>
       <c r="F17" t="n">
-        <v>26826.4509067219</v>
+        <v>5231.31509564666</v>
       </c>
     </row>
     <row r="18">
@@ -3389,16 +3091,16 @@
         <v>763675.359445686</v>
       </c>
       <c r="C18" t="n">
-        <v>683881.183601198</v>
+        <v>772551.270336223</v>
       </c>
       <c r="D18" t="n">
-        <v>79794.1758444884</v>
+        <v>-8875.91089053718</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>40.714145138432</v>
       </c>
       <c r="F18" t="n">
-        <v>91471.4585055365</v>
+        <v>-6756.61266698397</v>
       </c>
     </row>
     <row r="19">
@@ -3409,16 +3111,16 @@
         <v>839344.016527156</v>
       </c>
       <c r="C19" t="n">
-        <v>993817.239063696</v>
+        <v>844327.457412884</v>
       </c>
       <c r="D19" t="n">
-        <v>-154473.22253654</v>
+        <v>-4983.4408857279</v>
       </c>
       <c r="E19" t="n">
-        <v>84.4849735393924</v>
+        <v>70.3569483804434</v>
       </c>
       <c r="F19" t="n">
-        <v>-114656.128241798</v>
+        <v>-7721.57661393308</v>
       </c>
     </row>
     <row r="20">
@@ -3429,16 +3131,16 @@
         <v>881333</v>
       </c>
       <c r="C20" t="n">
-        <v>955840.160338973</v>
+        <v>920570.723151398</v>
       </c>
       <c r="D20" t="n">
-        <v>-74507.1603389728</v>
+        <v>-39237.7231513981</v>
       </c>
       <c r="E20" t="n">
         <v>100</v>
       </c>
       <c r="F20" t="n">
-        <v>-124416.893823029</v>
+        <v>-42366.8562839041</v>
       </c>
     </row>
     <row r="21">
@@ -3449,16 +3151,16 @@
         <v>973967</v>
       </c>
       <c r="C21" t="n">
-        <v>976086.888125785</v>
+        <v>983165.494423485</v>
       </c>
       <c r="D21" t="n">
-        <v>-2119.88812578478</v>
+        <v>-9198.4944234851</v>
       </c>
       <c r="E21" t="n">
-        <v>107.343984152795</v>
+        <v>129.642494803339</v>
       </c>
       <c r="F21" t="n">
-        <v>-56278.4586826288</v>
+        <v>-26365.6799257821</v>
       </c>
     </row>
     <row r="22">
@@ -3469,16 +3171,16 @@
         <v>1280597.91365994</v>
       </c>
       <c r="C22" t="n">
-        <v>1081633.01145868</v>
+        <v>1066281.28307135</v>
       </c>
       <c r="D22" t="n">
-        <v>198964.902201259</v>
+        <v>214316.630588593</v>
       </c>
       <c r="E22" t="n">
-        <v>130.095158792997</v>
+        <v>159.284752731933</v>
       </c>
       <c r="F22" t="n">
-        <v>174466.823631127</v>
+        <v>203633.022469228</v>
       </c>
     </row>
     <row r="23">
@@ -3489,16 +3191,16 @@
         <v>1135435.36054574</v>
       </c>
       <c r="C23" t="n">
-        <v>1189350.49782548</v>
+        <v>1236107.09589604</v>
       </c>
       <c r="D23" t="n">
-        <v>-53915.1372797471</v>
+        <v>-100671.735350309</v>
       </c>
       <c r="E23" t="n">
-        <v>132.276158373152</v>
+        <v>188.926838277249</v>
       </c>
       <c r="F23" t="n">
-        <v>22029.6338125246</v>
+        <v>-18161.2962585706</v>
       </c>
     </row>
     <row r="24">
@@ -3509,16 +3211,16 @@
         <v>1181153.53820902</v>
       </c>
       <c r="C24" t="n">
-        <v>1144232.78328042</v>
+        <v>1222869.12575312</v>
       </c>
       <c r="D24" t="n">
-        <v>36920.7549285932</v>
+        <v>-41715.5875441013</v>
       </c>
       <c r="E24" t="n">
-        <v>138.643441127294</v>
+        <v>218.568902971751</v>
       </c>
       <c r="F24" t="n">
-        <v>46509.9949938436</v>
+        <v>-49074.8303046264</v>
       </c>
     </row>
     <row r="25">
@@ -3529,16 +3231,16 @@
         <v>1271001.81826414</v>
       </c>
       <c r="C25" t="n">
-        <v>1248484.15309763</v>
+        <v>1272606.4388523</v>
       </c>
       <c r="D25" t="n">
-        <v>22517.6651665066</v>
+        <v>-1604.62058815695</v>
       </c>
       <c r="E25" t="n">
-        <v>166.704077815568</v>
+        <v>242.65308809105</v>
       </c>
       <c r="F25" t="n">
-        <v>42763.1457978073</v>
+        <v>-21489.8355448307</v>
       </c>
     </row>
   </sheetData>
@@ -3560,34 +3262,34 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2">
@@ -3598,31 +3300,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>-23625.0763122651</v>
+        <v>-20344.4647665651</v>
       </c>
       <c r="D2" t="n">
-        <v>165479.984724972</v>
+        <v>164233.229529084</v>
       </c>
       <c r="E2" t="n">
-        <v>661919.938899887</v>
+        <v>656932.918116334</v>
       </c>
       <c r="F2" t="n">
         <v>569071.911566972</v>
       </c>
       <c r="G2" t="n">
-        <v>-92848.027332915</v>
+        <v>-87861.0065493619</v>
       </c>
       <c r="H2" t="n">
-        <v>-25058.9463508048</v>
+        <v>-23578.6330831166</v>
       </c>
       <c r="I2" t="n">
-        <v>140421.038374167</v>
+        <v>140654.596445967</v>
       </c>
       <c r="J2" t="n">
         <v>569071.911566972</v>
       </c>
       <c r="K2" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3">
@@ -3633,31 +3335,31 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>-23625.0763122651</v>
+        <v>-20344.4647665651</v>
       </c>
       <c r="D3" t="n">
-        <v>165479.984724972</v>
+        <v>164233.229529084</v>
       </c>
       <c r="E3" t="n">
-        <v>661919.938899887</v>
+        <v>656932.918116334</v>
       </c>
       <c r="F3" t="n">
         <v>569071.911566972</v>
       </c>
       <c r="G3" t="n">
-        <v>-92848.027332915</v>
+        <v>-87861.0065493619</v>
       </c>
       <c r="H3" t="n">
-        <v>-24320.1705437744</v>
+        <v>-22933.2805048062</v>
       </c>
       <c r="I3" t="n">
-        <v>141159.814181197</v>
+        <v>141299.949024277</v>
       </c>
       <c r="J3" t="n">
         <v>569071.911566972</v>
       </c>
       <c r="K3" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4">
@@ -3668,31 +3370,31 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>-23625.0763122651</v>
+        <v>-20344.4647665651</v>
       </c>
       <c r="D4" t="n">
-        <v>165479.984724972</v>
+        <v>164233.229529084</v>
       </c>
       <c r="E4" t="n">
-        <v>661919.938899887</v>
+        <v>656932.918116334</v>
       </c>
       <c r="F4" t="n">
         <v>569071.911566972</v>
       </c>
       <c r="G4" t="n">
-        <v>-92848.027332915</v>
+        <v>-87861.0065493619</v>
       </c>
       <c r="H4" t="n">
-        <v>-22842.6189297136</v>
+        <v>-21642.5753481852</v>
       </c>
       <c r="I4" t="n">
-        <v>142637.365795258</v>
+        <v>142590.654180898</v>
       </c>
       <c r="J4" t="n">
         <v>569071.911566972</v>
       </c>
       <c r="K4" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5">
@@ -3703,31 +3405,31 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>-23625.0763122651</v>
+        <v>-20344.4647665651</v>
       </c>
       <c r="D5" t="n">
-        <v>165479.984724972</v>
+        <v>164233.229529084</v>
       </c>
       <c r="E5" t="n">
-        <v>661919.938899887</v>
+        <v>656932.918116334</v>
       </c>
       <c r="F5" t="n">
         <v>569071.911566972</v>
       </c>
       <c r="G5" t="n">
-        <v>-92848.027332915</v>
+        <v>-87861.0065493619</v>
       </c>
       <c r="H5" t="n">
-        <v>-20626.2915086224</v>
+        <v>-19706.5176132538</v>
       </c>
       <c r="I5" t="n">
-        <v>144853.693216349</v>
+        <v>144526.71191583</v>
       </c>
       <c r="J5" t="n">
         <v>569071.911566972</v>
       </c>
       <c r="K5" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6">
@@ -3738,31 +3440,31 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>-103131.989373177</v>
+        <v>-96104.4157417431</v>
       </c>
       <c r="D6" t="n">
-        <v>156827.673246169</v>
+        <v>156558.902833236</v>
       </c>
       <c r="E6" t="n">
-        <v>627310.692984675</v>
+        <v>626235.611332944</v>
       </c>
       <c r="F6" t="n">
         <v>553227.912662102</v>
       </c>
       <c r="G6" t="n">
-        <v>-74082.7803225728</v>
+        <v>-73007.6986708415</v>
       </c>
       <c r="H6" t="n">
-        <v>-17671.1882805007</v>
+        <v>-17125.1073000119</v>
       </c>
       <c r="I6" t="n">
-        <v>139156.484965668</v>
+        <v>139433.795533224</v>
       </c>
       <c r="J6" t="n">
-        <v>553228.009095091</v>
+        <v>553228.507872703</v>
       </c>
       <c r="K6" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7">
@@ -3773,31 +3475,31 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>-103131.989373177</v>
+        <v>-96104.4157417431</v>
       </c>
       <c r="D7" t="n">
-        <v>156827.673246169</v>
+        <v>156558.902833236</v>
       </c>
       <c r="E7" t="n">
-        <v>627310.692984675</v>
+        <v>626235.611332944</v>
       </c>
       <c r="F7" t="n">
         <v>553227.912662102</v>
       </c>
       <c r="G7" t="n">
-        <v>-74082.7803225728</v>
+        <v>-73007.6986708415</v>
       </c>
       <c r="H7" t="n">
-        <v>-16828.9400660102</v>
+        <v>-16543.2106007344</v>
       </c>
       <c r="I7" t="n">
-        <v>139998.733180159</v>
+        <v>140015.692232502</v>
       </c>
       <c r="J7" t="n">
-        <v>553228.009095091</v>
+        <v>553228.507872703</v>
       </c>
       <c r="K7" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8">
@@ -3808,31 +3510,31 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>-103131.989373177</v>
+        <v>-96104.4157417431</v>
       </c>
       <c r="D8" t="n">
-        <v>156827.673246169</v>
+        <v>156558.902833236</v>
       </c>
       <c r="E8" t="n">
-        <v>627310.692984675</v>
+        <v>626235.611332944</v>
       </c>
       <c r="F8" t="n">
         <v>553227.912662102</v>
       </c>
       <c r="G8" t="n">
-        <v>-74082.7803225728</v>
+        <v>-73007.6986708415</v>
       </c>
       <c r="H8" t="n">
-        <v>-18099.5468651508</v>
+        <v>-17960.8275154213</v>
       </c>
       <c r="I8" t="n">
-        <v>138728.126381018</v>
+        <v>138598.075317815</v>
       </c>
       <c r="J8" t="n">
-        <v>553228.009095091</v>
+        <v>553228.507872703</v>
       </c>
       <c r="K8" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9">
@@ -3843,31 +3545,31 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>-103131.989373177</v>
+        <v>-96104.4157417431</v>
       </c>
       <c r="D9" t="n">
-        <v>156827.673246169</v>
+        <v>156558.902833236</v>
       </c>
       <c r="E9" t="n">
-        <v>627310.692984675</v>
+        <v>626235.611332944</v>
       </c>
       <c r="F9" t="n">
         <v>553227.912662102</v>
       </c>
       <c r="G9" t="n">
-        <v>-74082.7803225728</v>
+        <v>-73007.6986708415</v>
       </c>
       <c r="H9" t="n">
-        <v>-21483.0086779226</v>
+        <v>-21377.9580440725</v>
       </c>
       <c r="I9" t="n">
-        <v>135344.664568246</v>
+        <v>135180.944789163</v>
       </c>
       <c r="J9" t="n">
-        <v>553228.009095091</v>
+        <v>553228.507872703</v>
       </c>
       <c r="K9" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10">
@@ -3878,31 +3580,31 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>-118975.988278047</v>
+        <v>-111948.414646613</v>
       </c>
       <c r="D10" t="n">
-        <v>155103.455711906</v>
+        <v>154953.938439787</v>
       </c>
       <c r="E10" t="n">
-        <v>620413.822847623</v>
+        <v>619815.753759146</v>
       </c>
       <c r="F10" t="n">
         <v>530098.699142501</v>
       </c>
       <c r="G10" t="n">
-        <v>-90315.1237051212</v>
+        <v>-89717.0546166449</v>
       </c>
       <c r="H10" t="n">
-        <v>-26979.3255043255</v>
+        <v>-26794.6021866882</v>
       </c>
       <c r="I10" t="n">
-        <v>128124.13020758</v>
+        <v>128159.336253098</v>
       </c>
       <c r="J10" t="n">
-        <v>530098.778904283</v>
+        <v>530099.326833369</v>
       </c>
       <c r="K10" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11">
@@ -3913,31 +3615,31 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>-118975.988278047</v>
+        <v>-111948.414646613</v>
       </c>
       <c r="D11" t="n">
-        <v>155103.455711906</v>
+        <v>154953.938439787</v>
       </c>
       <c r="E11" t="n">
-        <v>620413.822847623</v>
+        <v>619815.753759146</v>
       </c>
       <c r="F11" t="n">
         <v>530098.699142501</v>
       </c>
       <c r="G11" t="n">
-        <v>-90315.1237051212</v>
+        <v>-89717.0546166449</v>
       </c>
       <c r="H11" t="n">
-        <v>-27417.6264274904</v>
+        <v>-27215.0616616369</v>
       </c>
       <c r="I11" t="n">
-        <v>127685.829284415</v>
+        <v>127738.87677815</v>
       </c>
       <c r="J11" t="n">
-        <v>530098.778904283</v>
+        <v>530099.326833369</v>
       </c>
       <c r="K11" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12">
@@ -3948,31 +3650,31 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>-118975.988278047</v>
+        <v>-111948.414646613</v>
       </c>
       <c r="D12" t="n">
-        <v>155103.455711906</v>
+        <v>154953.938439787</v>
       </c>
       <c r="E12" t="n">
-        <v>620413.822847623</v>
+        <v>619815.753759146</v>
       </c>
       <c r="F12" t="n">
         <v>530098.699142501</v>
       </c>
       <c r="G12" t="n">
-        <v>-90315.1237051212</v>
+        <v>-89717.0546166449</v>
       </c>
       <c r="H12" t="n">
-        <v>-22797.9114474174</v>
+        <v>-22639.3364689188</v>
       </c>
       <c r="I12" t="n">
-        <v>132305.544264488</v>
+        <v>132314.601970868</v>
       </c>
       <c r="J12" t="n">
-        <v>530098.778904283</v>
+        <v>530099.326833369</v>
       </c>
       <c r="K12" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13">
@@ -3983,31 +3685,31 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>-118975.988278047</v>
+        <v>-111948.414646613</v>
       </c>
       <c r="D13" t="n">
-        <v>155103.455711906</v>
+        <v>154953.938439787</v>
       </c>
       <c r="E13" t="n">
-        <v>620413.822847623</v>
+        <v>619815.753759146</v>
       </c>
       <c r="F13" t="n">
         <v>530098.699142501</v>
       </c>
       <c r="G13" t="n">
-        <v>-90315.1237051212</v>
+        <v>-89717.0546166449</v>
       </c>
       <c r="H13" t="n">
-        <v>-13120.1805641065</v>
+        <v>-13067.4266085339</v>
       </c>
       <c r="I13" t="n">
-        <v>141983.275147799</v>
+        <v>141886.511831253</v>
       </c>
       <c r="J13" t="n">
-        <v>530098.778904283</v>
+        <v>530099.326833369</v>
       </c>
       <c r="K13" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14">
@@ -4018,31 +3720,31 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>-142105.201797648</v>
+        <v>-135077.628166214</v>
       </c>
       <c r="D14" t="n">
-        <v>152586.427293534</v>
+        <v>152610.996839605</v>
       </c>
       <c r="E14" t="n">
-        <v>610345.709174136</v>
+        <v>610443.987358422</v>
       </c>
       <c r="F14" t="n">
         <v>649628.793613174</v>
       </c>
       <c r="G14" t="n">
-        <v>39283.0844390385</v>
+        <v>39184.8062547527</v>
       </c>
       <c r="H14" t="n">
-        <v>1615.56622244239</v>
+        <v>1500.66791951794</v>
       </c>
       <c r="I14" t="n">
-        <v>154201.993515976</v>
+        <v>154111.664759123</v>
       </c>
       <c r="J14" t="n">
-        <v>649628.849038177</v>
+        <v>649629.468719028</v>
       </c>
       <c r="K14" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15">
@@ -4053,31 +3755,31 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>-142105.201797648</v>
+        <v>-135077.628166214</v>
       </c>
       <c r="D15" t="n">
-        <v>152586.427293534</v>
+        <v>152610.996839605</v>
       </c>
       <c r="E15" t="n">
-        <v>610345.709174136</v>
+        <v>610443.987358422</v>
       </c>
       <c r="F15" t="n">
         <v>649628.793613174</v>
       </c>
       <c r="G15" t="n">
-        <v>39283.0844390385</v>
+        <v>39184.8062547527</v>
       </c>
       <c r="H15" t="n">
-        <v>10791.9524344891</v>
+        <v>10646.1866989922</v>
       </c>
       <c r="I15" t="n">
-        <v>163378.379728023</v>
+        <v>163257.183538598</v>
       </c>
       <c r="J15" t="n">
-        <v>649628.849038177</v>
+        <v>649629.468719028</v>
       </c>
       <c r="K15" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16">
@@ -4088,31 +3790,31 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>-142105.201797648</v>
+        <v>-135077.628166214</v>
       </c>
       <c r="D16" t="n">
-        <v>152586.427293534</v>
+        <v>152610.996839605</v>
       </c>
       <c r="E16" t="n">
-        <v>610345.709174136</v>
+        <v>610443.987358422</v>
       </c>
       <c r="F16" t="n">
         <v>649628.793613174</v>
       </c>
       <c r="G16" t="n">
-        <v>39283.0844390385</v>
+        <v>39184.8062547527</v>
       </c>
       <c r="H16" t="n">
-        <v>14408.9780720338</v>
+        <v>14369.1297298888</v>
       </c>
       <c r="I16" t="n">
-        <v>166995.405365568</v>
+        <v>166980.126569494</v>
       </c>
       <c r="J16" t="n">
-        <v>649628.849038177</v>
+        <v>649629.468719028</v>
       </c>
       <c r="K16" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
     </row>
     <row r="17">
@@ -4123,31 +3825,31 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>-142105.201797648</v>
+        <v>-135077.628166214</v>
       </c>
       <c r="D17" t="n">
-        <v>152586.427293534</v>
+        <v>152610.996839605</v>
       </c>
       <c r="E17" t="n">
-        <v>610345.709174136</v>
+        <v>610443.987358422</v>
       </c>
       <c r="F17" t="n">
         <v>649628.793613174</v>
       </c>
       <c r="G17" t="n">
-        <v>39283.0844390385</v>
+        <v>39184.8062547527</v>
       </c>
       <c r="H17" t="n">
-        <v>12466.6431350763</v>
+        <v>12669.4970122079</v>
       </c>
       <c r="I17" t="n">
-        <v>165053.07042861</v>
+        <v>165280.493851813</v>
       </c>
       <c r="J17" t="n">
-        <v>649628.849038177</v>
+        <v>649629.468719028</v>
       </c>
       <c r="K17" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
     </row>
     <row r="18">
@@ -4158,31 +3860,31 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>-22575.1073269753</v>
+        <v>-15547.5336955412</v>
       </c>
       <c r="D18" t="n">
-        <v>165594.247225603</v>
+        <v>164719.14874765</v>
       </c>
       <c r="E18" t="n">
-        <v>662376.988902412</v>
+        <v>658876.5949906</v>
       </c>
       <c r="F18" t="n">
         <v>658984.491807742</v>
       </c>
       <c r="G18" t="n">
-        <v>-3392.49709467066</v>
+        <v>107.896817141213</v>
       </c>
       <c r="H18" t="n">
-        <v>4964.94762361661</v>
+        <v>5547.28854594941</v>
       </c>
       <c r="I18" t="n">
-        <v>170559.19484922</v>
+        <v>170266.4372936</v>
       </c>
       <c r="J18" t="n">
-        <v>658984.673003448</v>
+        <v>658984.921876388</v>
       </c>
       <c r="K18" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
     </row>
     <row r="19">
@@ -4193,31 +3895,31 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>-22575.1073269753</v>
+        <v>-15547.5336955412</v>
       </c>
       <c r="D19" t="n">
-        <v>165594.247225603</v>
+        <v>164719.14874765</v>
       </c>
       <c r="E19" t="n">
-        <v>662376.988902412</v>
+        <v>658876.5949906</v>
       </c>
       <c r="F19" t="n">
         <v>658984.491807742</v>
       </c>
       <c r="G19" t="n">
-        <v>-3392.49709467066</v>
+        <v>107.896817141213</v>
       </c>
       <c r="H19" t="n">
-        <v>-360.941220310351</v>
+        <v>490.322429645051</v>
       </c>
       <c r="I19" t="n">
-        <v>165233.306005293</v>
+        <v>165209.471177295</v>
       </c>
       <c r="J19" t="n">
-        <v>658984.673003448</v>
+        <v>658984.921876388</v>
       </c>
       <c r="K19" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
     </row>
     <row r="20">
@@ -4228,31 +3930,31 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>-22575.1073269753</v>
+        <v>-15547.5336955412</v>
       </c>
       <c r="D20" t="n">
-        <v>165594.247225603</v>
+        <v>164719.14874765</v>
       </c>
       <c r="E20" t="n">
-        <v>662376.988902412</v>
+        <v>658876.5949906</v>
       </c>
       <c r="F20" t="n">
         <v>658984.491807742</v>
       </c>
       <c r="G20" t="n">
-        <v>-3392.49709467066</v>
+        <v>107.896817141213</v>
       </c>
       <c r="H20" t="n">
-        <v>-3511.02339670461</v>
+        <v>-2501.40133670519</v>
       </c>
       <c r="I20" t="n">
-        <v>162083.223828898</v>
+        <v>162217.747410945</v>
       </c>
       <c r="J20" t="n">
-        <v>658984.673003448</v>
+        <v>658984.921876388</v>
       </c>
       <c r="K20" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21">
@@ -4263,31 +3965,31 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>-22575.1073269753</v>
+        <v>-15547.5336955412</v>
       </c>
       <c r="D21" t="n">
-        <v>165594.247225603</v>
+        <v>164719.14874765</v>
       </c>
       <c r="E21" t="n">
-        <v>662376.988902412</v>
+        <v>658876.5949906</v>
       </c>
       <c r="F21" t="n">
         <v>658984.491807742</v>
       </c>
       <c r="G21" t="n">
-        <v>-3392.49709467066</v>
+        <v>107.896817141213</v>
       </c>
       <c r="H21" t="n">
-        <v>-4485.29890556618</v>
+        <v>-3427.8827531013</v>
       </c>
       <c r="I21" t="n">
-        <v>161108.948320037</v>
+        <v>161291.265994549</v>
       </c>
       <c r="J21" t="n">
-        <v>658984.673003448</v>
+        <v>658984.921876388</v>
       </c>
       <c r="K21" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22">
@@ -4298,31 +4000,31 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>-13219.4091324079</v>
+        <v>-6191.83550097374</v>
       </c>
       <c r="D22" t="n">
-        <v>166612.377747399</v>
+        <v>165666.861668378</v>
       </c>
       <c r="E22" t="n">
-        <v>666449.510989595</v>
+        <v>662667.446673511</v>
       </c>
       <c r="F22" t="n">
         <v>657182.404953519</v>
       </c>
       <c r="G22" t="n">
-        <v>-9267.10603607574</v>
+        <v>-5485.04171999125</v>
       </c>
       <c r="H22" t="n">
-        <v>-3283.76774689506</v>
+        <v>-2289.1218195433</v>
       </c>
       <c r="I22" t="n">
-        <v>163328.610000504</v>
+        <v>163377.739848834</v>
       </c>
       <c r="J22" t="n">
-        <v>657182.59599338</v>
+        <v>657182.815842945</v>
       </c>
       <c r="K22" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23">
@@ -4333,31 +4035,31 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>-13219.4091324079</v>
+        <v>-6191.83550097374</v>
       </c>
       <c r="D23" t="n">
-        <v>166612.377747399</v>
+        <v>165666.861668378</v>
       </c>
       <c r="E23" t="n">
-        <v>666449.510989595</v>
+        <v>662667.446673511</v>
       </c>
       <c r="F23" t="n">
         <v>657182.404953519</v>
       </c>
       <c r="G23" t="n">
-        <v>-9267.10603607574</v>
+        <v>-5485.04171999125</v>
       </c>
       <c r="H23" t="n">
-        <v>-2416.3396842901</v>
+        <v>-1466.43180135939</v>
       </c>
       <c r="I23" t="n">
-        <v>164196.038063109</v>
+        <v>164200.429867018</v>
       </c>
       <c r="J23" t="n">
-        <v>657182.59599338</v>
+        <v>657182.815842945</v>
       </c>
       <c r="K23" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
     </row>
     <row r="24">
@@ -4368,31 +4070,31 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>-13219.4091324079</v>
+        <v>-6191.83550097374</v>
       </c>
       <c r="D24" t="n">
-        <v>166612.377747399</v>
+        <v>165666.861668378</v>
       </c>
       <c r="E24" t="n">
-        <v>666449.510989595</v>
+        <v>662667.446673511</v>
       </c>
       <c r="F24" t="n">
         <v>657182.404953519</v>
       </c>
       <c r="G24" t="n">
-        <v>-9267.10603607574</v>
+        <v>-5485.04171999125</v>
       </c>
       <c r="H24" t="n">
-        <v>-1883.01471775132</v>
+        <v>-959.812698549576</v>
       </c>
       <c r="I24" t="n">
-        <v>164729.363029647</v>
+        <v>164707.048969828</v>
       </c>
       <c r="J24" t="n">
-        <v>657182.59599338</v>
+        <v>657182.815842945</v>
       </c>
       <c r="K24" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
     </row>
     <row r="25">
@@ -4403,31 +4105,31 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>-13219.4091324079</v>
+        <v>-6191.83550097374</v>
       </c>
       <c r="D25" t="n">
-        <v>166612.377747399</v>
+        <v>165666.861668378</v>
       </c>
       <c r="E25" t="n">
-        <v>666449.510989595</v>
+        <v>662667.446673511</v>
       </c>
       <c r="F25" t="n">
         <v>657182.404953519</v>
       </c>
       <c r="G25" t="n">
-        <v>-9267.10603607574</v>
+        <v>-5485.04171999125</v>
       </c>
       <c r="H25" t="n">
-        <v>-1683.79284727872</v>
+        <v>-769.26451111388</v>
       </c>
       <c r="I25" t="n">
-        <v>164928.58490012</v>
+        <v>164897.597157264</v>
       </c>
       <c r="J25" t="n">
-        <v>657182.59599338</v>
+        <v>657182.815842945</v>
       </c>
       <c r="K25" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
     </row>
     <row r="26">
@@ -4438,31 +4140,31 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>-15021.4959866301</v>
+        <v>-7993.92235519597</v>
       </c>
       <c r="D26" t="n">
-        <v>166416.266287724</v>
+        <v>165484.313988824</v>
       </c>
       <c r="E26" t="n">
-        <v>665665.065150897</v>
+        <v>661937.255955297</v>
       </c>
       <c r="F26" t="n">
         <v>666793.135954892</v>
       </c>
       <c r="G26" t="n">
-        <v>1128.07080399466</v>
+        <v>4855.87999959465</v>
       </c>
       <c r="H26" t="n">
-        <v>-1818.67407287229</v>
+        <v>-894.78723905228</v>
       </c>
       <c r="I26" t="n">
-        <v>164597.592214852</v>
+        <v>164589.526749772</v>
       </c>
       <c r="J26" t="n">
-        <v>666793.32509858</v>
+        <v>666793.550538603</v>
       </c>
       <c r="K26" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27">
@@ -4473,31 +4175,31 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>-15021.4959866301</v>
+        <v>-7993.92235519597</v>
       </c>
       <c r="D27" t="n">
-        <v>166416.266287724</v>
+        <v>165484.313988824</v>
       </c>
       <c r="E27" t="n">
-        <v>665665.065150897</v>
+        <v>661937.255955297</v>
       </c>
       <c r="F27" t="n">
         <v>666793.135954892</v>
       </c>
       <c r="G27" t="n">
-        <v>1128.07080399466</v>
+        <v>4855.87999959465</v>
       </c>
       <c r="H27" t="n">
-        <v>-1032.33093919254</v>
+        <v>-101.451976276164</v>
       </c>
       <c r="I27" t="n">
-        <v>165383.935348532</v>
+        <v>165382.862012548</v>
       </c>
       <c r="J27" t="n">
-        <v>666793.32509858</v>
+        <v>666793.550538603</v>
       </c>
       <c r="K27" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
     </row>
     <row r="28">
@@ -4508,31 +4210,31 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>-15021.4959866301</v>
+        <v>-7993.92235519597</v>
       </c>
       <c r="D28" t="n">
-        <v>166416.266287724</v>
+        <v>165484.313988824</v>
       </c>
       <c r="E28" t="n">
-        <v>665665.065150897</v>
+        <v>661937.255955297</v>
       </c>
       <c r="F28" t="n">
         <v>666793.135954892</v>
       </c>
       <c r="G28" t="n">
-        <v>1128.07080399466</v>
+        <v>4855.87999959465</v>
       </c>
       <c r="H28" t="n">
-        <v>675.236553760539</v>
+        <v>1610.74127721446</v>
       </c>
       <c r="I28" t="n">
-        <v>167091.502841485</v>
+        <v>167095.055266039</v>
       </c>
       <c r="J28" t="n">
-        <v>666793.32509858</v>
+        <v>666793.550538603</v>
       </c>
       <c r="K28" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
     </row>
     <row r="29">
@@ -4543,31 +4245,31 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>-15021.4959866301</v>
+        <v>-7993.92235519597</v>
       </c>
       <c r="D29" t="n">
-        <v>166416.266287724</v>
+        <v>165484.313988824</v>
       </c>
       <c r="E29" t="n">
-        <v>665665.065150897</v>
+        <v>661937.255955297</v>
       </c>
       <c r="F29" t="n">
         <v>666793.135954892</v>
       </c>
       <c r="G29" t="n">
-        <v>1128.07080399466</v>
+        <v>4855.87999959465</v>
       </c>
       <c r="H29" t="n">
-        <v>3304.02840598693</v>
+        <v>4241.79252141962</v>
       </c>
       <c r="I29" t="n">
-        <v>169720.294693711</v>
+        <v>169726.106510244</v>
       </c>
       <c r="J29" t="n">
-        <v>666793.32509858</v>
+        <v>666793.550538603</v>
       </c>
       <c r="K29" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
     </row>
     <row r="30">
@@ -4578,31 +4280,31 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>-5410.76498525753</v>
+        <v>1616.80864617659</v>
       </c>
       <c r="D30" t="n">
-        <v>167462.150663831</v>
+        <v>166457.861206597</v>
       </c>
       <c r="E30" t="n">
-        <v>669848.602655323</v>
+        <v>665831.444826386</v>
       </c>
       <c r="F30" t="n">
         <v>701245.753266448</v>
       </c>
       <c r="G30" t="n">
-        <v>31397.1506111247</v>
+        <v>35414.3084400616</v>
       </c>
       <c r="H30" t="n">
-        <v>6854.04461748664</v>
+        <v>7791.70175633931</v>
       </c>
       <c r="I30" t="n">
-        <v>174316.195281317</v>
+        <v>174249.562962936</v>
       </c>
       <c r="J30" t="n">
-        <v>701245.952522639</v>
+        <v>701246.148148119</v>
       </c>
       <c r="K30" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
     </row>
     <row r="31">
@@ -4613,31 +4315,31 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>-5410.76498525753</v>
+        <v>1616.80864617659</v>
       </c>
       <c r="D31" t="n">
-        <v>167462.150663831</v>
+        <v>166457.861206597</v>
       </c>
       <c r="E31" t="n">
-        <v>669848.602655323</v>
+        <v>665831.444826386</v>
       </c>
       <c r="F31" t="n">
         <v>701245.753266448</v>
       </c>
       <c r="G31" t="n">
-        <v>31397.1506111247</v>
+        <v>35414.3084400616</v>
       </c>
       <c r="H31" t="n">
-        <v>8672.16824182342</v>
+        <v>9636.45507994475</v>
       </c>
       <c r="I31" t="n">
-        <v>176134.318905654</v>
+        <v>176094.316286541</v>
       </c>
       <c r="J31" t="n">
-        <v>701245.952522639</v>
+        <v>701246.148148119</v>
       </c>
       <c r="K31" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
     </row>
     <row r="32">
@@ -4648,31 +4350,31 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>-5410.76498525753</v>
+        <v>1616.80864617659</v>
       </c>
       <c r="D32" t="n">
-        <v>167462.150663831</v>
+        <v>166457.861206597</v>
       </c>
       <c r="E32" t="n">
-        <v>669848.602655323</v>
+        <v>665831.444826386</v>
       </c>
       <c r="F32" t="n">
         <v>701245.753266448</v>
       </c>
       <c r="G32" t="n">
-        <v>31397.1506111247</v>
+        <v>35414.3084400616</v>
       </c>
       <c r="H32" t="n">
-        <v>8758.39927899725</v>
+        <v>9776.05249223596</v>
       </c>
       <c r="I32" t="n">
-        <v>176220.549942828</v>
+        <v>176233.913698833</v>
       </c>
       <c r="J32" t="n">
-        <v>701245.952522639</v>
+        <v>701246.148148119</v>
       </c>
       <c r="K32" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
     </row>
     <row r="33">
@@ -4683,31 +4385,31 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>-5410.76498525753</v>
+        <v>1616.80864617659</v>
       </c>
       <c r="D33" t="n">
-        <v>167462.150663831</v>
+        <v>166457.861206597</v>
       </c>
       <c r="E33" t="n">
-        <v>669848.602655323</v>
+        <v>665831.444826386</v>
       </c>
       <c r="F33" t="n">
         <v>701245.753266448</v>
       </c>
       <c r="G33" t="n">
-        <v>31397.1506111247</v>
+        <v>35414.3084400616</v>
       </c>
       <c r="H33" t="n">
-        <v>7112.73772900813</v>
+        <v>8210.49399321293</v>
       </c>
       <c r="I33" t="n">
-        <v>174574.888392839</v>
+        <v>174668.35519981</v>
       </c>
       <c r="J33" t="n">
-        <v>701245.952522639</v>
+        <v>701246.148148119</v>
       </c>
       <c r="K33" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
     </row>
     <row r="34">
@@ -4718,31 +4420,31 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>29041.8523262984</v>
+        <v>36069.4259577325</v>
       </c>
       <c r="D34" t="n">
-        <v>171211.444464374</v>
+        <v>169947.840243971</v>
       </c>
       <c r="E34" t="n">
-        <v>684845.777857495</v>
+        <v>679791.360975885</v>
       </c>
       <c r="F34" t="n">
         <v>687878.0639864</v>
       </c>
       <c r="G34" t="n">
-        <v>3032.28612890479</v>
+        <v>8086.70301051531</v>
       </c>
       <c r="H34" t="n">
-        <v>3735.18359185608</v>
+        <v>4939.77958287568</v>
       </c>
       <c r="I34" t="n">
-        <v>174946.62805623</v>
+        <v>174887.619826847</v>
       </c>
       <c r="J34" t="n">
-        <v>687878.299493962</v>
+        <v>687878.388240058</v>
       </c>
       <c r="K34" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
     </row>
     <row r="35">
@@ -4753,31 +4455,31 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>29041.8523262984</v>
+        <v>36069.4259577325</v>
       </c>
       <c r="D35" t="n">
-        <v>171211.444464374</v>
+        <v>169947.840243971</v>
       </c>
       <c r="E35" t="n">
-        <v>684845.777857495</v>
+        <v>679791.360975885</v>
       </c>
       <c r="F35" t="n">
         <v>687878.0639864</v>
       </c>
       <c r="G35" t="n">
-        <v>3032.28612890479</v>
+        <v>8086.70301051531</v>
       </c>
       <c r="H35" t="n">
-        <v>1193.34066389956</v>
+        <v>2464.28471200781</v>
       </c>
       <c r="I35" t="n">
-        <v>172404.785128273</v>
+        <v>172412.124955979</v>
       </c>
       <c r="J35" t="n">
-        <v>687878.299493962</v>
+        <v>687878.388240058</v>
       </c>
       <c r="K35" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
     </row>
     <row r="36">
@@ -4788,31 +4490,31 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>29041.8523262984</v>
+        <v>36069.4259577325</v>
       </c>
       <c r="D36" t="n">
-        <v>171211.444464374</v>
+        <v>169947.840243971</v>
       </c>
       <c r="E36" t="n">
-        <v>684845.777857495</v>
+        <v>679791.360975885</v>
       </c>
       <c r="F36" t="n">
         <v>687878.0639864</v>
       </c>
       <c r="G36" t="n">
-        <v>3032.28612890479</v>
+        <v>8086.70301051531</v>
       </c>
       <c r="H36" t="n">
-        <v>-512.791054861411</v>
+        <v>784.00938060932</v>
       </c>
       <c r="I36" t="n">
-        <v>170698.653409512</v>
+        <v>170731.84962458</v>
       </c>
       <c r="J36" t="n">
-        <v>687878.299493962</v>
+        <v>687878.388240058</v>
       </c>
       <c r="K36" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
     </row>
     <row r="37">
@@ -4823,31 +4525,31 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>29041.8523262984</v>
+        <v>36069.4259577325</v>
       </c>
       <c r="D37" t="n">
-        <v>171211.444464374</v>
+        <v>169947.840243971</v>
       </c>
       <c r="E37" t="n">
-        <v>684845.777857495</v>
+        <v>679791.360975885</v>
       </c>
       <c r="F37" t="n">
         <v>687878.0639864</v>
       </c>
       <c r="G37" t="n">
-        <v>3032.28612890479</v>
+        <v>8086.70301051531</v>
       </c>
       <c r="H37" t="n">
-        <v>-1383.21156442684</v>
+        <v>-101.046411319777</v>
       </c>
       <c r="I37" t="n">
-        <v>169828.232899947</v>
+        <v>169846.793832651</v>
       </c>
       <c r="J37" t="n">
-        <v>687878.299493962</v>
+        <v>687878.388240058</v>
       </c>
       <c r="K37" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
     </row>
     <row r="38">
@@ -4858,31 +4560,31 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>15674.1630462504</v>
+        <v>22701.7366776845</v>
       </c>
       <c r="D38" t="n">
-        <v>169756.710442513</v>
+        <v>168593.720905413</v>
       </c>
       <c r="E38" t="n">
-        <v>679026.841770052</v>
+        <v>674374.883621654</v>
       </c>
       <c r="F38" t="n">
         <v>679969.5492082</v>
       </c>
       <c r="G38" t="n">
-        <v>942.707438147976</v>
+        <v>5594.6655865463</v>
       </c>
       <c r="H38" t="n">
-        <v>-1417.92086479671</v>
+        <v>-190.882663779491</v>
       </c>
       <c r="I38" t="n">
-        <v>168338.789577716</v>
+        <v>168402.838241634</v>
       </c>
       <c r="J38" t="n">
-        <v>679969.770650153</v>
+        <v>679969.900865679</v>
       </c>
       <c r="K38" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
     </row>
     <row r="39">
@@ -4893,31 +4595,31 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>15674.1630462504</v>
+        <v>22701.7366776845</v>
       </c>
       <c r="D39" t="n">
-        <v>169756.710442513</v>
+        <v>168593.720905413</v>
       </c>
       <c r="E39" t="n">
-        <v>679026.841770052</v>
+        <v>674374.883621654</v>
       </c>
       <c r="F39" t="n">
         <v>679969.5492082</v>
       </c>
       <c r="G39" t="n">
-        <v>942.707438147976</v>
+        <v>5594.6655865463</v>
       </c>
       <c r="H39" t="n">
-        <v>-770.343351015896</v>
+        <v>409.037625150889</v>
       </c>
       <c r="I39" t="n">
-        <v>168986.367091497</v>
+        <v>169002.758530564</v>
       </c>
       <c r="J39" t="n">
-        <v>679969.770650153</v>
+        <v>679969.900865679</v>
       </c>
       <c r="K39" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
     </row>
     <row r="40">
@@ -4928,31 +4630,31 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>15674.1630462504</v>
+        <v>22701.7366776845</v>
       </c>
       <c r="D40" t="n">
-        <v>169756.710442513</v>
+        <v>168593.720905413</v>
       </c>
       <c r="E40" t="n">
-        <v>679026.841770052</v>
+        <v>674374.883621654</v>
       </c>
       <c r="F40" t="n">
         <v>679969.5492082</v>
       </c>
       <c r="G40" t="n">
-        <v>942.707438147976</v>
+        <v>5594.6655865463</v>
       </c>
       <c r="H40" t="n">
-        <v>559.520976915623</v>
+        <v>1698.71445547135</v>
       </c>
       <c r="I40" t="n">
-        <v>170316.231419429</v>
+        <v>170292.435360885</v>
       </c>
       <c r="J40" t="n">
-        <v>679969.770650153</v>
+        <v>679969.900865679</v>
       </c>
       <c r="K40" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
     </row>
     <row r="41">
@@ -4963,31 +4665,31 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>15674.1630462504</v>
+        <v>22701.7366776845</v>
       </c>
       <c r="D41" t="n">
-        <v>169756.710442513</v>
+        <v>168593.720905413</v>
       </c>
       <c r="E41" t="n">
-        <v>679026.841770052</v>
+        <v>674374.883621654</v>
       </c>
       <c r="F41" t="n">
         <v>679969.5492082</v>
       </c>
       <c r="G41" t="n">
-        <v>942.707438147976</v>
+        <v>5594.6655865463</v>
       </c>
       <c r="H41" t="n">
-        <v>2571.67211899786</v>
+        <v>3678.1478271819</v>
       </c>
       <c r="I41" t="n">
-        <v>172328.382561511</v>
+        <v>172271.868732595</v>
       </c>
       <c r="J41" t="n">
-        <v>679969.770650153</v>
+        <v>679969.900865679</v>
       </c>
       <c r="K41" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
     </row>
     <row r="42">
@@ -4998,31 +4700,31 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>7765.64826805063</v>
+        <v>14793.2218994847</v>
       </c>
       <c r="D42" t="n">
-        <v>168896.069140249</v>
+        <v>167792.604678362</v>
       </c>
       <c r="E42" t="n">
-        <v>675584.276560998</v>
+        <v>671170.418713448</v>
       </c>
       <c r="F42" t="n">
         <v>704943.761496294</v>
       </c>
       <c r="G42" t="n">
-        <v>29359.4849352958</v>
+        <v>33773.3427828458</v>
       </c>
       <c r="H42" t="n">
-        <v>5266.11007523077</v>
+        <v>6347.33774028253</v>
       </c>
       <c r="I42" t="n">
-        <v>174162.17921548</v>
+        <v>174139.942418644</v>
       </c>
       <c r="J42" t="n">
-        <v>704943.974616832</v>
+        <v>704944.129366261</v>
       </c>
       <c r="K42" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
     </row>
     <row r="43">
@@ -5033,31 +4735,31 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>7765.64826805063</v>
+        <v>14793.2218994847</v>
       </c>
       <c r="D43" t="n">
-        <v>168896.069140249</v>
+        <v>167792.604678362</v>
       </c>
       <c r="E43" t="n">
-        <v>675584.276560998</v>
+        <v>671170.418713448</v>
       </c>
       <c r="F43" t="n">
         <v>704943.761496294</v>
       </c>
       <c r="G43" t="n">
-        <v>29359.4849352958</v>
+        <v>33773.3427828458</v>
       </c>
       <c r="H43" t="n">
-        <v>7173.41103321502</v>
+        <v>8253.4496746911</v>
       </c>
       <c r="I43" t="n">
-        <v>176069.480173464</v>
+        <v>176046.054353053</v>
       </c>
       <c r="J43" t="n">
-        <v>704943.974616832</v>
+        <v>704944.129366261</v>
       </c>
       <c r="K43" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
     </row>
     <row r="44">
@@ -5068,31 +4770,31 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>7765.64826805063</v>
+        <v>14793.2218994847</v>
       </c>
       <c r="D44" t="n">
-        <v>168896.069140249</v>
+        <v>167792.604678362</v>
       </c>
       <c r="E44" t="n">
-        <v>675584.276560998</v>
+        <v>671170.418713448</v>
       </c>
       <c r="F44" t="n">
         <v>704943.761496294</v>
       </c>
       <c r="G44" t="n">
-        <v>29359.4849352958</v>
+        <v>33773.3427828458</v>
       </c>
       <c r="H44" t="n">
-        <v>8293.57499295057</v>
+        <v>9396.48363040759</v>
       </c>
       <c r="I44" t="n">
-        <v>177189.6441332</v>
+        <v>177189.08830877</v>
       </c>
       <c r="J44" t="n">
-        <v>704943.974616832</v>
+        <v>704944.129366261</v>
       </c>
       <c r="K44" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
     </row>
     <row r="45">
@@ -5103,31 +4805,31 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>7765.64826805063</v>
+        <v>14793.2218994847</v>
       </c>
       <c r="D45" t="n">
-        <v>168896.069140249</v>
+        <v>167792.604678362</v>
       </c>
       <c r="E45" t="n">
-        <v>675584.276560998</v>
+        <v>671170.418713448</v>
       </c>
       <c r="F45" t="n">
         <v>704943.761496294</v>
       </c>
       <c r="G45" t="n">
-        <v>29359.4849352958</v>
+        <v>33773.3427828458</v>
       </c>
       <c r="H45" t="n">
-        <v>8626.60195443746</v>
+        <v>9776.43960743203</v>
       </c>
       <c r="I45" t="n">
-        <v>177522.671094687</v>
+        <v>177569.044285794</v>
       </c>
       <c r="J45" t="n">
-        <v>704943.974616832</v>
+        <v>704944.129366261</v>
       </c>
       <c r="K45" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
     </row>
     <row r="46">
@@ -5138,31 +4840,31 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>32739.860556144</v>
+        <v>39767.4341875782</v>
       </c>
       <c r="D46" t="n">
-        <v>171613.878892073</v>
+        <v>170322.440846459</v>
       </c>
       <c r="E46" t="n">
-        <v>686455.515568292</v>
+        <v>681289.763385837</v>
       </c>
       <c r="F46" t="n">
         <v>725898.962956532</v>
       </c>
       <c r="G46" t="n">
-        <v>39443.4473882398</v>
+        <v>44609.1995706951</v>
       </c>
       <c r="H46" t="n">
-        <v>8172.49191767567</v>
+        <v>9393.3176057644</v>
       </c>
       <c r="I46" t="n">
-        <v>179786.370809749</v>
+        <v>179715.758452224</v>
       </c>
       <c r="J46" t="n">
-        <v>725899.202355174</v>
+        <v>725899.279629257</v>
       </c>
       <c r="K46" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
     </row>
     <row r="47">
@@ -5173,31 +4875,31 @@
         <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>32739.860556144</v>
+        <v>39767.4341875782</v>
       </c>
       <c r="D47" t="n">
-        <v>171613.878892073</v>
+        <v>170322.440846459</v>
       </c>
       <c r="E47" t="n">
-        <v>686455.515568292</v>
+        <v>681289.763385837</v>
       </c>
       <c r="F47" t="n">
         <v>725898.962956532</v>
       </c>
       <c r="G47" t="n">
-        <v>39443.4473882398</v>
+        <v>44609.1995706951</v>
       </c>
       <c r="H47" t="n">
-        <v>8666.21981458885</v>
+        <v>9943.69338713358</v>
       </c>
       <c r="I47" t="n">
-        <v>180280.098706662</v>
+        <v>180266.134233593</v>
       </c>
       <c r="J47" t="n">
-        <v>725899.202355174</v>
+        <v>725899.279629257</v>
       </c>
       <c r="K47" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
     </row>
     <row r="48">
@@ -5208,31 +4910,31 @@
         <v>0</v>
       </c>
       <c r="C48" t="n">
-        <v>32739.860556144</v>
+        <v>39767.4341875782</v>
       </c>
       <c r="D48" t="n">
-        <v>171613.878892073</v>
+        <v>170322.440846459</v>
       </c>
       <c r="E48" t="n">
-        <v>686455.515568292</v>
+        <v>681289.763385837</v>
       </c>
       <c r="F48" t="n">
         <v>725898.962956532</v>
       </c>
       <c r="G48" t="n">
-        <v>39443.4473882398</v>
+        <v>44609.1995706951</v>
       </c>
       <c r="H48" t="n">
-        <v>10107.785645177</v>
+        <v>11427.5669515396</v>
       </c>
       <c r="I48" t="n">
-        <v>181721.66453725</v>
+        <v>181750.007797999</v>
       </c>
       <c r="J48" t="n">
-        <v>725899.202355174</v>
+        <v>725899.279629257</v>
       </c>
       <c r="K48" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
     </row>
     <row r="49">
@@ -5243,31 +4945,31 @@
         <v>0</v>
       </c>
       <c r="C49" t="n">
-        <v>32739.860556144</v>
+        <v>39767.4341875782</v>
       </c>
       <c r="D49" t="n">
-        <v>171613.878892073</v>
+        <v>170322.440846459</v>
       </c>
       <c r="E49" t="n">
-        <v>686455.515568292</v>
+        <v>681289.763385837</v>
       </c>
       <c r="F49" t="n">
         <v>725898.962956532</v>
       </c>
       <c r="G49" t="n">
-        <v>39443.4473882398</v>
+        <v>44609.1995706951</v>
       </c>
       <c r="H49" t="n">
-        <v>12497.1894094401</v>
+        <v>13844.9382989824</v>
       </c>
       <c r="I49" t="n">
-        <v>184111.068301513</v>
+        <v>184167.379145442</v>
       </c>
       <c r="J49" t="n">
-        <v>725899.202355174</v>
+        <v>725899.279629257</v>
       </c>
       <c r="K49" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
     </row>
     <row r="50">
@@ -5278,31 +4980,31 @@
         <v>0</v>
       </c>
       <c r="C50" t="n">
-        <v>53695.0620163823</v>
+        <v>60722.6356478165</v>
       </c>
       <c r="D50" t="n">
-        <v>173894.321222869</v>
+        <v>172445.15951131</v>
       </c>
       <c r="E50" t="n">
-        <v>695577.284891478</v>
+        <v>689780.638045239</v>
       </c>
       <c r="F50" t="n">
         <v>774940.78945409</v>
       </c>
       <c r="G50" t="n">
-        <v>79363.5045626127</v>
+        <v>85160.1514088514</v>
       </c>
       <c r="H50" t="n">
-        <v>15834.4311073782</v>
+        <v>17195.8074294621</v>
       </c>
       <c r="I50" t="n">
-        <v>189728.752330248</v>
+        <v>189640.966940772</v>
       </c>
       <c r="J50" t="n">
-        <v>774941.050901995</v>
+        <v>774941.063168562</v>
       </c>
       <c r="K50" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
     </row>
     <row r="51">
@@ -5313,31 +5015,31 @@
         <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>53695.0620163823</v>
+        <v>60722.6356478165</v>
       </c>
       <c r="D51" t="n">
-        <v>173894.321222869</v>
+        <v>172445.15951131</v>
       </c>
       <c r="E51" t="n">
-        <v>695577.284891478</v>
+        <v>689780.638045239</v>
       </c>
       <c r="F51" t="n">
         <v>774940.78945409</v>
       </c>
       <c r="G51" t="n">
-        <v>79363.5045626127</v>
+        <v>85160.1514088514</v>
       </c>
       <c r="H51" t="n">
-        <v>18771.9319446539</v>
+        <v>20173.8746222014</v>
       </c>
       <c r="I51" t="n">
-        <v>192666.253167523</v>
+        <v>192619.034133511</v>
       </c>
       <c r="J51" t="n">
-        <v>774941.050901995</v>
+        <v>774941.063168562</v>
       </c>
       <c r="K51" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
     </row>
     <row r="52">
@@ -5348,31 +5050,31 @@
         <v>0</v>
       </c>
       <c r="C52" t="n">
-        <v>53695.0620163823</v>
+        <v>60722.6356478165</v>
       </c>
       <c r="D52" t="n">
-        <v>173894.321222869</v>
+        <v>172445.15951131</v>
       </c>
       <c r="E52" t="n">
-        <v>695577.284891478</v>
+        <v>689780.638045239</v>
       </c>
       <c r="F52" t="n">
         <v>774940.78945409</v>
       </c>
       <c r="G52" t="n">
-        <v>79363.5045626127</v>
+        <v>85160.1514088514</v>
       </c>
       <c r="H52" t="n">
-        <v>21309.6919212671</v>
+        <v>22779.1398772005</v>
       </c>
       <c r="I52" t="n">
-        <v>195204.013144137</v>
+        <v>195224.29938851</v>
       </c>
       <c r="J52" t="n">
-        <v>774941.050901995</v>
+        <v>774941.063168562</v>
       </c>
       <c r="K52" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
     </row>
     <row r="53">
@@ -5383,31 +5085,31 @@
         <v>0</v>
       </c>
       <c r="C53" t="n">
-        <v>53695.0620163823</v>
+        <v>60722.6356478165</v>
       </c>
       <c r="D53" t="n">
-        <v>173894.321222869</v>
+        <v>172445.15951131</v>
       </c>
       <c r="E53" t="n">
-        <v>695577.284891478</v>
+        <v>689780.638045239</v>
       </c>
       <c r="F53" t="n">
         <v>774940.78945409</v>
       </c>
       <c r="G53" t="n">
-        <v>79363.5045626127</v>
+        <v>85160.1514088514</v>
       </c>
       <c r="H53" t="n">
-        <v>23447.711037218</v>
+        <v>25011.6031944594</v>
       </c>
       <c r="I53" t="n">
-        <v>197342.032260087</v>
+        <v>197456.762705769</v>
       </c>
       <c r="J53" t="n">
-        <v>774941.050901995</v>
+        <v>774941.063168562</v>
       </c>
       <c r="K53" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
     </row>
     <row r="54">
@@ -5418,31 +5120,31 @@
         <v>0</v>
       </c>
       <c r="C54" t="n">
-        <v>102736.888513941</v>
+        <v>109764.462145375</v>
       </c>
       <c r="D54" t="n">
-        <v>179231.280513708</v>
+        <v>177412.995332992</v>
       </c>
       <c r="E54" t="n">
-        <v>716925.12205483</v>
+        <v>709651.981331966</v>
       </c>
       <c r="F54" t="n">
         <v>789698.686406083</v>
       </c>
       <c r="G54" t="n">
-        <v>72773.5643512531</v>
+        <v>80046.7050741173</v>
       </c>
       <c r="H54" t="n">
-        <v>25185.9892925064</v>
+        <v>26871.264573978</v>
       </c>
       <c r="I54" t="n">
-        <v>204417.269806214</v>
+        <v>204284.259906969</v>
       </c>
       <c r="J54" t="n">
-        <v>789698.999456265</v>
+        <v>789698.8595846</v>
       </c>
       <c r="K54" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
     </row>
     <row r="55">
@@ -5453,31 +5155,31 @@
         <v>0</v>
       </c>
       <c r="C55" t="n">
-        <v>102736.888513941</v>
+        <v>109764.462145375</v>
       </c>
       <c r="D55" t="n">
-        <v>179231.280513708</v>
+        <v>177412.995332992</v>
       </c>
       <c r="E55" t="n">
-        <v>716925.12205483</v>
+        <v>709651.981331966</v>
       </c>
       <c r="F55" t="n">
         <v>789698.686406083</v>
       </c>
       <c r="G55" t="n">
-        <v>72773.5643512531</v>
+        <v>80046.7050741173</v>
       </c>
       <c r="H55" t="n">
-        <v>23084.2926177627</v>
+        <v>24871.3111214576</v>
       </c>
       <c r="I55" t="n">
-        <v>202315.57313147</v>
+        <v>202284.306454449</v>
       </c>
       <c r="J55" t="n">
-        <v>789698.999456265</v>
+        <v>789698.8595846</v>
       </c>
       <c r="K55" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
     </row>
     <row r="56">
@@ -5488,31 +5190,31 @@
         <v>0</v>
       </c>
       <c r="C56" t="n">
-        <v>102736.888513941</v>
+        <v>109764.462145375</v>
       </c>
       <c r="D56" t="n">
-        <v>179231.280513708</v>
+        <v>177412.995332992</v>
       </c>
       <c r="E56" t="n">
-        <v>716925.12205483</v>
+        <v>709651.981331966</v>
       </c>
       <c r="F56" t="n">
         <v>789698.686406083</v>
       </c>
       <c r="G56" t="n">
-        <v>72773.5643512531</v>
+        <v>80046.7050741173</v>
       </c>
       <c r="H56" t="n">
-        <v>17142.6210129867</v>
+        <v>19011.7428368984</v>
       </c>
       <c r="I56" t="n">
-        <v>196373.901526694</v>
+        <v>196424.73816989</v>
       </c>
       <c r="J56" t="n">
-        <v>789698.999456265</v>
+        <v>789698.8595846</v>
       </c>
       <c r="K56" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
     </row>
     <row r="57">
@@ -5523,31 +5225,31 @@
         <v>0</v>
       </c>
       <c r="C57" t="n">
-        <v>102736.888513941</v>
+        <v>109764.462145375</v>
       </c>
       <c r="D57" t="n">
-        <v>179231.280513708</v>
+        <v>177412.995332992</v>
       </c>
       <c r="E57" t="n">
-        <v>716925.12205483</v>
+        <v>709651.981331966</v>
       </c>
       <c r="F57" t="n">
         <v>789698.686406083</v>
       </c>
       <c r="G57" t="n">
-        <v>72773.5643512531</v>
+        <v>80046.7050741173</v>
       </c>
       <c r="H57" t="n">
-        <v>7360.97447817855</v>
+        <v>9292.55972030026</v>
       </c>
       <c r="I57" t="n">
-        <v>186592.254991886</v>
+        <v>186705.555053292</v>
       </c>
       <c r="J57" t="n">
-        <v>789698.999456265</v>
+        <v>789698.8595846</v>
       </c>
       <c r="K57" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
     </row>
     <row r="58">
@@ -5558,31 +5260,31 @@
         <v>0</v>
       </c>
       <c r="C58" t="n">
-        <v>117494.785465934</v>
+        <v>124522.359097368</v>
       </c>
       <c r="D58" t="n">
-        <v>180837.303390019</v>
+        <v>178907.93983989</v>
       </c>
       <c r="E58" t="n">
-        <v>723349.213560076</v>
+        <v>715685.290238441</v>
       </c>
       <c r="F58" t="n">
         <v>671314.731365634</v>
       </c>
       <c r="G58" t="n">
-        <v>-52034.4821944416</v>
+        <v>-44370.5588728065</v>
       </c>
       <c r="H58" t="n">
-        <v>-6260.64698666182</v>
+        <v>-4286.23822833678</v>
       </c>
       <c r="I58" t="n">
-        <v>174576.656403357</v>
+        <v>174621.701611553</v>
       </c>
       <c r="J58" t="n">
-        <v>671315.059944215</v>
+        <v>671314.874290399</v>
       </c>
       <c r="K58" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
     </row>
     <row r="59">
@@ -5593,31 +5295,31 @@
         <v>0</v>
       </c>
       <c r="C59" t="n">
-        <v>117494.785465934</v>
+        <v>124522.359097368</v>
       </c>
       <c r="D59" t="n">
-        <v>180837.303390019</v>
+        <v>178907.93983989</v>
       </c>
       <c r="E59" t="n">
-        <v>723349.213560076</v>
+        <v>715685.290238441</v>
       </c>
       <c r="F59" t="n">
         <v>671314.731365634</v>
       </c>
       <c r="G59" t="n">
-        <v>-52034.4821944416</v>
+        <v>-44370.5588728065</v>
       </c>
       <c r="H59" t="n">
-        <v>-14408.4521395193</v>
+        <v>-12440.3037112611</v>
       </c>
       <c r="I59" t="n">
-        <v>166428.8512505</v>
+        <v>166467.636128629</v>
       </c>
       <c r="J59" t="n">
-        <v>671315.059944215</v>
+        <v>671314.874290399</v>
       </c>
       <c r="K59" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
     </row>
     <row r="60">
@@ -5625,34 +5327,34 @@
         <v>75</v>
       </c>
       <c r="B60" t="n">
-        <v>0</v>
+        <v>0.020706385640154</v>
       </c>
       <c r="C60" t="n">
-        <v>117494.785465934</v>
+        <v>124522.359097368</v>
       </c>
       <c r="D60" t="n">
-        <v>180837.303390019</v>
+        <v>178961.47071877</v>
       </c>
       <c r="E60" t="n">
-        <v>723349.213560076</v>
+        <v>715685.290238441</v>
       </c>
       <c r="F60" t="n">
         <v>671314.731365634</v>
       </c>
       <c r="G60" t="n">
-        <v>-52034.4821944416</v>
+        <v>-44370.5588728065</v>
       </c>
       <c r="H60" t="n">
-        <v>-17082.4409803939</v>
+        <v>-15169.6367284726</v>
       </c>
       <c r="I60" t="n">
-        <v>163754.862409625</v>
+        <v>163791.833990298</v>
       </c>
       <c r="J60" t="n">
-        <v>671315.059944215</v>
+        <v>671314.874290399</v>
       </c>
       <c r="K60" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
     </row>
     <row r="61">
@@ -5663,31 +5365,31 @@
         <v>0</v>
       </c>
       <c r="C61" t="n">
-        <v>117494.785465934</v>
+        <v>124522.359097368</v>
       </c>
       <c r="D61" t="n">
-        <v>180837.303390019</v>
+        <v>178907.93983989</v>
       </c>
       <c r="E61" t="n">
-        <v>723349.213560076</v>
+        <v>715685.290238441</v>
       </c>
       <c r="F61" t="n">
         <v>671314.731365634</v>
       </c>
       <c r="G61" t="n">
-        <v>-52034.4821944416</v>
+        <v>-44370.5588728065</v>
       </c>
       <c r="H61" t="n">
-        <v>-14282.6135092857</v>
+        <v>-12474.2372799715</v>
       </c>
       <c r="I61" t="n">
-        <v>166554.689880733</v>
+        <v>166433.702559919</v>
       </c>
       <c r="J61" t="n">
-        <v>671315.059944215</v>
+        <v>671314.874290399</v>
       </c>
       <c r="K61" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
     </row>
     <row r="62">
@@ -5698,31 +5400,31 @@
         <v>0</v>
       </c>
       <c r="C62" t="n">
-        <v>-889.169574515428</v>
+        <v>6084.87317803851</v>
       </c>
       <c r="D62" t="n">
-        <v>167954.211672977</v>
+        <v>166910.466923394</v>
       </c>
       <c r="E62" t="n">
-        <v>671816.846691909</v>
+        <v>696264.577136084</v>
       </c>
       <c r="F62" t="n">
         <v>699030.351846871</v>
       </c>
       <c r="G62" t="n">
-        <v>27213.5051549625</v>
+        <v>2765.77471078723</v>
       </c>
       <c r="H62" t="n">
-        <v>-6008.9697261945</v>
+        <v>-4354.10536575756</v>
       </c>
       <c r="I62" t="n">
-        <v>161945.241946783</v>
+        <v>162556.361557636</v>
       </c>
       <c r="J62" t="n">
-        <v>699030.555860728</v>
+        <v>699030.737568991</v>
       </c>
       <c r="K62" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
     </row>
     <row r="63">
@@ -5730,34 +5432,34 @@
         <v>77</v>
       </c>
       <c r="B63" t="n">
-        <v>0</v>
+        <v>1.85072167592936</v>
       </c>
       <c r="C63" t="n">
-        <v>-889.169574515428</v>
+        <v>6084.87317803851</v>
       </c>
       <c r="D63" t="n">
-        <v>167954.211672977</v>
+        <v>171695.017911515</v>
       </c>
       <c r="E63" t="n">
-        <v>671816.846691909</v>
+        <v>696264.577136084</v>
       </c>
       <c r="F63" t="n">
         <v>699030.351846871</v>
       </c>
       <c r="G63" t="n">
-        <v>27213.5051549625</v>
+        <v>2765.77471078723</v>
       </c>
       <c r="H63" t="n">
-        <v>2425.44659440165</v>
+        <v>912.205589521704</v>
       </c>
       <c r="I63" t="n">
-        <v>170379.658267379</v>
+        <v>172607.223501037</v>
       </c>
       <c r="J63" t="n">
-        <v>699030.555860728</v>
+        <v>699030.737568991</v>
       </c>
       <c r="K63" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
     </row>
     <row r="64">
@@ -5765,34 +5467,34 @@
         <v>78</v>
       </c>
       <c r="B64" t="n">
-        <v>0</v>
+        <v>3.70707712909614</v>
       </c>
       <c r="C64" t="n">
-        <v>-889.169574515428</v>
+        <v>6084.87317803851</v>
       </c>
       <c r="D64" t="n">
-        <v>167954.211672977</v>
+        <v>176494.133539365</v>
       </c>
       <c r="E64" t="n">
-        <v>671816.846691909</v>
+        <v>696264.577136084</v>
       </c>
       <c r="F64" t="n">
         <v>699030.351846871</v>
       </c>
       <c r="G64" t="n">
-        <v>27213.5051549625</v>
+        <v>2765.77471078723</v>
       </c>
       <c r="H64" t="n">
-        <v>11020.6354525028</v>
+        <v>3324.69558586633</v>
       </c>
       <c r="I64" t="n">
-        <v>178974.84712548</v>
+        <v>179818.829125231</v>
       </c>
       <c r="J64" t="n">
-        <v>699030.555860728</v>
+        <v>699030.737568991</v>
       </c>
       <c r="K64" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
     </row>
     <row r="65">
@@ -5800,34 +5502,34 @@
         <v>79</v>
       </c>
       <c r="B65" t="n">
-        <v>0</v>
+        <v>5.51380831560002</v>
       </c>
       <c r="C65" t="n">
-        <v>-889.169574515428</v>
+        <v>6084.87317803851</v>
       </c>
       <c r="D65" t="n">
-        <v>167954.211672977</v>
+        <v>181164.95876181</v>
       </c>
       <c r="E65" t="n">
-        <v>671816.846691909</v>
+        <v>696264.577136084</v>
       </c>
       <c r="F65" t="n">
         <v>699030.351846871</v>
       </c>
       <c r="G65" t="n">
-        <v>27213.5051549625</v>
+        <v>2765.77471078723</v>
       </c>
       <c r="H65" t="n">
-        <v>19776.596848109</v>
+        <v>2883.3646232763</v>
       </c>
       <c r="I65" t="n">
-        <v>187730.808521086</v>
+        <v>184048.323385087</v>
       </c>
       <c r="J65" t="n">
-        <v>699030.555860728</v>
+        <v>699030.737568991</v>
       </c>
       <c r="K65" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
     </row>
     <row r="66">
@@ -5835,34 +5537,34 @@
         <v>19</v>
       </c>
       <c r="B66" t="n">
-        <v>0</v>
+        <v>7.41267314027396</v>
       </c>
       <c r="C66" t="n">
-        <v>26826.4509067219</v>
+        <v>5231.31509564666</v>
       </c>
       <c r="D66" t="n">
-        <v>170970.354194424</v>
+        <v>185987.507444679</v>
       </c>
       <c r="E66" t="n">
-        <v>683881.416777694</v>
+        <v>772551.657808141</v>
       </c>
       <c r="F66" t="n">
         <v>763675.359445686</v>
       </c>
       <c r="G66" t="n">
-        <v>79793.9426679916</v>
+        <v>-8876.29836245475</v>
       </c>
       <c r="H66" t="n">
-        <v>28693.3307812201</v>
+        <v>-411.787298248368</v>
       </c>
       <c r="I66" t="n">
-        <v>199663.684975644</v>
+        <v>185575.72014643</v>
       </c>
       <c r="J66" t="n">
-        <v>763675.592622182</v>
+        <v>763675.746917604</v>
       </c>
       <c r="K66" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
     </row>
     <row r="67">
@@ -5870,34 +5572,34 @@
         <v>80</v>
       </c>
       <c r="B67" t="n">
-        <v>0</v>
+        <v>9.2624888487411</v>
       </c>
       <c r="C67" t="n">
-        <v>26826.4509067219</v>
+        <v>5231.31509564666</v>
       </c>
       <c r="D67" t="n">
-        <v>170970.354194424</v>
+        <v>190769.716293745</v>
       </c>
       <c r="E67" t="n">
-        <v>683881.416777694</v>
+        <v>772551.657808141</v>
       </c>
       <c r="F67" t="n">
         <v>763675.359445686</v>
       </c>
       <c r="G67" t="n">
-        <v>79793.9426679916</v>
+        <v>-8876.29836245475</v>
       </c>
       <c r="H67" t="n">
-        <v>28762.1096264253</v>
+        <v>-2452.72423661262</v>
       </c>
       <c r="I67" t="n">
-        <v>199732.463820849</v>
+        <v>188316.992057133</v>
       </c>
       <c r="J67" t="n">
-        <v>763675.592622182</v>
+        <v>763675.746917604</v>
       </c>
       <c r="K67" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
     </row>
     <row r="68">
@@ -5905,34 +5607,34 @@
         <v>81</v>
       </c>
       <c r="B68" t="n">
-        <v>0</v>
+        <v>11.1190006509613</v>
       </c>
       <c r="C68" t="n">
-        <v>26826.4509067219</v>
+        <v>5231.31509564666</v>
       </c>
       <c r="D68" t="n">
-        <v>170970.354194424</v>
+        <v>195569.236120686</v>
       </c>
       <c r="E68" t="n">
-        <v>683881.416777694</v>
+        <v>772551.657808141</v>
       </c>
       <c r="F68" t="n">
         <v>763675.359445686</v>
       </c>
       <c r="G68" t="n">
-        <v>79793.9426679916</v>
+        <v>-8876.29836245475</v>
       </c>
       <c r="H68" t="n">
-        <v>19982.9333837246</v>
+        <v>-3239.44619181644</v>
       </c>
       <c r="I68" t="n">
-        <v>190953.287578148</v>
+        <v>192329.78992887</v>
       </c>
       <c r="J68" t="n">
-        <v>763675.592622182</v>
+        <v>763675.746917604</v>
       </c>
       <c r="K68" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
     </row>
     <row r="69">
@@ -5940,34 +5642,34 @@
         <v>82</v>
       </c>
       <c r="B69" t="n">
-        <v>0</v>
+        <v>12.9199824984556</v>
       </c>
       <c r="C69" t="n">
-        <v>26826.4509067219</v>
+        <v>5231.31509564666</v>
       </c>
       <c r="D69" t="n">
-        <v>170970.354194424</v>
+        <v>200225.197949031</v>
       </c>
       <c r="E69" t="n">
-        <v>683881.416777694</v>
+        <v>772551.657808141</v>
       </c>
       <c r="F69" t="n">
         <v>763675.359445686</v>
       </c>
       <c r="G69" t="n">
-        <v>79793.9426679916</v>
+        <v>-8876.29836245475</v>
       </c>
       <c r="H69" t="n">
-        <v>2355.80205311778</v>
+        <v>-2771.95316385986</v>
       </c>
       <c r="I69" t="n">
-        <v>173326.156247541</v>
+        <v>197453.244785171</v>
       </c>
       <c r="J69" t="n">
-        <v>763675.592622182</v>
+        <v>763675.746917604</v>
       </c>
       <c r="K69" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
     </row>
     <row r="70">
@@ -5975,34 +5677,34 @@
         <v>20</v>
       </c>
       <c r="B70" t="n">
-        <v>19.3512405167052</v>
+        <v>14.8252008990644</v>
       </c>
       <c r="C70" t="n">
-        <v>91471.4585055365</v>
+        <v>-6756.61266698397</v>
       </c>
       <c r="D70" t="n">
-        <v>242550.611424469</v>
+        <v>203936.283448856</v>
       </c>
       <c r="E70" t="n">
-        <v>993817.540260286</v>
+        <v>844327.869460105</v>
       </c>
       <c r="F70" t="n">
         <v>839344.016527156</v>
       </c>
       <c r="G70" t="n">
-        <v>-154473.523733129</v>
+        <v>-4983.85293294885</v>
       </c>
       <c r="H70" t="n">
-        <v>-24119.284365395</v>
+        <v>-1050.24515274286</v>
       </c>
       <c r="I70" t="n">
-        <v>218431.327059074</v>
+        <v>202886.038296113</v>
       </c>
       <c r="J70" t="n">
-        <v>839344.317723745</v>
+        <v>839344.428574377</v>
       </c>
       <c r="K70" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
     </row>
     <row r="71">
@@ -6010,34 +5712,34 @@
         <v>83</v>
       </c>
       <c r="B71" t="n">
-        <v>21.9788920815483</v>
+        <v>16.6742308960295</v>
       </c>
       <c r="C71" t="n">
-        <v>91471.4585055365</v>
+        <v>-6756.61266698397</v>
       </c>
       <c r="D71" t="n">
-        <v>251315.037925927</v>
+        <v>208716.46104882</v>
       </c>
       <c r="E71" t="n">
-        <v>993817.540260286</v>
+        <v>844327.869460105</v>
       </c>
       <c r="F71" t="n">
         <v>839344.016527156</v>
       </c>
       <c r="G71" t="n">
-        <v>-154473.523733129</v>
+        <v>-4983.85293294885</v>
       </c>
       <c r="H71" t="n">
-        <v>-40508.9274402962</v>
+        <v>-439.807975771706</v>
       </c>
       <c r="I71" t="n">
-        <v>210806.110485631</v>
+        <v>208276.653073048</v>
       </c>
       <c r="J71" t="n">
-        <v>839344.317723745</v>
+        <v>839344.428574377</v>
       </c>
       <c r="K71" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
     </row>
     <row r="72">
@@ -6045,34 +5747,34 @@
         <v>84</v>
       </c>
       <c r="B72" t="n">
-        <v>19.582839927499</v>
+        <v>18.5310714827694</v>
       </c>
       <c r="C72" t="n">
-        <v>91471.4585055365</v>
+        <v>-6756.61266698397</v>
       </c>
       <c r="D72" t="n">
-        <v>243323.101978712</v>
+        <v>213516.830861103</v>
       </c>
       <c r="E72" t="n">
-        <v>993817.540260286</v>
+        <v>844327.869460105</v>
       </c>
       <c r="F72" t="n">
         <v>839344.016527156</v>
       </c>
       <c r="G72" t="n">
-        <v>-154473.523733129</v>
+        <v>-4983.85293294885</v>
       </c>
       <c r="H72" t="n">
-        <v>-46813.1271715858</v>
+        <v>-940.641632946419</v>
       </c>
       <c r="I72" t="n">
-        <v>196509.974807126</v>
+        <v>212576.189228157</v>
       </c>
       <c r="J72" t="n">
-        <v>839344.317723745</v>
+        <v>839344.428574377</v>
       </c>
       <c r="K72" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
     </row>
     <row r="73">
@@ -6080,34 +5782,34 @@
         <v>85</v>
       </c>
       <c r="B73" t="n">
-        <v>23.5720010136398</v>
+        <v>20.32644510258</v>
       </c>
       <c r="C73" t="n">
-        <v>91471.4585055365</v>
+        <v>-6756.61266698397</v>
       </c>
       <c r="D73" t="n">
-        <v>256628.788931178</v>
+        <v>218158.294101327</v>
       </c>
       <c r="E73" t="n">
-        <v>993817.540260286</v>
+        <v>844327.869460105</v>
       </c>
       <c r="F73" t="n">
         <v>839344.016527156</v>
       </c>
       <c r="G73" t="n">
-        <v>-154473.523733129</v>
+        <v>-4983.85293294885</v>
       </c>
       <c r="H73" t="n">
-        <v>-43031.8835592639</v>
+        <v>-2552.74612426699</v>
       </c>
       <c r="I73" t="n">
-        <v>213596.905371914</v>
+        <v>215605.54797706</v>
       </c>
       <c r="J73" t="n">
-        <v>839344.317723745</v>
+        <v>839344.428574377</v>
       </c>
       <c r="K73" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
     </row>
     <row r="74">
@@ -6115,34 +5817,34 @@
         <v>21</v>
       </c>
       <c r="B74" t="n">
-        <v>24.0694368040547</v>
+        <v>22.2367362091695</v>
       </c>
       <c r="C74" t="n">
-        <v>-114656.128241798</v>
+        <v>-7721.57661393308</v>
       </c>
       <c r="D74" t="n">
-        <v>235856.20491022</v>
+        <v>222999.097227251</v>
       </c>
       <c r="E74" t="n">
-        <v>955840.244646153</v>
+        <v>920571.137176799</v>
       </c>
       <c r="F74" t="n">
         <v>881333</v>
       </c>
       <c r="G74" t="n">
-        <v>-74507.2446461528</v>
+        <v>-39238.1371767994</v>
       </c>
       <c r="H74" t="n">
-        <v>-29165.1966033305</v>
+        <v>-5276.12144973341</v>
       </c>
       <c r="I74" t="n">
-        <v>206691.008306889</v>
+        <v>217722.975777518</v>
       </c>
       <c r="J74" t="n">
-        <v>881333.08430718</v>
+        <v>881333.414025401</v>
       </c>
       <c r="K74" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
     </row>
     <row r="75">
@@ -6150,34 +5852,34 @@
         <v>86</v>
       </c>
       <c r="B75" t="n">
-        <v>28.6245826144362</v>
+        <v>24.0852473840084</v>
       </c>
       <c r="C75" t="n">
-        <v>-114656.128241798</v>
+        <v>-7721.57661393308</v>
       </c>
       <c r="D75" t="n">
-        <v>251049.71123072</v>
+        <v>227777.933549946</v>
       </c>
       <c r="E75" t="n">
-        <v>955840.244646153</v>
+        <v>920571.137176799</v>
       </c>
       <c r="F75" t="n">
         <v>881333</v>
       </c>
       <c r="G75" t="n">
-        <v>-74507.2446461528</v>
+        <v>-39238.1371767994</v>
       </c>
       <c r="H75" t="n">
-        <v>-19403.1592135223</v>
+        <v>-8178.79531516644</v>
       </c>
       <c r="I75" t="n">
-        <v>231646.552017198</v>
+        <v>219599.138234779</v>
       </c>
       <c r="J75" t="n">
-        <v>881333.08430718</v>
+        <v>881333.414025401</v>
       </c>
       <c r="K75" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
     </row>
     <row r="76">
@@ -6185,34 +5887,34 @@
         <v>87</v>
       </c>
       <c r="B76" t="n">
-        <v>23.5225103123471</v>
+        <v>25.9419959684842</v>
       </c>
       <c r="C76" t="n">
-        <v>-114656.128241798</v>
+        <v>-7721.57661393308</v>
       </c>
       <c r="D76" t="n">
-        <v>234031.953513114</v>
+        <v>232578.065514729</v>
       </c>
       <c r="E76" t="n">
-        <v>955840.244646153</v>
+        <v>920571.137176799</v>
       </c>
       <c r="F76" t="n">
         <v>881333</v>
       </c>
       <c r="G76" t="n">
-        <v>-74507.2446461528</v>
+        <v>-39238.1371767994</v>
       </c>
       <c r="H76" t="n">
-        <v>-13745.7713898392</v>
+        <v>-11260.7677205661</v>
       </c>
       <c r="I76" t="n">
-        <v>220286.182123275</v>
+        <v>221317.297794163</v>
       </c>
       <c r="J76" t="n">
-        <v>881333.08430718</v>
+        <v>881333.414025401</v>
       </c>
       <c r="K76" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
     </row>
     <row r="77">
@@ -6220,34 +5922,34 @@
         <v>88</v>
       </c>
       <c r="B77" t="n">
-        <v>23.783470269162</v>
+        <v>27.7360204383379</v>
       </c>
       <c r="C77" t="n">
-        <v>-114656.128241798</v>
+        <v>-7721.57661393308</v>
       </c>
       <c r="D77" t="n">
-        <v>234902.374992099</v>
+        <v>237216.040884873</v>
       </c>
       <c r="E77" t="n">
-        <v>955840.244646153</v>
+        <v>920571.137176799</v>
       </c>
       <c r="F77" t="n">
         <v>881333</v>
       </c>
       <c r="G77" t="n">
-        <v>-74507.2446461528</v>
+        <v>-39238.1371767994</v>
       </c>
       <c r="H77" t="n">
-        <v>-12193.0331322814</v>
+        <v>-14522.0386659323</v>
       </c>
       <c r="I77" t="n">
-        <v>222709.341859818</v>
+        <v>222694.002218941</v>
       </c>
       <c r="J77" t="n">
-        <v>881333.08430718</v>
+        <v>881333.414025401</v>
       </c>
       <c r="K77" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
     </row>
     <row r="78">
@@ -6255,34 +5957,34 @@
         <v>22</v>
       </c>
       <c r="B78" t="n">
-        <v>22.4609649459443</v>
+        <v>29.6479336232153</v>
       </c>
       <c r="C78" t="n">
-        <v>-124416.893823029</v>
+        <v>-42366.8562839041</v>
       </c>
       <c r="D78" t="n">
-        <v>229428.999645054</v>
+        <v>238649.290984656</v>
       </c>
       <c r="E78" t="n">
-        <v>976086.962162594</v>
+        <v>983165.979471858</v>
       </c>
       <c r="F78" t="n">
         <v>973967</v>
       </c>
       <c r="G78" t="n">
-        <v>-2119.96216259431</v>
+        <v>-9198.97947185847</v>
       </c>
       <c r="H78" t="n">
-        <v>-14744.9444408488</v>
+        <v>-17962.6081512652</v>
       </c>
       <c r="I78" t="n">
-        <v>214684.055204205</v>
+        <v>220686.68283339</v>
       </c>
       <c r="J78" t="n">
-        <v>973967.074036809</v>
+        <v>973967.485048373</v>
       </c>
       <c r="K78" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
     </row>
     <row r="79">
@@ -6290,34 +5992,34 @@
         <v>89</v>
       </c>
       <c r="B79" t="n">
-        <v>25.7420052551765</v>
+        <v>31.4960131180261</v>
       </c>
       <c r="C79" t="n">
-        <v>-124416.893823029</v>
+        <v>-42366.8562839041</v>
       </c>
       <c r="D79" t="n">
-        <v>240372.77812137</v>
+        <v>243427.011312907</v>
       </c>
       <c r="E79" t="n">
-        <v>976086.962162594</v>
+        <v>983165.979471858</v>
       </c>
       <c r="F79" t="n">
         <v>973967</v>
       </c>
       <c r="G79" t="n">
-        <v>-2119.96216259431</v>
+        <v>-9198.97947185847</v>
       </c>
       <c r="H79" t="n">
-        <v>-10079.7200005148</v>
+        <v>-13073.6421272408</v>
       </c>
       <c r="I79" t="n">
-        <v>230293.058120855</v>
+        <v>230353.369185666</v>
       </c>
       <c r="J79" t="n">
-        <v>973967.074036809</v>
+        <v>973967.485048373</v>
       </c>
       <c r="K79" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
     </row>
     <row r="80">
@@ -6325,34 +6027,34 @@
         <v>90</v>
       </c>
       <c r="B80" t="n">
-        <v>29.1405752873286</v>
+        <v>33.3528509451383</v>
       </c>
       <c r="C80" t="n">
-        <v>-124416.893823029</v>
+        <v>-42366.8562839041</v>
       </c>
       <c r="D80" t="n">
-        <v>251708.572278932</v>
+        <v>248227.373990904</v>
       </c>
       <c r="E80" t="n">
-        <v>976086.962162594</v>
+        <v>983165.979471858</v>
       </c>
       <c r="F80" t="n">
         <v>973967</v>
       </c>
       <c r="G80" t="n">
-        <v>-2119.96216259431</v>
+        <v>-9198.97947185847</v>
       </c>
       <c r="H80" t="n">
-        <v>1802.64018872069</v>
+        <v>144.859406140909</v>
       </c>
       <c r="I80" t="n">
-        <v>253511.212467653</v>
+        <v>248372.233397045</v>
       </c>
       <c r="J80" t="n">
-        <v>973967.074036809</v>
+        <v>973967.485048373</v>
       </c>
       <c r="K80" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
     </row>
     <row r="81">
@@ -6360,34 +6062,34 @@
         <v>91</v>
       </c>
       <c r="B81" t="n">
-        <v>30.0004386643452</v>
+        <v>35.145697116959</v>
       </c>
       <c r="C81" t="n">
-        <v>-124416.893823029</v>
+        <v>-42366.8562839041</v>
       </c>
       <c r="D81" t="n">
-        <v>254576.612117238</v>
+        <v>252862.303183391</v>
       </c>
       <c r="E81" t="n">
-        <v>976086.962162594</v>
+        <v>983165.979471858</v>
       </c>
       <c r="F81" t="n">
         <v>973967</v>
       </c>
       <c r="G81" t="n">
-        <v>-2119.96216259431</v>
+        <v>-9198.97947185847</v>
       </c>
       <c r="H81" t="n">
-        <v>20902.1361268575</v>
+        <v>21692.8964488799</v>
       </c>
       <c r="I81" t="n">
-        <v>275478.748244096</v>
+        <v>274555.199632271</v>
       </c>
       <c r="J81" t="n">
-        <v>973967.074036809</v>
+        <v>973967.485048373</v>
       </c>
       <c r="K81" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
     </row>
     <row r="82">
@@ -6395,34 +6097,34 @@
         <v>23</v>
       </c>
       <c r="B82" t="n">
-        <v>27.5391840653641</v>
+        <v>37.0585343730839</v>
       </c>
       <c r="C82" t="n">
-        <v>-56278.4586826288</v>
+        <v>-26365.6799257821</v>
       </c>
       <c r="D82" t="n">
-        <v>253782.336948347</v>
+        <v>259428.323706591</v>
       </c>
       <c r="E82" t="n">
-        <v>1081633.1571914</v>
+        <v>1066281.73531724</v>
       </c>
       <c r="F82" t="n">
         <v>1280597.91365994</v>
       </c>
       <c r="G82" t="n">
-        <v>198964.756468539</v>
+        <v>214316.1783427</v>
       </c>
       <c r="H82" t="n">
-        <v>47218.7678138958</v>
+        <v>51570.4690009761</v>
       </c>
       <c r="I82" t="n">
-        <v>301001.104762242</v>
+        <v>310998.792707567</v>
       </c>
       <c r="J82" t="n">
-        <v>1280598.05939266</v>
+        <v>1280598.36590583</v>
       </c>
       <c r="K82" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
     </row>
     <row r="83">
@@ -6430,34 +6132,34 @@
         <v>92</v>
       </c>
       <c r="B83" t="n">
-        <v>36.0349513048652</v>
+        <v>38.9065926062573</v>
       </c>
       <c r="C83" t="n">
-        <v>-56278.4586826288</v>
+        <v>-26365.6799257821</v>
       </c>
       <c r="D83" t="n">
-        <v>282119.628140359</v>
+        <v>264205.989068507</v>
       </c>
       <c r="E83" t="n">
-        <v>1081633.1571914</v>
+        <v>1066281.73531724</v>
       </c>
       <c r="F83" t="n">
         <v>1280597.91365994</v>
       </c>
       <c r="G83" t="n">
-        <v>198964.756468539</v>
+        <v>214316.1783427</v>
       </c>
       <c r="H83" t="n">
-        <v>58754.4035832786</v>
+        <v>64324.9734802834</v>
       </c>
       <c r="I83" t="n">
-        <v>340874.031723638</v>
+        <v>328530.96254879</v>
       </c>
       <c r="J83" t="n">
-        <v>1280598.05939266</v>
+        <v>1280598.36590583</v>
       </c>
       <c r="K83" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
     </row>
     <row r="84">
@@ -6465,34 +6167,34 @@
         <v>93</v>
       </c>
       <c r="B84" t="n">
-        <v>32.1801415072208</v>
+        <v>40.7634137729734</v>
       </c>
       <c r="C84" t="n">
-        <v>-56278.4586826288</v>
+        <v>-26365.6799257821</v>
       </c>
       <c r="D84" t="n">
-        <v>269262.064527059</v>
+        <v>269006.30867546</v>
       </c>
       <c r="E84" t="n">
-        <v>1081633.1571914</v>
+        <v>1066281.73531724</v>
       </c>
       <c r="F84" t="n">
         <v>1280597.91365994</v>
       </c>
       <c r="G84" t="n">
-        <v>198964.756468539</v>
+        <v>214316.1783427</v>
       </c>
       <c r="H84" t="n">
-        <v>55509.043435006</v>
+        <v>59956.4098868017</v>
       </c>
       <c r="I84" t="n">
-        <v>324771.107962065</v>
+        <v>328962.718562262</v>
       </c>
       <c r="J84" t="n">
-        <v>1280598.05939266</v>
+        <v>1280598.36590583</v>
       </c>
       <c r="K84" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
     </row>
     <row r="85">
@@ -6500,34 +6202,34 @@
         <v>94</v>
       </c>
       <c r="B85" t="n">
-        <v>34.3408819155473</v>
+        <v>42.5562119796178</v>
       </c>
       <c r="C85" t="n">
-        <v>-56278.4586826288</v>
+        <v>-26365.6799257821</v>
       </c>
       <c r="D85" t="n">
-        <v>276469.127575634</v>
+        <v>273641.113866681</v>
       </c>
       <c r="E85" t="n">
-        <v>1081633.1571914</v>
+        <v>1066281.73531724</v>
       </c>
       <c r="F85" t="n">
         <v>1280597.91365994</v>
       </c>
       <c r="G85" t="n">
-        <v>198964.756468539</v>
+        <v>214316.1783427</v>
       </c>
       <c r="H85" t="n">
-        <v>37482.6873690779</v>
+        <v>38464.7782205311</v>
       </c>
       <c r="I85" t="n">
-        <v>313951.814944712</v>
+        <v>312105.892087212</v>
       </c>
       <c r="J85" t="n">
-        <v>1280598.05939266</v>
+        <v>1280598.36590583</v>
       </c>
       <c r="K85" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
     </row>
     <row r="86">
@@ -6535,34 +6237,34 @@
         <v>24</v>
       </c>
       <c r="B86" t="n">
-        <v>26.4866275460351</v>
+        <v>44.4690814470478</v>
       </c>
       <c r="C86" t="n">
-        <v>174466.823631127</v>
+        <v>203633.022469228</v>
       </c>
       <c r="D86" t="n">
-        <v>275382.349968994</v>
+        <v>301884.725446764</v>
       </c>
       <c r="E86" t="n">
-        <v>1189350.88635059</v>
+        <v>1236107.07664361</v>
       </c>
       <c r="F86" t="n">
         <v>1135435.36054574</v>
       </c>
       <c r="G86" t="n">
-        <v>-53915.5258048498</v>
+        <v>-100671.716097874</v>
       </c>
       <c r="H86" t="n">
-        <v>4675.33538549439</v>
+        <v>-149.921518528412</v>
       </c>
       <c r="I86" t="n">
-        <v>280057.685354488</v>
+        <v>301734.803928235</v>
       </c>
       <c r="J86" t="n">
-        <v>1135435.74907084</v>
+        <v>1135435.3412933</v>
       </c>
       <c r="K86" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
     </row>
     <row r="87">
@@ -6570,34 +6272,34 @@
         <v>95</v>
       </c>
       <c r="B87" t="n">
-        <v>33.9759587326099</v>
+        <v>46.3171093495119</v>
       </c>
       <c r="C87" t="n">
-        <v>174466.823631127</v>
+        <v>203633.022469228</v>
       </c>
       <c r="D87" t="n">
-        <v>300362.714035542</v>
+        <v>306662.31239666</v>
       </c>
       <c r="E87" t="n">
-        <v>1189350.88635059</v>
+        <v>1236107.07664361</v>
       </c>
       <c r="F87" t="n">
         <v>1135435.36054574</v>
       </c>
       <c r="G87" t="n">
-        <v>-53915.5258048498</v>
+        <v>-100671.716097874</v>
       </c>
       <c r="H87" t="n">
-        <v>-15709.2532901116</v>
+        <v>-25603.0063417718</v>
       </c>
       <c r="I87" t="n">
-        <v>284653.46074543</v>
+        <v>281059.306054888</v>
       </c>
       <c r="J87" t="n">
-        <v>1135435.74907084</v>
+        <v>1135435.3412933</v>
       </c>
       <c r="K87" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
     </row>
     <row r="88">
@@ -6605,34 +6307,34 @@
         <v>96</v>
       </c>
       <c r="B88" t="n">
-        <v>38.0544426597225</v>
+        <v>48.173935150553</v>
       </c>
       <c r="C88" t="n">
-        <v>174466.823631127</v>
+        <v>203633.022469228</v>
       </c>
       <c r="D88" t="n">
-        <v>313966.333744798</v>
+        <v>311462.643984433</v>
       </c>
       <c r="E88" t="n">
-        <v>1189350.88635059</v>
+        <v>1236107.07664361</v>
       </c>
       <c r="F88" t="n">
         <v>1135435.36054574</v>
       </c>
       <c r="G88" t="n">
-        <v>-53915.5258048498</v>
+        <v>-100671.716097874</v>
       </c>
       <c r="H88" t="n">
-        <v>-23671.0786577399</v>
+        <v>-37894.4762491989</v>
       </c>
       <c r="I88" t="n">
-        <v>290295.255087058</v>
+        <v>273568.167735234</v>
       </c>
       <c r="J88" t="n">
-        <v>1135435.74907084</v>
+        <v>1135435.3412933</v>
       </c>
       <c r="K88" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
     </row>
     <row r="89">
@@ -6640,34 +6342,34 @@
         <v>97</v>
       </c>
       <c r="B89" t="n">
-        <v>33.7591294347849</v>
+        <v>49.9667123301358</v>
       </c>
       <c r="C89" t="n">
-        <v>174466.823631127</v>
+        <v>203633.022469228</v>
       </c>
       <c r="D89" t="n">
-        <v>299639.488601251</v>
+        <v>316097.394815752</v>
       </c>
       <c r="E89" t="n">
-        <v>1189350.88635059</v>
+        <v>1236107.07664361</v>
       </c>
       <c r="F89" t="n">
         <v>1135435.36054574</v>
       </c>
       <c r="G89" t="n">
-        <v>-53915.5258048498</v>
+        <v>-100671.716097874</v>
       </c>
       <c r="H89" t="n">
-        <v>-19210.1407173907</v>
+        <v>-37024.3312408099</v>
       </c>
       <c r="I89" t="n">
-        <v>280429.34788386</v>
+        <v>279073.063574943</v>
       </c>
       <c r="J89" t="n">
-        <v>1135435.74907084</v>
+        <v>1135435.3412933</v>
       </c>
       <c r="K89" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
     </row>
     <row r="90">
@@ -6675,34 +6377,34 @@
         <v>25</v>
       </c>
       <c r="B90" t="n">
-        <v>29.028273203788</v>
+        <v>51.8796092119822</v>
       </c>
       <c r="C90" t="n">
-        <v>22029.6338125246</v>
+        <v>-18161.2962585706</v>
       </c>
       <c r="D90" t="n">
-        <v>267270.98435799</v>
+        <v>298575.376547119</v>
       </c>
       <c r="E90" t="n">
-        <v>1144233.01140966</v>
+        <v>1222869.56117999</v>
       </c>
       <c r="F90" t="n">
         <v>1181153.53820902</v>
       </c>
       <c r="G90" t="n">
-        <v>36920.5267993528</v>
+        <v>-41716.0229709726</v>
       </c>
       <c r="H90" t="n">
-        <v>-2326.43946906387</v>
+        <v>-22992.5713166046</v>
       </c>
       <c r="I90" t="n">
-        <v>264944.544888926</v>
+        <v>275582.805230514</v>
       </c>
       <c r="J90" t="n">
-        <v>1181153.76633826</v>
+        <v>1181153.97363589</v>
       </c>
       <c r="K90" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
     </row>
     <row r="91">
@@ -6710,34 +6412,34 @@
         <v>98</v>
       </c>
       <c r="B91" t="n">
-        <v>38.3145601362264</v>
+        <v>53.727624216169</v>
       </c>
       <c r="C91" t="n">
-        <v>22029.6338125246</v>
+        <v>-18161.2962585706</v>
       </c>
       <c r="D91" t="n">
-        <v>298245.022308744</v>
+        <v>303352.930151934</v>
       </c>
       <c r="E91" t="n">
-        <v>1144233.01140966</v>
+        <v>1222869.56117999</v>
       </c>
       <c r="F91" t="n">
         <v>1181153.53820902</v>
       </c>
       <c r="G91" t="n">
-        <v>36920.5267993528</v>
+        <v>-41716.0229709726</v>
       </c>
       <c r="H91" t="n">
-        <v>9049.69231075161</v>
+        <v>-12354.3975746909</v>
       </c>
       <c r="I91" t="n">
-        <v>307294.714619496</v>
+        <v>290998.532577243</v>
       </c>
       <c r="J91" t="n">
-        <v>1181153.76633826</v>
+        <v>1181153.97363589</v>
       </c>
       <c r="K91" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
     </row>
     <row r="92">
@@ -6745,34 +6447,34 @@
         <v>99</v>
       </c>
       <c r="B92" t="n">
-        <v>30.9036683738363</v>
+        <v>55.5844523033739</v>
       </c>
       <c r="C92" t="n">
-        <v>22029.6338125246</v>
+        <v>-18161.2962585706</v>
       </c>
       <c r="D92" t="n">
-        <v>273526.289798405</v>
+        <v>308153.267649978</v>
       </c>
       <c r="E92" t="n">
-        <v>1144233.01140966</v>
+        <v>1222869.56117999</v>
       </c>
       <c r="F92" t="n">
         <v>1181153.53820902</v>
       </c>
       <c r="G92" t="n">
-        <v>36920.5267993528</v>
+        <v>-41716.0229709726</v>
       </c>
       <c r="H92" t="n">
-        <v>14918.2546220558</v>
+        <v>-5109.81001506863</v>
       </c>
       <c r="I92" t="n">
-        <v>288444.54442046</v>
+        <v>303043.457634909</v>
       </c>
       <c r="J92" t="n">
-        <v>1181153.76633826</v>
+        <v>1181153.97363589</v>
       </c>
       <c r="K92" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
     </row>
     <row r="93">
@@ -6780,34 +6482,34 @@
         <v>100</v>
       </c>
       <c r="B93" t="n">
-        <v>40.3969394134435</v>
+        <v>57.3772172402263</v>
       </c>
       <c r="C93" t="n">
-        <v>22029.6338125246</v>
+        <v>-18161.2962585706</v>
       </c>
       <c r="D93" t="n">
-        <v>305190.714944525</v>
+        <v>312787.986830959</v>
       </c>
       <c r="E93" t="n">
-        <v>1144233.01140966</v>
+        <v>1222869.56117999</v>
       </c>
       <c r="F93" t="n">
         <v>1181153.53820902</v>
       </c>
       <c r="G93" t="n">
-        <v>36920.5267993528</v>
+        <v>-41716.0229709726</v>
       </c>
       <c r="H93" t="n">
-        <v>15279.2474648486</v>
+        <v>-1258.80863773791</v>
       </c>
       <c r="I93" t="n">
-        <v>320469.962409374</v>
+        <v>311529.178193221</v>
       </c>
       <c r="J93" t="n">
-        <v>1181153.76633826</v>
+        <v>1181153.97363589</v>
       </c>
       <c r="K93" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
     </row>
     <row r="94">
@@ -6815,34 +6517,34 @@
         <v>26</v>
       </c>
       <c r="B94" t="n">
-        <v>29.5830753157831</v>
+        <v>59.2901397574875</v>
       </c>
       <c r="C94" t="n">
-        <v>46509.9949938436</v>
+        <v>-49074.8303046264</v>
       </c>
       <c r="D94" t="n">
-        <v>271785.571152109</v>
+        <v>314601.864423326</v>
       </c>
       <c r="E94" t="n">
-        <v>1248484.40698534</v>
+        <v>1272606.93765205</v>
       </c>
       <c r="F94" t="n">
         <v>1271001.81826414</v>
       </c>
       <c r="G94" t="n">
-        <v>22517.4112787973</v>
+        <v>-1605.11938790604</v>
       </c>
       <c r="H94" t="n">
-        <v>10132.6708391301</v>
+        <v>-801.393442698708</v>
       </c>
       <c r="I94" t="n">
-        <v>281918.241991239</v>
+        <v>313800.470980627</v>
       </c>
       <c r="J94" t="n">
-        <v>1271002.07215185</v>
+        <v>1271002.31706389</v>
       </c>
       <c r="K94" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
     </row>
     <row r="95">
@@ -6850,34 +6552,34 @@
         <v>101</v>
       </c>
       <c r="B95" t="n">
-        <v>36.9131589965894</v>
+        <v>61.1381408471483</v>
       </c>
       <c r="C95" t="n">
-        <v>46509.9949938436</v>
+        <v>-49074.8303046264</v>
       </c>
       <c r="D95" t="n">
-        <v>296234.7715444</v>
+        <v>319379.382055817</v>
       </c>
       <c r="E95" t="n">
-        <v>1248484.40698534</v>
+        <v>1272606.93765205</v>
       </c>
       <c r="F95" t="n">
         <v>1271001.81826414</v>
       </c>
       <c r="G95" t="n">
-        <v>22517.4112787973</v>
+        <v>-1605.11938790604</v>
       </c>
       <c r="H95" t="n">
-        <v>6272.73836984116</v>
+        <v>-458.332046419305</v>
       </c>
       <c r="I95" t="n">
-        <v>302507.509914241</v>
+        <v>318921.050009397</v>
       </c>
       <c r="J95" t="n">
-        <v>1271002.07215185</v>
+        <v>1271002.31706389</v>
       </c>
       <c r="K95" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
     </row>
     <row r="96">
@@ -6885,34 +6587,34 @@
         <v>102</v>
       </c>
       <c r="B96" t="n">
-        <v>50.0818207543335</v>
+        <v>61.1423418632118</v>
       </c>
       <c r="C96" t="n">
-        <v>46509.9949938436</v>
+        <v>-49074.8303046264</v>
       </c>
       <c r="D96" t="n">
-        <v>340158.315153656</v>
+        <v>319390.242670797</v>
       </c>
       <c r="E96" t="n">
-        <v>1248484.40698534</v>
+        <v>1272606.93765205</v>
       </c>
       <c r="F96" t="n">
         <v>1271001.81826414</v>
       </c>
       <c r="G96" t="n">
-        <v>22517.4112787973</v>
+        <v>-1605.11938790604</v>
       </c>
       <c r="H96" t="n">
-        <v>3699.45005698191</v>
+        <v>-229.624448899704</v>
       </c>
       <c r="I96" t="n">
-        <v>343857.765210638</v>
+        <v>319160.618221897</v>
       </c>
       <c r="J96" t="n">
-        <v>1271002.07215185</v>
+        <v>1271002.31706389</v>
       </c>
       <c r="K96" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
     </row>
     <row r="97">
@@ -6920,34 +6622,34 @@
         <v>103</v>
       </c>
       <c r="B97" t="n">
-        <v>50.1260227488619</v>
+        <v>61.0824656232025</v>
       </c>
       <c r="C97" t="n">
-        <v>46509.9949938436</v>
+        <v>-49074.8303046264</v>
       </c>
       <c r="D97" t="n">
-        <v>340305.749135179</v>
+        <v>319235.448502107</v>
       </c>
       <c r="E97" t="n">
-        <v>1248484.40698534</v>
+        <v>1272606.93765205</v>
       </c>
       <c r="F97" t="n">
         <v>1271001.81826414</v>
       </c>
       <c r="G97" t="n">
-        <v>22517.4112787973</v>
+        <v>-1605.11938790604</v>
       </c>
       <c r="H97" t="n">
-        <v>2412.80590055228</v>
+        <v>-115.270650139903</v>
       </c>
       <c r="I97" t="n">
-        <v>342718.555035732</v>
+        <v>319120.177851967</v>
       </c>
       <c r="J97" t="n">
-        <v>1271002.07215185</v>
+        <v>1271002.31706389</v>
       </c>
       <c r="K97" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -6969,13 +6671,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2">
@@ -6983,13 +6685,13 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>140421.038374167</v>
+        <v>140654.596445967</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-23625.0763122651</v>
+        <v>-20344.4647665651</v>
       </c>
     </row>
     <row r="3">
@@ -6997,13 +6699,13 @@
         <v>32</v>
       </c>
       <c r="B3" t="n">
-        <v>141159.814181197</v>
+        <v>141299.949024277</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-23625.0763122651</v>
+        <v>-20344.4647665651</v>
       </c>
     </row>
     <row r="4">
@@ -7011,13 +6713,13 @@
         <v>33</v>
       </c>
       <c r="B4" t="n">
-        <v>142637.365795258</v>
+        <v>142590.654180898</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-23625.0763122651</v>
+        <v>-20344.4647665651</v>
       </c>
     </row>
     <row r="5">
@@ -7025,13 +6727,13 @@
         <v>34</v>
       </c>
       <c r="B5" t="n">
-        <v>144853.693216349</v>
+        <v>144526.71191583</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-23625.0763122651</v>
+        <v>-20344.4647665651</v>
       </c>
     </row>
     <row r="6">
@@ -7039,13 +6741,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>139156.484965668</v>
+        <v>139433.795533224</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-103131.989373177</v>
+        <v>-96104.4157417431</v>
       </c>
     </row>
     <row r="7">
@@ -7053,13 +6755,13 @@
         <v>35</v>
       </c>
       <c r="B7" t="n">
-        <v>139998.733180159</v>
+        <v>140015.692232502</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-103131.989373177</v>
+        <v>-96104.4157417431</v>
       </c>
     </row>
     <row r="8">
@@ -7067,13 +6769,13 @@
         <v>36</v>
       </c>
       <c r="B8" t="n">
-        <v>138728.126381018</v>
+        <v>138598.075317815</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-103131.989373177</v>
+        <v>-96104.4157417431</v>
       </c>
     </row>
     <row r="9">
@@ -7081,13 +6783,13 @@
         <v>37</v>
       </c>
       <c r="B9" t="n">
-        <v>135344.664568246</v>
+        <v>135180.944789163</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>-103131.989373177</v>
+        <v>-96104.4157417431</v>
       </c>
     </row>
     <row r="10">
@@ -7095,13 +6797,13 @@
         <v>5</v>
       </c>
       <c r="B10" t="n">
-        <v>128124.13020758</v>
+        <v>128159.336253098</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>-118975.988278047</v>
+        <v>-111948.414646613</v>
       </c>
     </row>
     <row r="11">
@@ -7109,13 +6811,13 @@
         <v>38</v>
       </c>
       <c r="B11" t="n">
-        <v>127685.829284415</v>
+        <v>127738.87677815</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-118975.988278047</v>
+        <v>-111948.414646613</v>
       </c>
     </row>
     <row r="12">
@@ -7123,13 +6825,13 @@
         <v>39</v>
       </c>
       <c r="B12" t="n">
-        <v>132305.544264488</v>
+        <v>132314.601970868</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-118975.988278047</v>
+        <v>-111948.414646613</v>
       </c>
     </row>
     <row r="13">
@@ -7137,13 +6839,13 @@
         <v>40</v>
       </c>
       <c r="B13" t="n">
-        <v>141983.275147799</v>
+        <v>141886.511831253</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-118975.988278047</v>
+        <v>-111948.414646613</v>
       </c>
     </row>
     <row r="14">
@@ -7151,13 +6853,13 @@
         <v>6</v>
       </c>
       <c r="B14" t="n">
-        <v>154201.993515976</v>
+        <v>154111.664759123</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-142105.201797648</v>
+        <v>-135077.628166214</v>
       </c>
     </row>
     <row r="15">
@@ -7165,13 +6867,13 @@
         <v>41</v>
       </c>
       <c r="B15" t="n">
-        <v>163378.379728023</v>
+        <v>163257.183538598</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-142105.201797648</v>
+        <v>-135077.628166214</v>
       </c>
     </row>
     <row r="16">
@@ -7179,13 +6881,13 @@
         <v>42</v>
       </c>
       <c r="B16" t="n">
-        <v>166995.405365568</v>
+        <v>166980.126569494</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-142105.201797648</v>
+        <v>-135077.628166214</v>
       </c>
     </row>
     <row r="17">
@@ -7193,13 +6895,13 @@
         <v>43</v>
       </c>
       <c r="B17" t="n">
-        <v>165053.07042861</v>
+        <v>165280.493851813</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-142105.201797648</v>
+        <v>-135077.628166214</v>
       </c>
     </row>
     <row r="18">
@@ -7207,13 +6909,13 @@
         <v>7</v>
       </c>
       <c r="B18" t="n">
-        <v>170559.19484922</v>
+        <v>170266.4372936</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-22575.1073269753</v>
+        <v>-15547.5336955412</v>
       </c>
     </row>
     <row r="19">
@@ -7221,13 +6923,13 @@
         <v>44</v>
       </c>
       <c r="B19" t="n">
-        <v>165233.306005293</v>
+        <v>165209.471177295</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-22575.1073269753</v>
+        <v>-15547.5336955412</v>
       </c>
     </row>
     <row r="20">
@@ -7235,13 +6937,13 @@
         <v>45</v>
       </c>
       <c r="B20" t="n">
-        <v>162083.223828898</v>
+        <v>162217.747410945</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-22575.1073269753</v>
+        <v>-15547.5336955412</v>
       </c>
     </row>
     <row r="21">
@@ -7249,13 +6951,13 @@
         <v>46</v>
       </c>
       <c r="B21" t="n">
-        <v>161108.948320037</v>
+        <v>161291.265994549</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-22575.1073269753</v>
+        <v>-15547.5336955412</v>
       </c>
     </row>
     <row r="22">
@@ -7263,13 +6965,13 @@
         <v>8</v>
       </c>
       <c r="B22" t="n">
-        <v>163328.610000504</v>
+        <v>163377.739848834</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-13219.4091324079</v>
+        <v>-6191.83550097374</v>
       </c>
     </row>
     <row r="23">
@@ -7277,13 +6979,13 @@
         <v>47</v>
       </c>
       <c r="B23" t="n">
-        <v>164196.038063109</v>
+        <v>164200.429867018</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-13219.4091324079</v>
+        <v>-6191.83550097374</v>
       </c>
     </row>
     <row r="24">
@@ -7291,13 +6993,13 @@
         <v>48</v>
       </c>
       <c r="B24" t="n">
-        <v>164729.363029647</v>
+        <v>164707.048969828</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-13219.4091324079</v>
+        <v>-6191.83550097374</v>
       </c>
     </row>
     <row r="25">
@@ -7305,13 +7007,13 @@
         <v>49</v>
       </c>
       <c r="B25" t="n">
-        <v>164928.58490012</v>
+        <v>164897.597157264</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-13219.4091324079</v>
+        <v>-6191.83550097374</v>
       </c>
     </row>
     <row r="26">
@@ -7319,13 +7021,13 @@
         <v>9</v>
       </c>
       <c r="B26" t="n">
-        <v>164597.592214852</v>
+        <v>164589.526749772</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-15021.4959866301</v>
+        <v>-7993.92235519597</v>
       </c>
     </row>
     <row r="27">
@@ -7333,13 +7035,13 @@
         <v>50</v>
       </c>
       <c r="B27" t="n">
-        <v>165383.935348532</v>
+        <v>165382.862012548</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-15021.4959866301</v>
+        <v>-7993.92235519597</v>
       </c>
     </row>
     <row r="28">
@@ -7347,13 +7049,13 @@
         <v>51</v>
       </c>
       <c r="B28" t="n">
-        <v>167091.502841485</v>
+        <v>167095.055266039</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-15021.4959866301</v>
+        <v>-7993.92235519597</v>
       </c>
     </row>
     <row r="29">
@@ -7361,13 +7063,13 @@
         <v>52</v>
       </c>
       <c r="B29" t="n">
-        <v>169720.294693711</v>
+        <v>169726.106510244</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-15021.4959866301</v>
+        <v>-7993.92235519597</v>
       </c>
     </row>
     <row r="30">
@@ -7375,13 +7077,13 @@
         <v>10</v>
       </c>
       <c r="B30" t="n">
-        <v>174316.195281317</v>
+        <v>174249.562962936</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-5410.76498525753</v>
+        <v>1616.80864617659</v>
       </c>
     </row>
     <row r="31">
@@ -7389,13 +7091,13 @@
         <v>53</v>
       </c>
       <c r="B31" t="n">
-        <v>176134.318905654</v>
+        <v>176094.316286541</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-5410.76498525753</v>
+        <v>1616.80864617659</v>
       </c>
     </row>
     <row r="32">
@@ -7403,13 +7105,13 @@
         <v>54</v>
       </c>
       <c r="B32" t="n">
-        <v>176220.549942828</v>
+        <v>176233.913698833</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-5410.76498525753</v>
+        <v>1616.80864617659</v>
       </c>
     </row>
     <row r="33">
@@ -7417,13 +7119,13 @@
         <v>55</v>
       </c>
       <c r="B33" t="n">
-        <v>174574.888392839</v>
+        <v>174668.35519981</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>-5410.76498525753</v>
+        <v>1616.80864617659</v>
       </c>
     </row>
     <row r="34">
@@ -7431,13 +7133,13 @@
         <v>11</v>
       </c>
       <c r="B34" t="n">
-        <v>174946.62805623</v>
+        <v>174887.619826847</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>29041.8523262984</v>
+        <v>36069.4259577325</v>
       </c>
     </row>
     <row r="35">
@@ -7445,13 +7147,13 @@
         <v>56</v>
       </c>
       <c r="B35" t="n">
-        <v>172404.785128273</v>
+        <v>172412.124955979</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>29041.8523262984</v>
+        <v>36069.4259577325</v>
       </c>
     </row>
     <row r="36">
@@ -7459,13 +7161,13 @@
         <v>57</v>
       </c>
       <c r="B36" t="n">
-        <v>170698.653409512</v>
+        <v>170731.84962458</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>29041.8523262984</v>
+        <v>36069.4259577325</v>
       </c>
     </row>
     <row r="37">
@@ -7473,13 +7175,13 @@
         <v>58</v>
       </c>
       <c r="B37" t="n">
-        <v>169828.232899947</v>
+        <v>169846.793832651</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>29041.8523262984</v>
+        <v>36069.4259577325</v>
       </c>
     </row>
     <row r="38">
@@ -7487,13 +7189,13 @@
         <v>12</v>
       </c>
       <c r="B38" t="n">
-        <v>168338.789577716</v>
+        <v>168402.838241634</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>15674.1630462504</v>
+        <v>22701.7366776845</v>
       </c>
     </row>
     <row r="39">
@@ -7501,13 +7203,13 @@
         <v>59</v>
       </c>
       <c r="B39" t="n">
-        <v>168986.367091497</v>
+        <v>169002.758530564</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>15674.1630462504</v>
+        <v>22701.7366776845</v>
       </c>
     </row>
     <row r="40">
@@ -7515,13 +7217,13 @@
         <v>60</v>
       </c>
       <c r="B40" t="n">
-        <v>170316.231419429</v>
+        <v>170292.435360885</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>15674.1630462504</v>
+        <v>22701.7366776845</v>
       </c>
     </row>
     <row r="41">
@@ -7529,13 +7231,13 @@
         <v>61</v>
       </c>
       <c r="B41" t="n">
-        <v>172328.382561511</v>
+        <v>172271.868732595</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>15674.1630462504</v>
+        <v>22701.7366776845</v>
       </c>
     </row>
     <row r="42">
@@ -7543,13 +7245,13 @@
         <v>13</v>
       </c>
       <c r="B42" t="n">
-        <v>174162.17921548</v>
+        <v>174139.942418644</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>7765.64826805063</v>
+        <v>14793.2218994847</v>
       </c>
     </row>
     <row r="43">
@@ -7557,13 +7259,13 @@
         <v>62</v>
       </c>
       <c r="B43" t="n">
-        <v>176069.480173464</v>
+        <v>176046.054353053</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>7765.64826805063</v>
+        <v>14793.2218994847</v>
       </c>
     </row>
     <row r="44">
@@ -7571,13 +7273,13 @@
         <v>63</v>
       </c>
       <c r="B44" t="n">
-        <v>177189.6441332</v>
+        <v>177189.08830877</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>7765.64826805063</v>
+        <v>14793.2218994847</v>
       </c>
     </row>
     <row r="45">
@@ -7585,13 +7287,13 @@
         <v>64</v>
       </c>
       <c r="B45" t="n">
-        <v>177522.671094687</v>
+        <v>177569.044285794</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>7765.64826805063</v>
+        <v>14793.2218994847</v>
       </c>
     </row>
     <row r="46">
@@ -7599,13 +7301,13 @@
         <v>14</v>
       </c>
       <c r="B46" t="n">
-        <v>179786.370809749</v>
+        <v>179715.758452224</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>32739.860556144</v>
+        <v>39767.4341875782</v>
       </c>
     </row>
     <row r="47">
@@ -7613,13 +7315,13 @@
         <v>65</v>
       </c>
       <c r="B47" t="n">
-        <v>180280.098706662</v>
+        <v>180266.134233593</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>32739.860556144</v>
+        <v>39767.4341875782</v>
       </c>
     </row>
     <row r="48">
@@ -7627,13 +7329,13 @@
         <v>66</v>
       </c>
       <c r="B48" t="n">
-        <v>181721.66453725</v>
+        <v>181750.007797999</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>32739.860556144</v>
+        <v>39767.4341875782</v>
       </c>
     </row>
     <row r="49">
@@ -7641,13 +7343,13 @@
         <v>67</v>
       </c>
       <c r="B49" t="n">
-        <v>184111.068301513</v>
+        <v>184167.379145442</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>32739.860556144</v>
+        <v>39767.4341875782</v>
       </c>
     </row>
     <row r="50">
@@ -7655,13 +7357,13 @@
         <v>15</v>
       </c>
       <c r="B50" t="n">
-        <v>189728.752330248</v>
+        <v>189640.966940772</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>53695.0620163823</v>
+        <v>60722.6356478165</v>
       </c>
     </row>
     <row r="51">
@@ -7669,13 +7371,13 @@
         <v>68</v>
       </c>
       <c r="B51" t="n">
-        <v>192666.253167523</v>
+        <v>192619.034133511</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>53695.0620163823</v>
+        <v>60722.6356478165</v>
       </c>
     </row>
     <row r="52">
@@ -7683,13 +7385,13 @@
         <v>69</v>
       </c>
       <c r="B52" t="n">
-        <v>195204.013144137</v>
+        <v>195224.29938851</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>53695.0620163823</v>
+        <v>60722.6356478165</v>
       </c>
     </row>
     <row r="53">
@@ -7697,13 +7399,13 @@
         <v>70</v>
       </c>
       <c r="B53" t="n">
-        <v>197342.032260087</v>
+        <v>197456.762705769</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>53695.0620163823</v>
+        <v>60722.6356478165</v>
       </c>
     </row>
     <row r="54">
@@ -7711,13 +7413,13 @@
         <v>16</v>
       </c>
       <c r="B54" t="n">
-        <v>204417.269806214</v>
+        <v>204284.259906969</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>102736.888513941</v>
+        <v>109764.462145375</v>
       </c>
     </row>
     <row r="55">
@@ -7725,13 +7427,13 @@
         <v>71</v>
       </c>
       <c r="B55" t="n">
-        <v>202315.57313147</v>
+        <v>202284.306454449</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>102736.888513941</v>
+        <v>109764.462145375</v>
       </c>
     </row>
     <row r="56">
@@ -7739,13 +7441,13 @@
         <v>72</v>
       </c>
       <c r="B56" t="n">
-        <v>196373.901526694</v>
+        <v>196424.73816989</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>102736.888513941</v>
+        <v>109764.462145375</v>
       </c>
     </row>
     <row r="57">
@@ -7753,13 +7455,13 @@
         <v>73</v>
       </c>
       <c r="B57" t="n">
-        <v>186592.254991886</v>
+        <v>186705.555053292</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>102736.888513941</v>
+        <v>109764.462145375</v>
       </c>
     </row>
     <row r="58">
@@ -7767,13 +7469,13 @@
         <v>17</v>
       </c>
       <c r="B58" t="n">
-        <v>174576.656403357</v>
+        <v>174621.701611553</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>117494.785465934</v>
+        <v>124522.359097368</v>
       </c>
     </row>
     <row r="59">
@@ -7781,13 +7483,13 @@
         <v>74</v>
       </c>
       <c r="B59" t="n">
-        <v>166428.8512505</v>
+        <v>166467.636128629</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>117494.785465934</v>
+        <v>124522.359097368</v>
       </c>
     </row>
     <row r="60">
@@ -7795,13 +7497,13 @@
         <v>75</v>
       </c>
       <c r="B60" t="n">
-        <v>163754.862409625</v>
+        <v>163791.833990298</v>
       </c>
       <c r="C60" t="n">
-        <v>0</v>
+        <v>0.020706385640154</v>
       </c>
       <c r="D60" t="n">
-        <v>117494.785465934</v>
+        <v>124522.359097368</v>
       </c>
     </row>
     <row r="61">
@@ -7809,13 +7511,13 @@
         <v>76</v>
       </c>
       <c r="B61" t="n">
-        <v>166554.689880733</v>
+        <v>166433.702559919</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>117494.785465934</v>
+        <v>124522.359097368</v>
       </c>
     </row>
     <row r="62">
@@ -7823,13 +7525,13 @@
         <v>18</v>
       </c>
       <c r="B62" t="n">
-        <v>161945.241946783</v>
+        <v>162556.361557636</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>-889.169574515428</v>
+        <v>6084.87317803851</v>
       </c>
     </row>
     <row r="63">
@@ -7837,13 +7539,13 @@
         <v>77</v>
       </c>
       <c r="B63" t="n">
-        <v>170379.658267379</v>
+        <v>172607.223501037</v>
       </c>
       <c r="C63" t="n">
-        <v>0</v>
+        <v>1.85072167592936</v>
       </c>
       <c r="D63" t="n">
-        <v>-889.169574515428</v>
+        <v>6084.87317803851</v>
       </c>
     </row>
     <row r="64">
@@ -7851,13 +7553,13 @@
         <v>78</v>
       </c>
       <c r="B64" t="n">
-        <v>178974.84712548</v>
+        <v>179818.829125231</v>
       </c>
       <c r="C64" t="n">
-        <v>0</v>
+        <v>3.70707712909614</v>
       </c>
       <c r="D64" t="n">
-        <v>-889.169574515428</v>
+        <v>6084.87317803851</v>
       </c>
     </row>
     <row r="65">
@@ -7865,13 +7567,13 @@
         <v>79</v>
       </c>
       <c r="B65" t="n">
-        <v>187730.808521086</v>
+        <v>184048.323385087</v>
       </c>
       <c r="C65" t="n">
-        <v>0</v>
+        <v>5.51380831560002</v>
       </c>
       <c r="D65" t="n">
-        <v>-889.169574515428</v>
+        <v>6084.87317803851</v>
       </c>
     </row>
     <row r="66">
@@ -7879,13 +7581,13 @@
         <v>19</v>
       </c>
       <c r="B66" t="n">
-        <v>199663.684975644</v>
+        <v>185575.72014643</v>
       </c>
       <c r="C66" t="n">
-        <v>0</v>
+        <v>7.41267314027396</v>
       </c>
       <c r="D66" t="n">
-        <v>26826.4509067219</v>
+        <v>5231.31509564666</v>
       </c>
     </row>
     <row r="67">
@@ -7893,13 +7595,13 @@
         <v>80</v>
       </c>
       <c r="B67" t="n">
-        <v>199732.463820849</v>
+        <v>188316.992057133</v>
       </c>
       <c r="C67" t="n">
-        <v>0</v>
+        <v>9.2624888487411</v>
       </c>
       <c r="D67" t="n">
-        <v>26826.4509067219</v>
+        <v>5231.31509564666</v>
       </c>
     </row>
     <row r="68">
@@ -7907,13 +7609,13 @@
         <v>81</v>
       </c>
       <c r="B68" t="n">
-        <v>190953.287578148</v>
+        <v>192329.78992887</v>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>11.1190006509613</v>
       </c>
       <c r="D68" t="n">
-        <v>26826.4509067219</v>
+        <v>5231.31509564666</v>
       </c>
     </row>
     <row r="69">
@@ -7921,13 +7623,13 @@
         <v>82</v>
       </c>
       <c r="B69" t="n">
-        <v>173326.156247541</v>
+        <v>197453.244785171</v>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
+        <v>12.9199824984556</v>
       </c>
       <c r="D69" t="n">
-        <v>26826.4509067219</v>
+        <v>5231.31509564666</v>
       </c>
     </row>
     <row r="70">
@@ -7935,13 +7637,13 @@
         <v>20</v>
       </c>
       <c r="B70" t="n">
-        <v>218431.327059074</v>
+        <v>202886.038296113</v>
       </c>
       <c r="C70" t="n">
-        <v>19.3512405167052</v>
+        <v>14.8252008990644</v>
       </c>
       <c r="D70" t="n">
-        <v>91471.4585055365</v>
+        <v>-6756.61266698397</v>
       </c>
     </row>
     <row r="71">
@@ -7949,13 +7651,13 @@
         <v>83</v>
       </c>
       <c r="B71" t="n">
-        <v>210806.110485631</v>
+        <v>208276.653073048</v>
       </c>
       <c r="C71" t="n">
-        <v>21.9788920815483</v>
+        <v>16.6742308960295</v>
       </c>
       <c r="D71" t="n">
-        <v>91471.4585055365</v>
+        <v>-6756.61266698397</v>
       </c>
     </row>
     <row r="72">
@@ -7963,13 +7665,13 @@
         <v>84</v>
       </c>
       <c r="B72" t="n">
-        <v>196509.974807126</v>
+        <v>212576.189228157</v>
       </c>
       <c r="C72" t="n">
-        <v>19.582839927499</v>
+        <v>18.5310714827694</v>
       </c>
       <c r="D72" t="n">
-        <v>91471.4585055365</v>
+        <v>-6756.61266698397</v>
       </c>
     </row>
     <row r="73">
@@ -7977,13 +7679,13 @@
         <v>85</v>
       </c>
       <c r="B73" t="n">
-        <v>213596.905371914</v>
+        <v>215605.54797706</v>
       </c>
       <c r="C73" t="n">
-        <v>23.5720010136398</v>
+        <v>20.32644510258</v>
       </c>
       <c r="D73" t="n">
-        <v>91471.4585055365</v>
+        <v>-6756.61266698397</v>
       </c>
     </row>
     <row r="74">
@@ -7991,13 +7693,13 @@
         <v>21</v>
       </c>
       <c r="B74" t="n">
-        <v>206691.008306889</v>
+        <v>217722.975777518</v>
       </c>
       <c r="C74" t="n">
-        <v>24.0694368040547</v>
+        <v>22.2367362091695</v>
       </c>
       <c r="D74" t="n">
-        <v>-114656.128241798</v>
+        <v>-7721.57661393308</v>
       </c>
     </row>
     <row r="75">
@@ -8005,13 +7707,13 @@
         <v>86</v>
       </c>
       <c r="B75" t="n">
-        <v>231646.552017198</v>
+        <v>219599.138234779</v>
       </c>
       <c r="C75" t="n">
-        <v>28.6245826144362</v>
+        <v>24.0852473840084</v>
       </c>
       <c r="D75" t="n">
-        <v>-114656.128241798</v>
+        <v>-7721.57661393308</v>
       </c>
     </row>
     <row r="76">
@@ -8019,13 +7721,13 @@
         <v>87</v>
       </c>
       <c r="B76" t="n">
-        <v>220286.182123275</v>
+        <v>221317.297794163</v>
       </c>
       <c r="C76" t="n">
-        <v>23.5225103123471</v>
+        <v>25.9419959684842</v>
       </c>
       <c r="D76" t="n">
-        <v>-114656.128241798</v>
+        <v>-7721.57661393308</v>
       </c>
     </row>
     <row r="77">
@@ -8033,13 +7735,13 @@
         <v>88</v>
       </c>
       <c r="B77" t="n">
-        <v>222709.341859818</v>
+        <v>222694.002218941</v>
       </c>
       <c r="C77" t="n">
-        <v>23.783470269162</v>
+        <v>27.7360204383379</v>
       </c>
       <c r="D77" t="n">
-        <v>-114656.128241798</v>
+        <v>-7721.57661393308</v>
       </c>
     </row>
     <row r="78">
@@ -8047,13 +7749,13 @@
         <v>22</v>
       </c>
       <c r="B78" t="n">
-        <v>214684.055204205</v>
+        <v>220686.68283339</v>
       </c>
       <c r="C78" t="n">
-        <v>22.4609649459443</v>
+        <v>29.6479336232153</v>
       </c>
       <c r="D78" t="n">
-        <v>-124416.893823029</v>
+        <v>-42366.8562839041</v>
       </c>
     </row>
     <row r="79">
@@ -8061,13 +7763,13 @@
         <v>89</v>
       </c>
       <c r="B79" t="n">
-        <v>230293.058120855</v>
+        <v>230353.369185666</v>
       </c>
       <c r="C79" t="n">
-        <v>25.7420052551765</v>
+        <v>31.4960131180261</v>
       </c>
       <c r="D79" t="n">
-        <v>-124416.893823029</v>
+        <v>-42366.8562839041</v>
       </c>
     </row>
     <row r="80">
@@ -8075,13 +7777,13 @@
         <v>90</v>
       </c>
       <c r="B80" t="n">
-        <v>253511.212467653</v>
+        <v>248372.233397045</v>
       </c>
       <c r="C80" t="n">
-        <v>29.1405752873286</v>
+        <v>33.3528509451383</v>
       </c>
       <c r="D80" t="n">
-        <v>-124416.893823029</v>
+        <v>-42366.8562839041</v>
       </c>
     </row>
     <row r="81">
@@ -8089,13 +7791,13 @@
         <v>91</v>
       </c>
       <c r="B81" t="n">
-        <v>275478.748244096</v>
+        <v>274555.199632271</v>
       </c>
       <c r="C81" t="n">
-        <v>30.0004386643452</v>
+        <v>35.145697116959</v>
       </c>
       <c r="D81" t="n">
-        <v>-124416.893823029</v>
+        <v>-42366.8562839041</v>
       </c>
     </row>
     <row r="82">
@@ -8103,13 +7805,13 @@
         <v>23</v>
       </c>
       <c r="B82" t="n">
-        <v>301001.104762242</v>
+        <v>310998.792707567</v>
       </c>
       <c r="C82" t="n">
-        <v>27.5391840653641</v>
+        <v>37.0585343730839</v>
       </c>
       <c r="D82" t="n">
-        <v>-56278.4586826288</v>
+        <v>-26365.6799257821</v>
       </c>
     </row>
     <row r="83">
@@ -8117,13 +7819,13 @@
         <v>92</v>
       </c>
       <c r="B83" t="n">
-        <v>340874.031723638</v>
+        <v>328530.96254879</v>
       </c>
       <c r="C83" t="n">
-        <v>36.0349513048652</v>
+        <v>38.9065926062573</v>
       </c>
       <c r="D83" t="n">
-        <v>-56278.4586826288</v>
+        <v>-26365.6799257821</v>
       </c>
     </row>
     <row r="84">
@@ -8131,13 +7833,13 @@
         <v>93</v>
       </c>
       <c r="B84" t="n">
-        <v>324771.107962065</v>
+        <v>328962.718562262</v>
       </c>
       <c r="C84" t="n">
-        <v>32.1801415072208</v>
+        <v>40.7634137729734</v>
       </c>
       <c r="D84" t="n">
-        <v>-56278.4586826288</v>
+        <v>-26365.6799257821</v>
       </c>
     </row>
     <row r="85">
@@ -8145,13 +7847,13 @@
         <v>94</v>
       </c>
       <c r="B85" t="n">
-        <v>313951.814944712</v>
+        <v>312105.892087212</v>
       </c>
       <c r="C85" t="n">
-        <v>34.3408819155473</v>
+        <v>42.5562119796178</v>
       </c>
       <c r="D85" t="n">
-        <v>-56278.4586826288</v>
+        <v>-26365.6799257821</v>
       </c>
     </row>
     <row r="86">
@@ -8159,13 +7861,13 @@
         <v>24</v>
       </c>
       <c r="B86" t="n">
-        <v>280057.685354488</v>
+        <v>301734.803928235</v>
       </c>
       <c r="C86" t="n">
-        <v>26.4866275460351</v>
+        <v>44.4690814470478</v>
       </c>
       <c r="D86" t="n">
-        <v>174466.823631127</v>
+        <v>203633.022469228</v>
       </c>
     </row>
     <row r="87">
@@ -8173,13 +7875,13 @@
         <v>95</v>
       </c>
       <c r="B87" t="n">
-        <v>284653.46074543</v>
+        <v>281059.306054888</v>
       </c>
       <c r="C87" t="n">
-        <v>33.9759587326099</v>
+        <v>46.3171093495119</v>
       </c>
       <c r="D87" t="n">
-        <v>174466.823631127</v>
+        <v>203633.022469228</v>
       </c>
     </row>
     <row r="88">
@@ -8187,13 +7889,13 @@
         <v>96</v>
       </c>
       <c r="B88" t="n">
-        <v>290295.255087058</v>
+        <v>273568.167735234</v>
       </c>
       <c r="C88" t="n">
-        <v>38.0544426597225</v>
+        <v>48.173935150553</v>
       </c>
       <c r="D88" t="n">
-        <v>174466.823631127</v>
+        <v>203633.022469228</v>
       </c>
     </row>
     <row r="89">
@@ -8201,13 +7903,13 @@
         <v>97</v>
       </c>
       <c r="B89" t="n">
-        <v>280429.34788386</v>
+        <v>279073.063574943</v>
       </c>
       <c r="C89" t="n">
-        <v>33.7591294347849</v>
+        <v>49.9667123301358</v>
       </c>
       <c r="D89" t="n">
-        <v>174466.823631127</v>
+        <v>203633.022469228</v>
       </c>
     </row>
     <row r="90">
@@ -8215,13 +7917,13 @@
         <v>25</v>
       </c>
       <c r="B90" t="n">
-        <v>264944.544888926</v>
+        <v>275582.805230514</v>
       </c>
       <c r="C90" t="n">
-        <v>29.028273203788</v>
+        <v>51.8796092119822</v>
       </c>
       <c r="D90" t="n">
-        <v>22029.6338125246</v>
+        <v>-18161.2962585706</v>
       </c>
     </row>
     <row r="91">
@@ -8229,13 +7931,13 @@
         <v>98</v>
       </c>
       <c r="B91" t="n">
-        <v>307294.714619496</v>
+        <v>290998.532577243</v>
       </c>
       <c r="C91" t="n">
-        <v>38.3145601362264</v>
+        <v>53.727624216169</v>
       </c>
       <c r="D91" t="n">
-        <v>22029.6338125246</v>
+        <v>-18161.2962585706</v>
       </c>
     </row>
     <row r="92">
@@ -8243,13 +7945,13 @@
         <v>99</v>
       </c>
       <c r="B92" t="n">
-        <v>288444.54442046</v>
+        <v>303043.457634909</v>
       </c>
       <c r="C92" t="n">
-        <v>30.9036683738363</v>
+        <v>55.5844523033739</v>
       </c>
       <c r="D92" t="n">
-        <v>22029.6338125246</v>
+        <v>-18161.2962585706</v>
       </c>
     </row>
     <row r="93">
@@ -8257,13 +7959,13 @@
         <v>100</v>
       </c>
       <c r="B93" t="n">
-        <v>320469.962409374</v>
+        <v>311529.178193221</v>
       </c>
       <c r="C93" t="n">
-        <v>40.3969394134435</v>
+        <v>57.3772172402263</v>
       </c>
       <c r="D93" t="n">
-        <v>22029.6338125246</v>
+        <v>-18161.2962585706</v>
       </c>
     </row>
     <row r="94">
@@ -8271,13 +7973,13 @@
         <v>26</v>
       </c>
       <c r="B94" t="n">
-        <v>281918.241991239</v>
+        <v>313800.470980627</v>
       </c>
       <c r="C94" t="n">
-        <v>29.5830753157831</v>
+        <v>59.2901397574875</v>
       </c>
       <c r="D94" t="n">
-        <v>46509.9949938436</v>
+        <v>-49074.8303046264</v>
       </c>
     </row>
     <row r="95">
@@ -8285,13 +7987,13 @@
         <v>101</v>
       </c>
       <c r="B95" t="n">
-        <v>302507.509914241</v>
+        <v>318921.050009397</v>
       </c>
       <c r="C95" t="n">
-        <v>36.9131589965894</v>
+        <v>61.1381408471483</v>
       </c>
       <c r="D95" t="n">
-        <v>46509.9949938436</v>
+        <v>-49074.8303046264</v>
       </c>
     </row>
     <row r="96">
@@ -8299,13 +8001,13 @@
         <v>102</v>
       </c>
       <c r="B96" t="n">
-        <v>343857.765210638</v>
+        <v>319160.618221897</v>
       </c>
       <c r="C96" t="n">
-        <v>50.0818207543335</v>
+        <v>61.1423418632118</v>
       </c>
       <c r="D96" t="n">
-        <v>46509.9949938436</v>
+        <v>-49074.8303046264</v>
       </c>
     </row>
     <row r="97">
@@ -8313,13 +8015,13 @@
         <v>103</v>
       </c>
       <c r="B97" t="n">
-        <v>342718.555035732</v>
+        <v>319120.177851967</v>
       </c>
       <c r="C97" t="n">
-        <v>50.1260227488619</v>
+        <v>61.0824656232025</v>
       </c>
       <c r="D97" t="n">
-        <v>46509.9949938436</v>
+        <v>-49074.8303046264</v>
       </c>
     </row>
     <row r="98">
@@ -8327,13 +8029,13 @@
         <v>104</v>
       </c>
       <c r="B98" t="n">
-        <v>342475.452243925</v>
+        <v>321874.957378298</v>
       </c>
       <c r="C98" t="n">
-        <v>50.8987655466115</v>
+        <v>61.0225893831932</v>
       </c>
       <c r="D98" t="n">
-        <v>42763.1457978073</v>
+        <v>-5372.45888620766</v>
       </c>
     </row>
     <row r="99">
@@ -8341,13 +8043,13 @@
         <v>105</v>
       </c>
       <c r="B99" t="n">
-        <v>351829.159800379</v>
+        <v>321720.163209608</v>
       </c>
       <c r="C99" t="n">
-        <v>53.7030887152422</v>
+        <v>60.9627131431838</v>
       </c>
       <c r="D99" t="n">
-        <v>42763.1457978073</v>
+        <v>-5372.45888620766</v>
       </c>
     </row>
     <row r="100">
@@ -8355,13 +8057,13 @@
         <v>106</v>
       </c>
       <c r="B100" t="n">
-        <v>361299.078485411</v>
+        <v>321565.369040918</v>
       </c>
       <c r="C100" t="n">
-        <v>56.5422529945616</v>
+        <v>60.9028369031745</v>
       </c>
       <c r="D100" t="n">
-        <v>42763.1457978073</v>
+        <v>-5372.45888620766</v>
       </c>
     </row>
     <row r="101">
@@ -8369,237 +8071,13 @@
         <v>107</v>
       </c>
       <c r="B101" t="n">
-        <v>385926.304972178</v>
+        <v>321410.574872228</v>
       </c>
       <c r="C101" t="n">
-        <v>63.9257104523803</v>
+        <v>60.8429606631652</v>
       </c>
       <c r="D101" t="n">
-        <v>42763.1457978073</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="s">
-        <v>108</v>
-      </c>
-      <c r="B102" t="n">
-        <v>365508.923662228</v>
-      </c>
-      <c r="C102" t="n">
-        <v>57.8044013239211</v>
-      </c>
-      <c r="D102" t="n">
-        <v>42763.1457978073</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="s">
-        <v>109</v>
-      </c>
-      <c r="B103" t="n">
-        <v>382681.195671722</v>
-      </c>
-      <c r="C103" t="n">
-        <v>62.952798359386</v>
-      </c>
-      <c r="D103" t="n">
-        <v>42763.1457978073</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="s">
-        <v>110</v>
-      </c>
-      <c r="B104" t="n">
-        <v>393149.791932438</v>
-      </c>
-      <c r="C104" t="n">
-        <v>66.0913748927854</v>
-      </c>
-      <c r="D104" t="n">
-        <v>42763.1457978073</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="s">
-        <v>111</v>
-      </c>
-      <c r="B105" t="n">
-        <v>387842.087937949</v>
-      </c>
-      <c r="C105" t="n">
-        <v>64.5000789073011</v>
-      </c>
-      <c r="D105" t="n">
-        <v>42763.1457978073</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="s">
-        <v>112</v>
-      </c>
-      <c r="B106" t="n">
-        <v>402186.368143782</v>
-      </c>
-      <c r="C106" t="n">
-        <v>68.8006193160926</v>
-      </c>
-      <c r="D106" t="n">
-        <v>42763.1457978073</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="s">
-        <v>113</v>
-      </c>
-      <c r="B107" t="n">
-        <v>394419.448471462</v>
-      </c>
-      <c r="C107" t="n">
-        <v>66.4720290052962</v>
-      </c>
-      <c r="D107" t="n">
-        <v>42763.1457978073</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="s">
-        <v>114</v>
-      </c>
-      <c r="B108" t="n">
-        <v>404014.227193377</v>
-      </c>
-      <c r="C108" t="n">
-        <v>69.3486274135056</v>
-      </c>
-      <c r="D108" t="n">
-        <v>42763.1457978073</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="s">
-        <v>115</v>
-      </c>
-      <c r="B109" t="n">
-        <v>414175.176881635</v>
-      </c>
-      <c r="C109" t="n">
-        <v>72.3949688192096</v>
-      </c>
-      <c r="D109" t="n">
-        <v>42763.1457978073</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="s">
-        <v>116</v>
-      </c>
-      <c r="B110" t="n">
-        <v>401252.952974483</v>
-      </c>
-      <c r="C110" t="n">
-        <v>68.5207733010854</v>
-      </c>
-      <c r="D110" t="n">
-        <v>42763.1457978073</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="s">
-        <v>117</v>
-      </c>
-      <c r="B111" t="n">
-        <v>418925.931589126</v>
-      </c>
-      <c r="C111" t="n">
-        <v>73.8192865471576</v>
-      </c>
-      <c r="D111" t="n">
-        <v>42763.1457978073</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="s">
-        <v>118</v>
-      </c>
-      <c r="B112" t="n">
-        <v>414305.502041853</v>
-      </c>
-      <c r="C112" t="n">
-        <v>72.4340414397773</v>
-      </c>
-      <c r="D112" t="n">
-        <v>42763.1457978073</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="s">
-        <v>119</v>
-      </c>
-      <c r="B113" t="n">
-        <v>416165.094482685</v>
-      </c>
-      <c r="C113" t="n">
-        <v>72.991563484866</v>
-      </c>
-      <c r="D113" t="n">
-        <v>42763.1457978073</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="s">
-        <v>120</v>
-      </c>
-      <c r="B114" t="n">
-        <v>427380.564246544</v>
-      </c>
-      <c r="C114" t="n">
-        <v>76.3540592135428</v>
-      </c>
-      <c r="D114" t="n">
-        <v>42763.1457978073</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="s">
-        <v>121</v>
-      </c>
-      <c r="B115" t="n">
-        <v>416243.7556589</v>
-      </c>
-      <c r="C115" t="n">
-        <v>73.0151467920841</v>
-      </c>
-      <c r="D115" t="n">
-        <v>42763.1457978073</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="s">
-        <v>122</v>
-      </c>
-      <c r="B116" t="n">
-        <v>430554.624882768</v>
-      </c>
-      <c r="C116" t="n">
-        <v>77.3056702968569</v>
-      </c>
-      <c r="D116" t="n">
-        <v>42763.1457978073</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="s">
-        <v>123</v>
-      </c>
-      <c r="B117" t="n">
-        <v>429418.025186876</v>
-      </c>
-      <c r="C117" t="n">
-        <v>76.9649077872948</v>
-      </c>
-      <c r="D117" t="n">
-        <v>42763.1457978073</v>
+        <v>-5372.45888620766</v>
       </c>
     </row>
   </sheetData>
@@ -8621,7 +8099,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2">
@@ -8629,7 +8107,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>140421.038374167</v>
+        <v>140654.596445967</v>
       </c>
     </row>
     <row r="3">
@@ -8637,7 +8115,7 @@
         <v>32</v>
       </c>
       <c r="B3" t="n">
-        <v>141159.814181197</v>
+        <v>141299.949024277</v>
       </c>
     </row>
     <row r="4">
@@ -8645,7 +8123,7 @@
         <v>33</v>
       </c>
       <c r="B4" t="n">
-        <v>142637.365795258</v>
+        <v>142590.654180898</v>
       </c>
     </row>
     <row r="5">
@@ -8653,7 +8131,7 @@
         <v>34</v>
       </c>
       <c r="B5" t="n">
-        <v>144853.693216349</v>
+        <v>144526.71191583</v>
       </c>
     </row>
     <row r="6">
@@ -8661,7 +8139,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>139156.484965668</v>
+        <v>139433.795533224</v>
       </c>
     </row>
     <row r="7">
@@ -8669,7 +8147,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="n">
-        <v>139998.733180159</v>
+        <v>140015.692232502</v>
       </c>
     </row>
     <row r="8">
@@ -8677,7 +8155,7 @@
         <v>36</v>
       </c>
       <c r="B8" t="n">
-        <v>138728.126381018</v>
+        <v>138598.075317815</v>
       </c>
     </row>
     <row r="9">
@@ -8685,7 +8163,7 @@
         <v>37</v>
       </c>
       <c r="B9" t="n">
-        <v>135344.664568246</v>
+        <v>135180.944789163</v>
       </c>
     </row>
     <row r="10">
@@ -8693,7 +8171,7 @@
         <v>5</v>
       </c>
       <c r="B10" t="n">
-        <v>128124.13020758</v>
+        <v>128159.336253098</v>
       </c>
     </row>
     <row r="11">
@@ -8701,7 +8179,7 @@
         <v>38</v>
       </c>
       <c r="B11" t="n">
-        <v>127685.829284415</v>
+        <v>127738.87677815</v>
       </c>
     </row>
     <row r="12">
@@ -8709,7 +8187,7 @@
         <v>39</v>
       </c>
       <c r="B12" t="n">
-        <v>132305.544264488</v>
+        <v>132314.601970868</v>
       </c>
     </row>
     <row r="13">
@@ -8717,7 +8195,7 @@
         <v>40</v>
       </c>
       <c r="B13" t="n">
-        <v>141983.275147799</v>
+        <v>141886.511831253</v>
       </c>
     </row>
     <row r="14">
@@ -8725,7 +8203,7 @@
         <v>6</v>
       </c>
       <c r="B14" t="n">
-        <v>154201.993515976</v>
+        <v>154111.664759123</v>
       </c>
     </row>
     <row r="15">
@@ -8733,7 +8211,7 @@
         <v>41</v>
       </c>
       <c r="B15" t="n">
-        <v>163378.379728023</v>
+        <v>163257.183538598</v>
       </c>
     </row>
     <row r="16">
@@ -8741,7 +8219,7 @@
         <v>42</v>
       </c>
       <c r="B16" t="n">
-        <v>166995.405365568</v>
+        <v>166980.126569494</v>
       </c>
     </row>
     <row r="17">
@@ -8749,7 +8227,7 @@
         <v>43</v>
       </c>
       <c r="B17" t="n">
-        <v>165053.07042861</v>
+        <v>165280.493851813</v>
       </c>
     </row>
     <row r="18">
@@ -8757,7 +8235,7 @@
         <v>7</v>
       </c>
       <c r="B18" t="n">
-        <v>170559.19484922</v>
+        <v>170266.4372936</v>
       </c>
     </row>
     <row r="19">
@@ -8765,7 +8243,7 @@
         <v>44</v>
       </c>
       <c r="B19" t="n">
-        <v>165233.306005293</v>
+        <v>165209.471177295</v>
       </c>
     </row>
     <row r="20">
@@ -8773,7 +8251,7 @@
         <v>45</v>
       </c>
       <c r="B20" t="n">
-        <v>162083.223828898</v>
+        <v>162217.747410945</v>
       </c>
     </row>
     <row r="21">
@@ -8781,7 +8259,7 @@
         <v>46</v>
       </c>
       <c r="B21" t="n">
-        <v>161108.948320037</v>
+        <v>161291.265994549</v>
       </c>
     </row>
     <row r="22">
@@ -8789,7 +8267,7 @@
         <v>8</v>
       </c>
       <c r="B22" t="n">
-        <v>163328.610000504</v>
+        <v>163377.739848834</v>
       </c>
     </row>
     <row r="23">
@@ -8797,7 +8275,7 @@
         <v>47</v>
       </c>
       <c r="B23" t="n">
-        <v>164196.038063109</v>
+        <v>164200.429867018</v>
       </c>
     </row>
     <row r="24">
@@ -8805,7 +8283,7 @@
         <v>48</v>
       </c>
       <c r="B24" t="n">
-        <v>164729.363029647</v>
+        <v>164707.048969828</v>
       </c>
     </row>
     <row r="25">
@@ -8813,7 +8291,7 @@
         <v>49</v>
       </c>
       <c r="B25" t="n">
-        <v>164928.58490012</v>
+        <v>164897.597157264</v>
       </c>
     </row>
     <row r="26">
@@ -8821,7 +8299,7 @@
         <v>9</v>
       </c>
       <c r="B26" t="n">
-        <v>164597.592214852</v>
+        <v>164589.526749772</v>
       </c>
     </row>
     <row r="27">
@@ -8829,7 +8307,7 @@
         <v>50</v>
       </c>
       <c r="B27" t="n">
-        <v>165383.935348532</v>
+        <v>165382.862012548</v>
       </c>
     </row>
     <row r="28">
@@ -8837,7 +8315,7 @@
         <v>51</v>
       </c>
       <c r="B28" t="n">
-        <v>167091.502841485</v>
+        <v>167095.055266039</v>
       </c>
     </row>
     <row r="29">
@@ -8845,7 +8323,7 @@
         <v>52</v>
       </c>
       <c r="B29" t="n">
-        <v>169720.294693711</v>
+        <v>169726.106510244</v>
       </c>
     </row>
     <row r="30">
@@ -8853,7 +8331,7 @@
         <v>10</v>
       </c>
       <c r="B30" t="n">
-        <v>174316.195281317</v>
+        <v>174249.562962936</v>
       </c>
     </row>
     <row r="31">
@@ -8861,7 +8339,7 @@
         <v>53</v>
       </c>
       <c r="B31" t="n">
-        <v>176134.318905654</v>
+        <v>176094.316286541</v>
       </c>
     </row>
     <row r="32">
@@ -8869,7 +8347,7 @@
         <v>54</v>
       </c>
       <c r="B32" t="n">
-        <v>176220.549942828</v>
+        <v>176233.913698833</v>
       </c>
     </row>
     <row r="33">
@@ -8877,7 +8355,7 @@
         <v>55</v>
       </c>
       <c r="B33" t="n">
-        <v>174574.888392839</v>
+        <v>174668.35519981</v>
       </c>
     </row>
     <row r="34">
@@ -8885,7 +8363,7 @@
         <v>11</v>
       </c>
       <c r="B34" t="n">
-        <v>174946.62805623</v>
+        <v>174887.619826847</v>
       </c>
     </row>
     <row r="35">
@@ -8893,7 +8371,7 @@
         <v>56</v>
       </c>
       <c r="B35" t="n">
-        <v>172404.785128273</v>
+        <v>172412.124955979</v>
       </c>
     </row>
     <row r="36">
@@ -8901,7 +8379,7 @@
         <v>57</v>
       </c>
       <c r="B36" t="n">
-        <v>170698.653409512</v>
+        <v>170731.84962458</v>
       </c>
     </row>
     <row r="37">
@@ -8909,7 +8387,7 @@
         <v>58</v>
       </c>
       <c r="B37" t="n">
-        <v>169828.232899947</v>
+        <v>169846.793832651</v>
       </c>
     </row>
     <row r="38">
@@ -8917,7 +8395,7 @@
         <v>12</v>
       </c>
       <c r="B38" t="n">
-        <v>168338.789577716</v>
+        <v>168402.838241634</v>
       </c>
     </row>
     <row r="39">
@@ -8925,7 +8403,7 @@
         <v>59</v>
       </c>
       <c r="B39" t="n">
-        <v>168986.367091497</v>
+        <v>169002.758530564</v>
       </c>
     </row>
     <row r="40">
@@ -8933,7 +8411,7 @@
         <v>60</v>
       </c>
       <c r="B40" t="n">
-        <v>170316.231419429</v>
+        <v>170292.435360885</v>
       </c>
     </row>
     <row r="41">
@@ -8941,7 +8419,7 @@
         <v>61</v>
       </c>
       <c r="B41" t="n">
-        <v>172328.382561511</v>
+        <v>172271.868732595</v>
       </c>
     </row>
     <row r="42">
@@ -8949,7 +8427,7 @@
         <v>13</v>
       </c>
       <c r="B42" t="n">
-        <v>174162.17921548</v>
+        <v>174139.942418644</v>
       </c>
     </row>
     <row r="43">
@@ -8957,7 +8435,7 @@
         <v>62</v>
       </c>
       <c r="B43" t="n">
-        <v>176069.480173464</v>
+        <v>176046.054353053</v>
       </c>
     </row>
     <row r="44">
@@ -8965,7 +8443,7 @@
         <v>63</v>
       </c>
       <c r="B44" t="n">
-        <v>177189.6441332</v>
+        <v>177189.08830877</v>
       </c>
     </row>
     <row r="45">
@@ -8973,7 +8451,7 @@
         <v>64</v>
       </c>
       <c r="B45" t="n">
-        <v>177522.671094687</v>
+        <v>177569.044285794</v>
       </c>
     </row>
     <row r="46">
@@ -8981,7 +8459,7 @@
         <v>14</v>
       </c>
       <c r="B46" t="n">
-        <v>179786.370809749</v>
+        <v>179715.758452224</v>
       </c>
     </row>
     <row r="47">
@@ -8989,7 +8467,7 @@
         <v>65</v>
       </c>
       <c r="B47" t="n">
-        <v>180280.098706662</v>
+        <v>180266.134233593</v>
       </c>
     </row>
     <row r="48">
@@ -8997,7 +8475,7 @@
         <v>66</v>
       </c>
       <c r="B48" t="n">
-        <v>181721.66453725</v>
+        <v>181750.007797999</v>
       </c>
     </row>
     <row r="49">
@@ -9005,7 +8483,7 @@
         <v>67</v>
       </c>
       <c r="B49" t="n">
-        <v>184111.068301513</v>
+        <v>184167.379145442</v>
       </c>
     </row>
     <row r="50">
@@ -9013,7 +8491,7 @@
         <v>15</v>
       </c>
       <c r="B50" t="n">
-        <v>189728.752330248</v>
+        <v>189640.966940772</v>
       </c>
     </row>
     <row r="51">
@@ -9021,7 +8499,7 @@
         <v>68</v>
       </c>
       <c r="B51" t="n">
-        <v>192666.253167523</v>
+        <v>192619.034133511</v>
       </c>
     </row>
     <row r="52">
@@ -9029,7 +8507,7 @@
         <v>69</v>
       </c>
       <c r="B52" t="n">
-        <v>195204.013144137</v>
+        <v>195224.29938851</v>
       </c>
     </row>
     <row r="53">
@@ -9037,7 +8515,7 @@
         <v>70</v>
       </c>
       <c r="B53" t="n">
-        <v>197342.032260087</v>
+        <v>197456.762705769</v>
       </c>
     </row>
     <row r="54">
@@ -9045,7 +8523,7 @@
         <v>16</v>
       </c>
       <c r="B54" t="n">
-        <v>204417.269806214</v>
+        <v>204284.259906969</v>
       </c>
     </row>
     <row r="55">
@@ -9053,7 +8531,7 @@
         <v>71</v>
       </c>
       <c r="B55" t="n">
-        <v>202315.57313147</v>
+        <v>202284.306454449</v>
       </c>
     </row>
     <row r="56">
@@ -9061,7 +8539,7 @@
         <v>72</v>
       </c>
       <c r="B56" t="n">
-        <v>196373.901526694</v>
+        <v>196424.73816989</v>
       </c>
     </row>
     <row r="57">
@@ -9069,7 +8547,7 @@
         <v>73</v>
       </c>
       <c r="B57" t="n">
-        <v>186592.254991886</v>
+        <v>186705.555053292</v>
       </c>
     </row>
     <row r="58">
@@ -9077,7 +8555,7 @@
         <v>17</v>
       </c>
       <c r="B58" t="n">
-        <v>174576.656403357</v>
+        <v>174621.701611553</v>
       </c>
     </row>
     <row r="59">
@@ -9085,7 +8563,7 @@
         <v>74</v>
       </c>
       <c r="B59" t="n">
-        <v>166428.8512505</v>
+        <v>166467.636128629</v>
       </c>
     </row>
     <row r="60">
@@ -9093,7 +8571,7 @@
         <v>75</v>
       </c>
       <c r="B60" t="n">
-        <v>163754.862409625</v>
+        <v>163791.833990298</v>
       </c>
     </row>
     <row r="61">
@@ -9101,7 +8579,7 @@
         <v>76</v>
       </c>
       <c r="B61" t="n">
-        <v>166554.689880733</v>
+        <v>166433.702559919</v>
       </c>
     </row>
     <row r="62">
@@ -9109,7 +8587,7 @@
         <v>18</v>
       </c>
       <c r="B62" t="n">
-        <v>161945.241946783</v>
+        <v>162556.361557636</v>
       </c>
     </row>
     <row r="63">
@@ -9117,7 +8595,7 @@
         <v>77</v>
       </c>
       <c r="B63" t="n">
-        <v>170379.658267379</v>
+        <v>172607.223501037</v>
       </c>
     </row>
     <row r="64">
@@ -9125,7 +8603,7 @@
         <v>78</v>
       </c>
       <c r="B64" t="n">
-        <v>178974.84712548</v>
+        <v>179818.829125231</v>
       </c>
     </row>
     <row r="65">
@@ -9133,7 +8611,7 @@
         <v>79</v>
       </c>
       <c r="B65" t="n">
-        <v>187730.808521086</v>
+        <v>184048.323385087</v>
       </c>
     </row>
     <row r="66">
@@ -9141,7 +8619,7 @@
         <v>19</v>
       </c>
       <c r="B66" t="n">
-        <v>199663.684975644</v>
+        <v>185575.72014643</v>
       </c>
     </row>
     <row r="67">
@@ -9149,7 +8627,7 @@
         <v>80</v>
       </c>
       <c r="B67" t="n">
-        <v>199732.463820849</v>
+        <v>188316.992057133</v>
       </c>
     </row>
     <row r="68">
@@ -9157,7 +8635,7 @@
         <v>81</v>
       </c>
       <c r="B68" t="n">
-        <v>190953.287578148</v>
+        <v>192329.78992887</v>
       </c>
     </row>
     <row r="69">
@@ -9165,7 +8643,7 @@
         <v>82</v>
       </c>
       <c r="B69" t="n">
-        <v>173326.156247541</v>
+        <v>197453.244785171</v>
       </c>
     </row>
     <row r="70">
@@ -9173,7 +8651,7 @@
         <v>20</v>
       </c>
       <c r="B70" t="n">
-        <v>218431.327059074</v>
+        <v>202886.038296113</v>
       </c>
     </row>
     <row r="71">
@@ -9181,7 +8659,7 @@
         <v>83</v>
       </c>
       <c r="B71" t="n">
-        <v>210806.110485631</v>
+        <v>208276.653073048</v>
       </c>
     </row>
     <row r="72">
@@ -9189,7 +8667,7 @@
         <v>84</v>
       </c>
       <c r="B72" t="n">
-        <v>196509.974807126</v>
+        <v>212576.189228157</v>
       </c>
     </row>
     <row r="73">
@@ -9197,7 +8675,7 @@
         <v>85</v>
       </c>
       <c r="B73" t="n">
-        <v>213596.905371914</v>
+        <v>215605.54797706</v>
       </c>
     </row>
     <row r="74">
@@ -9205,7 +8683,7 @@
         <v>21</v>
       </c>
       <c r="B74" t="n">
-        <v>206691.008306889</v>
+        <v>217722.975777518</v>
       </c>
     </row>
     <row r="75">
@@ -9213,7 +8691,7 @@
         <v>86</v>
       </c>
       <c r="B75" t="n">
-        <v>231646.552017198</v>
+        <v>219599.138234779</v>
       </c>
     </row>
     <row r="76">
@@ -9221,7 +8699,7 @@
         <v>87</v>
       </c>
       <c r="B76" t="n">
-        <v>220286.182123275</v>
+        <v>221317.297794163</v>
       </c>
     </row>
     <row r="77">
@@ -9229,7 +8707,7 @@
         <v>88</v>
       </c>
       <c r="B77" t="n">
-        <v>222709.341859818</v>
+        <v>222694.002218941</v>
       </c>
     </row>
     <row r="78">
@@ -9237,7 +8715,7 @@
         <v>22</v>
       </c>
       <c r="B78" t="n">
-        <v>214684.055204205</v>
+        <v>220686.68283339</v>
       </c>
     </row>
     <row r="79">
@@ -9245,7 +8723,7 @@
         <v>89</v>
       </c>
       <c r="B79" t="n">
-        <v>230293.058120855</v>
+        <v>230353.369185666</v>
       </c>
     </row>
     <row r="80">
@@ -9253,7 +8731,7 @@
         <v>90</v>
       </c>
       <c r="B80" t="n">
-        <v>253511.212467653</v>
+        <v>248372.233397045</v>
       </c>
     </row>
     <row r="81">
@@ -9261,7 +8739,7 @@
         <v>91</v>
       </c>
       <c r="B81" t="n">
-        <v>275478.748244096</v>
+        <v>274555.199632271</v>
       </c>
     </row>
     <row r="82">
@@ -9269,7 +8747,7 @@
         <v>23</v>
       </c>
       <c r="B82" t="n">
-        <v>301001.104762242</v>
+        <v>310998.792707567</v>
       </c>
     </row>
     <row r="83">
@@ -9277,7 +8755,7 @@
         <v>92</v>
       </c>
       <c r="B83" t="n">
-        <v>340874.031723638</v>
+        <v>328530.96254879</v>
       </c>
     </row>
     <row r="84">
@@ -9285,7 +8763,7 @@
         <v>93</v>
       </c>
       <c r="B84" t="n">
-        <v>324771.107962065</v>
+        <v>328962.718562262</v>
       </c>
     </row>
     <row r="85">
@@ -9293,7 +8771,7 @@
         <v>94</v>
       </c>
       <c r="B85" t="n">
-        <v>313951.814944712</v>
+        <v>312105.892087212</v>
       </c>
     </row>
     <row r="86">
@@ -9301,7 +8779,7 @@
         <v>24</v>
       </c>
       <c r="B86" t="n">
-        <v>280057.685354488</v>
+        <v>301734.803928235</v>
       </c>
     </row>
     <row r="87">
@@ -9309,7 +8787,7 @@
         <v>95</v>
       </c>
       <c r="B87" t="n">
-        <v>284653.46074543</v>
+        <v>281059.306054888</v>
       </c>
     </row>
     <row r="88">
@@ -9317,7 +8795,7 @@
         <v>96</v>
       </c>
       <c r="B88" t="n">
-        <v>290295.255087058</v>
+        <v>273568.167735234</v>
       </c>
     </row>
     <row r="89">
@@ -9325,7 +8803,7 @@
         <v>97</v>
       </c>
       <c r="B89" t="n">
-        <v>280429.34788386</v>
+        <v>279073.063574943</v>
       </c>
     </row>
     <row r="90">
@@ -9333,7 +8811,7 @@
         <v>25</v>
       </c>
       <c r="B90" t="n">
-        <v>264944.544888926</v>
+        <v>275582.805230514</v>
       </c>
     </row>
     <row r="91">
@@ -9341,7 +8819,7 @@
         <v>98</v>
       </c>
       <c r="B91" t="n">
-        <v>307294.714619496</v>
+        <v>290998.532577243</v>
       </c>
     </row>
     <row r="92">
@@ -9349,7 +8827,7 @@
         <v>99</v>
       </c>
       <c r="B92" t="n">
-        <v>288444.54442046</v>
+        <v>303043.457634909</v>
       </c>
     </row>
     <row r="93">
@@ -9357,7 +8835,7 @@
         <v>100</v>
       </c>
       <c r="B93" t="n">
-        <v>320469.962409374</v>
+        <v>311529.178193221</v>
       </c>
     </row>
     <row r="94">
@@ -9365,7 +8843,7 @@
         <v>26</v>
       </c>
       <c r="B94" t="n">
-        <v>281918.241991239</v>
+        <v>313800.470980627</v>
       </c>
     </row>
     <row r="95">
@@ -9373,7 +8851,7 @@
         <v>101</v>
       </c>
       <c r="B95" t="n">
-        <v>302507.509914241</v>
+        <v>318921.050009397</v>
       </c>
     </row>
     <row r="96">
@@ -9381,7 +8859,7 @@
         <v>102</v>
       </c>
       <c r="B96" t="n">
-        <v>343857.765210638</v>
+        <v>319160.618221897</v>
       </c>
     </row>
     <row r="97">
@@ -9389,7 +8867,7 @@
         <v>103</v>
       </c>
       <c r="B97" t="n">
-        <v>342718.555035732</v>
+        <v>319120.177851967</v>
       </c>
     </row>
     <row r="98">
@@ -9397,7 +8875,7 @@
         <v>104</v>
       </c>
       <c r="B98" t="n">
-        <v>342475.452243925</v>
+        <v>321874.957378298</v>
       </c>
     </row>
     <row r="99">
@@ -9405,7 +8883,7 @@
         <v>105</v>
       </c>
       <c r="B99" t="n">
-        <v>351829.159800379</v>
+        <v>321720.163209608</v>
       </c>
     </row>
     <row r="100">
@@ -9413,7 +8891,7 @@
         <v>106</v>
       </c>
       <c r="B100" t="n">
-        <v>361299.078485411</v>
+        <v>321565.369040918</v>
       </c>
     </row>
     <row r="101">
@@ -9421,135 +8899,7 @@
         <v>107</v>
       </c>
       <c r="B101" t="n">
-        <v>385926.304972178</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="s">
-        <v>108</v>
-      </c>
-      <c r="B102" t="n">
-        <v>365508.923662228</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="s">
-        <v>109</v>
-      </c>
-      <c r="B103" t="n">
-        <v>382681.195671722</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="s">
-        <v>110</v>
-      </c>
-      <c r="B104" t="n">
-        <v>393149.791932438</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="s">
-        <v>111</v>
-      </c>
-      <c r="B105" t="n">
-        <v>387842.087937949</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="s">
-        <v>112</v>
-      </c>
-      <c r="B106" t="n">
-        <v>402186.368143782</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="s">
-        <v>113</v>
-      </c>
-      <c r="B107" t="n">
-        <v>394419.448471462</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="s">
-        <v>114</v>
-      </c>
-      <c r="B108" t="n">
-        <v>404014.227193377</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="s">
-        <v>115</v>
-      </c>
-      <c r="B109" t="n">
-        <v>414175.176881635</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="s">
-        <v>116</v>
-      </c>
-      <c r="B110" t="n">
-        <v>401252.952974483</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="s">
-        <v>117</v>
-      </c>
-      <c r="B111" t="n">
-        <v>418925.931589126</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="s">
-        <v>118</v>
-      </c>
-      <c r="B112" t="n">
-        <v>414305.502041853</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="s">
-        <v>119</v>
-      </c>
-      <c r="B113" t="n">
-        <v>416165.094482685</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="s">
-        <v>120</v>
-      </c>
-      <c r="B114" t="n">
-        <v>427380.564246544</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="s">
-        <v>121</v>
-      </c>
-      <c r="B115" t="n">
-        <v>416243.7556589</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="s">
-        <v>122</v>
-      </c>
-      <c r="B116" t="n">
-        <v>430554.624882768</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="s">
-        <v>123</v>
-      </c>
-      <c r="B117" t="n">
-        <v>429418.025186876</v>
+        <v>321410.574872228</v>
       </c>
     </row>
   </sheetData>
